--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U247"/>
+  <dimension ref="A1:U249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E233" workbookViewId="0">
-      <selection activeCell="F249" sqref="F249:F253"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="E249" sqref="E249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,7 +488,7 @@
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -19173,7 +19173,7 @@
         <v>1.3194826794129885E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="7">
         <v>45653</v>
       </c>
@@ -19193,23 +19193,23 @@
         <v>212.45653139474263</v>
       </c>
       <c r="G247" s="2">
-        <f t="shared" ref="G247" si="243">+F247/$U$1</f>
+        <f t="shared" ref="G247:G249" si="243">+F247/$U$1</f>
         <v>2.1245653139474263</v>
       </c>
       <c r="H247" s="8">
-        <f t="shared" ref="H247" si="244">+B247/G247</f>
+        <f t="shared" ref="H247:H249" si="244">+B247/G247</f>
         <v>44340.015993658038</v>
       </c>
       <c r="I247">
-        <f t="shared" ref="I247" si="245">+C247/G247</f>
+        <f t="shared" ref="I247:I249" si="245">+C247/G247</f>
         <v>569.52826635008421</v>
       </c>
       <c r="J247">
-        <f t="shared" ref="J247" si="246">+D247/F247</f>
+        <f t="shared" ref="J247:J248" si="246">+D247/F247</f>
         <v>12132.10840391129</v>
       </c>
       <c r="K247">
-        <f t="shared" ref="K247" si="247">+D247/C247/G247</f>
+        <f t="shared" ref="K247:K248" si="247">+D247/C247/G247</f>
         <v>1002.6535871001067</v>
       </c>
       <c r="L247">
@@ -19247,6 +19247,158 @@
       <c r="T247" s="4">
         <f t="shared" ref="T247" si="256">+_xlfn.STDEV.S(P228:P247)</f>
         <v>1.3151728671364552E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="7">
+        <v>45656</v>
+      </c>
+      <c r="B248">
+        <v>92643.21</v>
+      </c>
+      <c r="C248">
+        <v>1215</v>
+      </c>
+      <c r="D248">
+        <v>2533635</v>
+      </c>
+      <c r="E248">
+        <v>75.23</v>
+      </c>
+      <c r="F248">
+        <v>212.47352791725422</v>
+      </c>
+      <c r="G248" s="2">
+        <f t="shared" si="243"/>
+        <v>2.1247352791725422</v>
+      </c>
+      <c r="H248" s="8">
+        <f t="shared" si="244"/>
+        <v>43602.236432991791</v>
+      </c>
+      <c r="I248">
+        <f t="shared" ref="I248:I249" si="257">+C248/G248</f>
+        <v>571.83594206294254</v>
+      </c>
+      <c r="J248">
+        <f t="shared" ref="J248:J249" si="258">+D248/F248</f>
+        <v>11924.473720729577</v>
+      </c>
+      <c r="K248">
+        <f t="shared" ref="K248:K249" si="259">+D248/C248/G248</f>
+        <v>981.43816631519132</v>
+      </c>
+      <c r="L248">
+        <f t="shared" ref="L248:L249" si="260">+E248/G248</f>
+        <v>35.406763721312899</v>
+      </c>
+      <c r="M248" s="4">
+        <f t="shared" ref="M248:M249" si="261">+LN(B248/B247)</f>
+        <v>-1.6699124718738797E-2</v>
+      </c>
+      <c r="N248" s="4">
+        <f t="shared" ref="N248:N249" si="262">+LN(C248/C247)</f>
+        <v>4.1237171838621562E-3</v>
+      </c>
+      <c r="O248" s="4">
+        <f t="shared" ref="O248:O249" si="263">+LN(D248/D247)</f>
+        <v>-1.7182624989483801E-2</v>
+      </c>
+      <c r="P248" s="4">
+        <f t="shared" ref="P248:P249" si="264">+LN(E248/E247)</f>
+        <v>3.9957431959107108E-3</v>
+      </c>
+      <c r="Q248" s="4">
+        <f t="shared" ref="Q248:Q249" si="265">+_xlfn.STDEV.S(M229:M248)</f>
+        <v>3.1425279498059303E-2</v>
+      </c>
+      <c r="R248" s="4">
+        <f t="shared" ref="R248:R249" si="266">+_xlfn.STDEV.S(N229:N248)</f>
+        <v>1.8614177987299606E-2</v>
+      </c>
+      <c r="S248" s="4">
+        <f t="shared" ref="S248:S249" si="267">+_xlfn.STDEV.S(O229:O248)</f>
+        <v>2.5607439411847857E-2</v>
+      </c>
+      <c r="T248" s="4">
+        <f t="shared" ref="T248:T249" si="268">+_xlfn.STDEV.S(P229:P248)</f>
+        <v>1.2983324550563301E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A249" s="7">
+        <v>45657</v>
+      </c>
+      <c r="B249">
+        <v>93429.2</v>
+      </c>
+      <c r="C249">
+        <v>1230</v>
+      </c>
+      <c r="D249">
+        <v>2533635</v>
+      </c>
+      <c r="E249">
+        <v>75.23</v>
+      </c>
+      <c r="F249">
+        <v>212.49052579948761</v>
+      </c>
+      <c r="G249" s="2">
+        <f t="shared" si="243"/>
+        <v>2.1249052579948762</v>
+      </c>
+      <c r="H249" s="8">
+        <f t="shared" si="244"/>
+        <v>43968.642671703194</v>
+      </c>
+      <c r="I249">
+        <f t="shared" si="257"/>
+        <v>578.84933710440555</v>
+      </c>
+      <c r="J249">
+        <f t="shared" si="258"/>
+        <v>11923.519839142444</v>
+      </c>
+      <c r="K249">
+        <f t="shared" si="259"/>
+        <v>969.39185684084919</v>
+      </c>
+      <c r="L249">
+        <f t="shared" si="260"/>
+        <v>35.403931406800353</v>
+      </c>
+      <c r="M249" s="4">
+        <f t="shared" si="261"/>
+        <v>8.4482667245536248E-3</v>
+      </c>
+      <c r="N249" s="4">
+        <f t="shared" si="262"/>
+        <v>1.2270092591814401E-2</v>
+      </c>
+      <c r="O249" s="4">
+        <f t="shared" si="263"/>
+        <v>0</v>
+      </c>
+      <c r="P249" s="4">
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="Q249" s="4">
+        <f t="shared" si="265"/>
+        <v>3.1501290185368465E-2</v>
+      </c>
+      <c r="R249" s="4">
+        <f t="shared" si="266"/>
+        <v>1.7942433805614999E-2</v>
+      </c>
+      <c r="S249" s="4">
+        <f t="shared" si="267"/>
+        <v>2.4615061076099242E-2</v>
+      </c>
+      <c r="T249" s="4">
+        <f t="shared" si="268"/>
+        <v>1.2940746322726307E-2</v>
       </c>
     </row>
   </sheetData>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U249"/>
+  <dimension ref="A1:U252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="E249" sqref="E249"/>
+    <sheetView tabSelected="1" topLeftCell="K242" workbookViewId="0">
+      <selection activeCell="B250" sqref="B250:U253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19041,7 +19041,7 @@
         <v>212.42254242844979</v>
       </c>
       <c r="G245" s="2">
-        <f t="shared" ref="G245:G246" si="229">+F245/$U$1</f>
+        <f t="shared" ref="G245:G252" si="229">+F245/$U$1</f>
         <v>2.1242254242844978</v>
       </c>
       <c r="H245" s="8">
@@ -19193,59 +19193,59 @@
         <v>212.45653139474263</v>
       </c>
       <c r="G247" s="2">
-        <f t="shared" ref="G247:G249" si="243">+F247/$U$1</f>
+        <f t="shared" si="229"/>
         <v>2.1245653139474263</v>
       </c>
       <c r="H247" s="8">
-        <f t="shared" ref="H247:H249" si="244">+B247/G247</f>
+        <f t="shared" ref="H247:H249" si="243">+B247/G247</f>
         <v>44340.015993658038</v>
       </c>
       <c r="I247">
-        <f t="shared" ref="I247:I249" si="245">+C247/G247</f>
+        <f t="shared" ref="I247" si="244">+C247/G247</f>
         <v>569.52826635008421</v>
       </c>
       <c r="J247">
-        <f t="shared" ref="J247:J248" si="246">+D247/F247</f>
+        <f t="shared" ref="J247" si="245">+D247/F247</f>
         <v>12132.10840391129</v>
       </c>
       <c r="K247">
-        <f t="shared" ref="K247:K248" si="247">+D247/C247/G247</f>
+        <f t="shared" ref="K247" si="246">+D247/C247/G247</f>
         <v>1002.6535871001067</v>
       </c>
       <c r="L247">
-        <f t="shared" ref="L247" si="248">+E247/G247</f>
+        <f t="shared" ref="L247" si="247">+E247/G247</f>
         <v>35.268390907117201</v>
       </c>
       <c r="M247" s="4">
-        <f t="shared" ref="M247" si="249">+LN(B247/B246)</f>
+        <f t="shared" ref="M247" si="248">+LN(B247/B246)</f>
         <v>-1.7447462563727766E-2</v>
       </c>
       <c r="N247" s="4">
-        <f t="shared" ref="N247" si="250">+LN(C247/C246)</f>
+        <f t="shared" ref="N247" si="249">+LN(C247/C246)</f>
         <v>8.2988028146950641E-3</v>
       </c>
       <c r="O247" s="4">
-        <f t="shared" ref="O247" si="251">+LN(D247/D246)</f>
+        <f t="shared" ref="O247" si="250">+LN(D247/D246)</f>
         <v>-7.6688617079310548E-3</v>
       </c>
       <c r="P247" s="4">
-        <f t="shared" ref="P247" si="252">+LN(E247/E246)</f>
+        <f t="shared" ref="P247" si="251">+LN(E247/E246)</f>
         <v>4.0045385304556604E-4</v>
       </c>
       <c r="Q247" s="4">
-        <f t="shared" ref="Q247" si="253">+_xlfn.STDEV.S(M228:M247)</f>
+        <f t="shared" ref="Q247" si="252">+_xlfn.STDEV.S(M228:M247)</f>
         <v>3.1378601778288308E-2</v>
       </c>
       <c r="R247" s="4">
-        <f t="shared" ref="R247" si="254">+_xlfn.STDEV.S(N228:N247)</f>
+        <f t="shared" ref="R247" si="253">+_xlfn.STDEV.S(N228:N247)</f>
         <v>1.8636386212293323E-2</v>
       </c>
       <c r="S247" s="4">
-        <f t="shared" ref="S247" si="255">+_xlfn.STDEV.S(O228:O247)</f>
+        <f t="shared" ref="S247" si="254">+_xlfn.STDEV.S(O228:O247)</f>
         <v>2.5217399618997941E-2</v>
       </c>
       <c r="T247" s="4">
-        <f t="shared" ref="T247" si="256">+_xlfn.STDEV.S(P228:P247)</f>
+        <f t="shared" ref="T247" si="255">+_xlfn.STDEV.S(P228:P247)</f>
         <v>1.3151728671364552E-2</v>
       </c>
     </row>
@@ -19269,63 +19269,63 @@
         <v>212.47352791725422</v>
       </c>
       <c r="G248" s="2">
+        <f t="shared" si="229"/>
+        <v>2.1247352791725422</v>
+      </c>
+      <c r="H248" s="8">
         <f t="shared" si="243"/>
-        <v>2.1247352791725422</v>
-      </c>
-      <c r="H248" s="8">
-        <f t="shared" si="244"/>
         <v>43602.236432991791</v>
       </c>
       <c r="I248">
-        <f t="shared" ref="I248:I249" si="257">+C248/G248</f>
+        <f t="shared" ref="I248:I249" si="256">+C248/G248</f>
         <v>571.83594206294254</v>
       </c>
       <c r="J248">
-        <f t="shared" ref="J248:J249" si="258">+D248/F248</f>
+        <f t="shared" ref="J248:J249" si="257">+D248/F248</f>
         <v>11924.473720729577</v>
       </c>
       <c r="K248">
-        <f t="shared" ref="K248:K249" si="259">+D248/C248/G248</f>
+        <f t="shared" ref="K248:K249" si="258">+D248/C248/G248</f>
         <v>981.43816631519132</v>
       </c>
       <c r="L248">
-        <f t="shared" ref="L248:L249" si="260">+E248/G248</f>
+        <f t="shared" ref="L248:L249" si="259">+E248/G248</f>
         <v>35.406763721312899</v>
       </c>
       <c r="M248" s="4">
-        <f t="shared" ref="M248:M249" si="261">+LN(B248/B247)</f>
+        <f t="shared" ref="M248:M249" si="260">+LN(B248/B247)</f>
         <v>-1.6699124718738797E-2</v>
       </c>
       <c r="N248" s="4">
-        <f t="shared" ref="N248:N249" si="262">+LN(C248/C247)</f>
+        <f t="shared" ref="N248:N249" si="261">+LN(C248/C247)</f>
         <v>4.1237171838621562E-3</v>
       </c>
       <c r="O248" s="4">
-        <f t="shared" ref="O248:O249" si="263">+LN(D248/D247)</f>
+        <f t="shared" ref="O248:O249" si="262">+LN(D248/D247)</f>
         <v>-1.7182624989483801E-2</v>
       </c>
       <c r="P248" s="4">
-        <f t="shared" ref="P248:P249" si="264">+LN(E248/E247)</f>
+        <f t="shared" ref="P248:P249" si="263">+LN(E248/E247)</f>
         <v>3.9957431959107108E-3</v>
       </c>
       <c r="Q248" s="4">
-        <f t="shared" ref="Q248:Q249" si="265">+_xlfn.STDEV.S(M229:M248)</f>
+        <f t="shared" ref="Q248:Q249" si="264">+_xlfn.STDEV.S(M229:M248)</f>
         <v>3.1425279498059303E-2</v>
       </c>
       <c r="R248" s="4">
-        <f t="shared" ref="R248:R249" si="266">+_xlfn.STDEV.S(N229:N248)</f>
+        <f t="shared" ref="R248:R249" si="265">+_xlfn.STDEV.S(N229:N248)</f>
         <v>1.8614177987299606E-2</v>
       </c>
       <c r="S248" s="4">
-        <f t="shared" ref="S248:S249" si="267">+_xlfn.STDEV.S(O229:O248)</f>
+        <f t="shared" ref="S248:S249" si="266">+_xlfn.STDEV.S(O229:O248)</f>
         <v>2.5607439411847857E-2</v>
       </c>
       <c r="T248" s="4">
-        <f t="shared" ref="T248:T249" si="268">+_xlfn.STDEV.S(P229:P248)</f>
+        <f t="shared" ref="T248:T249" si="267">+_xlfn.STDEV.S(P229:P248)</f>
         <v>1.2983324550563301E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="7">
         <v>45657</v>
       </c>
@@ -19345,60 +19345,288 @@
         <v>212.49052579948761</v>
       </c>
       <c r="G249" s="2">
+        <f t="shared" si="229"/>
+        <v>2.1249052579948762</v>
+      </c>
+      <c r="H249" s="8">
         <f t="shared" si="243"/>
-        <v>2.1249052579948762</v>
-      </c>
-      <c r="H249" s="8">
-        <f t="shared" si="244"/>
         <v>43968.642671703194</v>
       </c>
       <c r="I249">
+        <f t="shared" si="256"/>
+        <v>578.84933710440555</v>
+      </c>
+      <c r="J249">
         <f t="shared" si="257"/>
-        <v>578.84933710440555</v>
-      </c>
-      <c r="J249">
+        <v>11923.519839142444</v>
+      </c>
+      <c r="K249">
         <f t="shared" si="258"/>
-        <v>11923.519839142444</v>
-      </c>
-      <c r="K249">
+        <v>969.39185684084919</v>
+      </c>
+      <c r="L249">
         <f t="shared" si="259"/>
-        <v>969.39185684084919</v>
-      </c>
-      <c r="L249">
+        <v>35.403931406800353</v>
+      </c>
+      <c r="M249" s="4">
         <f t="shared" si="260"/>
-        <v>35.403931406800353</v>
-      </c>
-      <c r="M249" s="4">
+        <v>8.4482667245536248E-3</v>
+      </c>
+      <c r="N249" s="4">
         <f t="shared" si="261"/>
-        <v>8.4482667245536248E-3</v>
-      </c>
-      <c r="N249" s="4">
+        <v>1.2270092591814401E-2</v>
+      </c>
+      <c r="O249" s="4">
         <f t="shared" si="262"/>
-        <v>1.2270092591814401E-2</v>
-      </c>
-      <c r="O249" s="4">
+        <v>0</v>
+      </c>
+      <c r="P249" s="4">
         <f t="shared" si="263"/>
         <v>0</v>
       </c>
-      <c r="P249" s="4">
+      <c r="Q249" s="4">
         <f t="shared" si="264"/>
+        <v>3.1501290185368465E-2</v>
+      </c>
+      <c r="R249" s="4">
+        <f t="shared" si="265"/>
+        <v>1.7942433805614999E-2</v>
+      </c>
+      <c r="S249" s="4">
+        <f t="shared" si="266"/>
+        <v>2.4615061076099242E-2</v>
+      </c>
+      <c r="T249" s="4">
+        <f t="shared" si="267"/>
+        <v>1.2940746322726307E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="7">
+        <v>45658</v>
+      </c>
+      <c r="B250">
+        <v>94419.76</v>
+      </c>
+      <c r="C250">
+        <v>1230</v>
+      </c>
+      <c r="D250">
+        <v>2533635</v>
+      </c>
+      <c r="E250">
+        <v>75.23</v>
+      </c>
+      <c r="F250">
+        <v>212.50752504155159</v>
+      </c>
+      <c r="G250" s="2">
+        <f t="shared" si="229"/>
+        <v>2.1250752504155157</v>
+      </c>
+      <c r="H250" s="8">
+        <f t="shared" ref="H250:H252" si="268">+B250/G250</f>
+        <v>44431.254837464279</v>
+      </c>
+      <c r="I250">
+        <f t="shared" ref="I250:I252" si="269">+C250/G250</f>
+        <v>578.80303286177661</v>
+      </c>
+      <c r="J250">
+        <f t="shared" ref="J250:J252" si="270">+D250/F250</f>
+        <v>11922.566033859735</v>
+      </c>
+      <c r="K250">
+        <f t="shared" ref="K250:K252" si="271">+D250/C250/G250</f>
+        <v>969.31431169591349</v>
+      </c>
+      <c r="L250">
+        <f t="shared" ref="L250:L252" si="272">+E250/G250</f>
+        <v>35.401099318854847</v>
+      </c>
+      <c r="M250" s="4">
+        <f t="shared" ref="M250:M252" si="273">+LN(B250/B249)</f>
+        <v>1.0546443072553259E-2</v>
+      </c>
+      <c r="N250" s="4">
+        <f t="shared" ref="N250:N252" si="274">+LN(C250/C249)</f>
         <v>0</v>
       </c>
-      <c r="Q249" s="4">
-        <f t="shared" si="265"/>
-        <v>3.1501290185368465E-2</v>
-      </c>
-      <c r="R249" s="4">
-        <f t="shared" si="266"/>
-        <v>1.7942433805614999E-2</v>
-      </c>
-      <c r="S249" s="4">
-        <f t="shared" si="267"/>
-        <v>2.4615061076099242E-2</v>
-      </c>
-      <c r="T249" s="4">
+      <c r="O250" s="4">
+        <f t="shared" ref="O250:O252" si="275">+LN(D250/D249)</f>
+        <v>0</v>
+      </c>
+      <c r="P250" s="4">
+        <f t="shared" ref="P250:P252" si="276">+LN(E250/E249)</f>
+        <v>0</v>
+      </c>
+      <c r="Q250" s="4">
+        <f t="shared" ref="Q250:Q252" si="277">+_xlfn.STDEV.S(M231:M250)</f>
+        <v>3.0859623317084483E-2</v>
+      </c>
+      <c r="R250" s="4">
+        <f t="shared" ref="R250:R252" si="278">+_xlfn.STDEV.S(N231:N250)</f>
+        <v>1.7662183558150742E-2</v>
+      </c>
+      <c r="S250" s="4">
+        <f t="shared" ref="S250:S252" si="279">+_xlfn.STDEV.S(O231:O250)</f>
+        <v>2.4335349120384014E-2</v>
+      </c>
+      <c r="T250" s="4">
+        <f t="shared" ref="T250:T252" si="280">+_xlfn.STDEV.S(P231:P250)</f>
+        <v>1.2940746322726307E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="7">
+        <v>45659</v>
+      </c>
+      <c r="B251">
+        <v>96886.88</v>
+      </c>
+      <c r="C251">
+        <v>1230</v>
+      </c>
+      <c r="D251">
+        <v>2695646</v>
+      </c>
+      <c r="E251">
+        <v>76.87</v>
+      </c>
+      <c r="F251">
+        <v>212.52452564355494</v>
+      </c>
+      <c r="G251" s="2">
+        <f t="shared" si="229"/>
+        <v>2.1252452564355493</v>
+      </c>
+      <c r="H251" s="8">
         <f t="shared" si="268"/>
-        <v>1.2940746322726307E-2</v>
+        <v>45588.564287633417</v>
+      </c>
+      <c r="I251">
+        <f t="shared" si="269"/>
+        <v>578.7567323231907</v>
+      </c>
+      <c r="J251">
+        <f t="shared" si="270"/>
+        <v>12683.929028130729</v>
+      </c>
+      <c r="K251">
+        <f t="shared" si="271"/>
+        <v>1031.2137421244495</v>
+      </c>
+      <c r="L251">
+        <f t="shared" si="272"/>
+        <v>36.169943100555834</v>
+      </c>
+      <c r="M251" s="4">
+        <f t="shared" si="273"/>
+        <v>2.5793739132302027E-2</v>
+      </c>
+      <c r="N251" s="4">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="O251" s="4">
+        <f t="shared" si="275"/>
+        <v>6.1982848308529341E-2</v>
+      </c>
+      <c r="P251" s="4">
+        <f t="shared" si="276"/>
+        <v>2.1565595788910402E-2</v>
+      </c>
+      <c r="Q251" s="4">
+        <f t="shared" si="277"/>
+        <v>3.1151029099653588E-2</v>
+      </c>
+      <c r="R251" s="4">
+        <f t="shared" si="278"/>
+        <v>1.5847989086026172E-2</v>
+      </c>
+      <c r="S251" s="4">
+        <f t="shared" si="279"/>
+        <v>2.7170048946020826E-2</v>
+      </c>
+      <c r="T251" s="4">
+        <f t="shared" si="280"/>
+        <v>1.3477823092602315E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A252" s="7">
+        <v>45660</v>
+      </c>
+      <c r="B252">
+        <v>98107.43</v>
+      </c>
+      <c r="C252">
+        <v>1205</v>
+      </c>
+      <c r="D252">
+        <v>2728911</v>
+      </c>
+      <c r="E252">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="F252">
+        <v>212.54152760560643</v>
+      </c>
+      <c r="G252" s="2">
+        <f t="shared" si="229"/>
+        <v>2.1254152760560645</v>
+      </c>
+      <c r="H252" s="8">
+        <f t="shared" si="268"/>
+        <v>46159.181739791027</v>
+      </c>
+      <c r="I252">
+        <f t="shared" si="269"/>
+        <v>566.9480282629786</v>
+      </c>
+      <c r="J252">
+        <f t="shared" si="270"/>
+        <v>12839.424985519943</v>
+      </c>
+      <c r="K252">
+        <f t="shared" si="271"/>
+        <v>1065.5124469311156</v>
+      </c>
+      <c r="L252">
+        <f t="shared" si="272"/>
+        <v>35.880047000277798</v>
+      </c>
+      <c r="M252" s="4">
+        <f t="shared" si="273"/>
+        <v>1.2518990332199975E-2</v>
+      </c>
+      <c r="N252" s="4">
+        <f t="shared" si="274"/>
+        <v>-2.0534602441707864E-2</v>
+      </c>
+      <c r="O252" s="4">
+        <f t="shared" si="275"/>
+        <v>1.2264749725021248E-2</v>
+      </c>
+      <c r="P252" s="4">
+        <f t="shared" si="276"/>
+        <v>-7.9671289316228817E-3</v>
+      </c>
+      <c r="Q252" s="4">
+        <f t="shared" si="277"/>
+        <v>2.94666656670508E-2</v>
+      </c>
+      <c r="R252" s="4">
+        <f t="shared" si="278"/>
+        <v>1.6849101790084645E-2</v>
+      </c>
+      <c r="S252" s="4">
+        <f t="shared" si="279"/>
+        <v>2.6970864980235418E-2</v>
+      </c>
+      <c r="T252" s="4">
+        <f t="shared" si="280"/>
+        <v>1.3705591832213688E-2</v>
       </c>
     </row>
   </sheetData>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U252"/>
+  <dimension ref="A1:U256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K242" workbookViewId="0">
-      <selection activeCell="B250" sqref="B250:U253"/>
+    <sheetView tabSelected="1" topLeftCell="P249" workbookViewId="0">
+      <selection activeCell="B252" sqref="B252:AB254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19553,7 +19553,7 @@
         <v>1.3477823092602315E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="7">
         <v>45660</v>
       </c>
@@ -19628,6 +19628,164 @@
         <f t="shared" si="280"/>
         <v>1.3705591832213688E-2</v>
       </c>
+    </row>
+    <row r="253" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="7">
+        <v>45663</v>
+      </c>
+      <c r="B253">
+        <v>102078.09</v>
+      </c>
+      <c r="C253">
+        <v>1205</v>
+      </c>
+      <c r="D253">
+        <v>2801221</v>
+      </c>
+      <c r="E253">
+        <v>76.989999999999995</v>
+      </c>
+      <c r="F253">
+        <v>212.5585309278149</v>
+      </c>
+      <c r="G253" s="2">
+        <f t="shared" ref="G253:G254" si="281">+F253/$U$1</f>
+        <v>2.1255853092781489</v>
+      </c>
+      <c r="H253" s="8">
+        <f t="shared" ref="H253:H254" si="282">+B253/G253</f>
+        <v>48023.520653078762</v>
+      </c>
+      <c r="I253">
+        <f t="shared" ref="I253:I254" si="283">+C253/G253</f>
+        <v>566.90267604889459</v>
+      </c>
+      <c r="J253">
+        <f t="shared" ref="J253:J254" si="284">+D253/F253</f>
+        <v>13178.586565181417</v>
+      </c>
+      <c r="K253">
+        <f t="shared" ref="K253:K254" si="285">+D253/C253/G253</f>
+        <v>1093.6586361146406</v>
+      </c>
+      <c r="L253">
+        <f t="shared" ref="L253:L254" si="286">+E253/G253</f>
+        <v>36.220611642327299</v>
+      </c>
+      <c r="M253" s="4">
+        <f t="shared" ref="M253:M254" si="287">+LN(B253/B252)</f>
+        <v>3.9675005861328209E-2</v>
+      </c>
+      <c r="N253" s="4">
+        <f t="shared" ref="N253:N254" si="288">+LN(C253/C252)</f>
+        <v>0</v>
+      </c>
+      <c r="O253" s="4">
+        <f t="shared" ref="O253:O254" si="289">+LN(D253/D252)</f>
+        <v>2.6152765042456578E-2</v>
+      </c>
+      <c r="P253" s="4">
+        <f t="shared" ref="P253:P254" si="290">+LN(E253/E252)</f>
+        <v>9.5269888605404619E-3</v>
+      </c>
+      <c r="Q253" s="4">
+        <f t="shared" ref="Q253:Q254" si="291">+_xlfn.STDEV.S(M234:M253)</f>
+        <v>2.9107028105402027E-2</v>
+      </c>
+      <c r="R253" s="4">
+        <f t="shared" ref="R253:R254" si="292">+_xlfn.STDEV.S(N234:N253)</f>
+        <v>1.6712903635426733E-2</v>
+      </c>
+      <c r="S253" s="4">
+        <f t="shared" ref="S253:S254" si="293">+_xlfn.STDEV.S(O234:O253)</f>
+        <v>2.7191151619692315E-2</v>
+      </c>
+      <c r="T253" s="4">
+        <f t="shared" ref="T253:T254" si="294">+_xlfn.STDEV.S(P234:P253)</f>
+        <v>1.3643899655943963E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="7">
+        <v>45664</v>
+      </c>
+      <c r="B254">
+        <v>96795.77</v>
+      </c>
+      <c r="C254">
+        <v>1205</v>
+      </c>
+      <c r="D254">
+        <v>2822174.5</v>
+      </c>
+      <c r="E254">
+        <v>76.84</v>
+      </c>
+      <c r="F254">
+        <v>212.57553561028914</v>
+      </c>
+      <c r="G254" s="2">
+        <f t="shared" si="281"/>
+        <v>2.1257553561028915</v>
+      </c>
+      <c r="H254" s="8">
+        <f t="shared" si="282"/>
+        <v>45534.76472356345</v>
+      </c>
+      <c r="I254">
+        <f t="shared" si="283"/>
+        <v>566.85732746269753</v>
+      </c>
+      <c r="J254">
+        <f t="shared" si="284"/>
+        <v>13276.1020307334</v>
+      </c>
+      <c r="K254">
+        <f t="shared" si="285"/>
+        <v>1101.7512058699917</v>
+      </c>
+      <c r="L254">
+        <f t="shared" si="286"/>
+        <v>36.1471510723931</v>
+      </c>
+      <c r="M254" s="4">
+        <f t="shared" si="287"/>
+        <v>-5.3134813625759912E-2</v>
+      </c>
+      <c r="N254" s="4">
+        <f t="shared" si="288"/>
+        <v>0</v>
+      </c>
+      <c r="O254" s="4">
+        <f t="shared" si="289"/>
+        <v>7.4522935382701477E-3</v>
+      </c>
+      <c r="P254" s="4">
+        <f t="shared" si="290"/>
+        <v>-1.9502053896021665E-3</v>
+      </c>
+      <c r="Q254" s="4">
+        <f t="shared" si="291"/>
+        <v>3.1661371638001694E-2</v>
+      </c>
+      <c r="R254" s="4">
+        <f t="shared" si="292"/>
+        <v>1.6687759679550454E-2</v>
+      </c>
+      <c r="S254" s="4">
+        <f t="shared" si="293"/>
+        <v>2.6628872380724526E-2</v>
+      </c>
+      <c r="T254" s="4">
+        <f t="shared" si="294"/>
+        <v>1.3223308957371418E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="7"/>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A256" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U258"/>
+  <dimension ref="A1:U259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I256" workbookViewId="0">
-      <selection activeCell="W258" sqref="W258"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="B261" sqref="B261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15168,7 +15168,7 @@
         <v>2.0374436160185656</v>
       </c>
       <c r="H194" s="8">
-        <f t="shared" ref="H194:H257" si="66">+B194/G194</f>
+        <f t="shared" ref="H194:H253" si="66">+B194/G194</f>
         <v>30837.43431823955</v>
       </c>
       <c r="I194">
@@ -19725,59 +19725,59 @@
         <v>212.57553561028914</v>
       </c>
       <c r="G254" s="2">
-        <f t="shared" ref="G254:G258" si="157">+F254/$U$1</f>
+        <f t="shared" ref="G254:G259" si="157">+F254/$U$1</f>
         <v>2.1257553561028915</v>
       </c>
       <c r="H254" s="8">
-        <f t="shared" ref="H254:H258" si="158">+B254/G254</f>
+        <f t="shared" ref="H254:H259" si="158">+B254/G254</f>
         <v>45534.76472356345</v>
       </c>
       <c r="I254">
-        <f t="shared" ref="I254:I258" si="159">+C254/G254</f>
+        <f t="shared" ref="I254:I259" si="159">+C254/G254</f>
         <v>566.85732746269753</v>
       </c>
       <c r="J254">
-        <f t="shared" ref="J254:J258" si="160">+D254/F254</f>
+        <f t="shared" ref="J254:J259" si="160">+D254/F254</f>
         <v>13276.1020307334</v>
       </c>
       <c r="K254">
-        <f t="shared" ref="K254:K258" si="161">+D254/C254/G254</f>
+        <f t="shared" ref="K254:K259" si="161">+D254/C254/G254</f>
         <v>1101.7512058699917</v>
       </c>
       <c r="L254">
-        <f t="shared" ref="L254:L258" si="162">+E254/G254</f>
+        <f t="shared" ref="L254:L259" si="162">+E254/G254</f>
         <v>33.469584326289905</v>
       </c>
       <c r="M254" s="4">
-        <f t="shared" ref="M254:M258" si="163">+LN(B254/B253)</f>
+        <f t="shared" ref="M254:M259" si="163">+LN(B254/B253)</f>
         <v>-5.3134813625759912E-2</v>
       </c>
       <c r="N254" s="4">
-        <f t="shared" ref="N254:N258" si="164">+LN(C254/C253)</f>
+        <f t="shared" ref="N254:N259" si="164">+LN(C254/C253)</f>
         <v>0</v>
       </c>
       <c r="O254" s="4">
-        <f t="shared" ref="O254:O258" si="165">+LN(D254/D253)</f>
+        <f t="shared" ref="O254:O259" si="165">+LN(D254/D253)</f>
         <v>7.4522935382701477E-3</v>
       </c>
       <c r="P254" s="4">
-        <f t="shared" ref="P254:P258" si="166">+LN(E254/E253)</f>
+        <f t="shared" ref="P254:P259" si="166">+LN(E254/E253)</f>
         <v>-1.9502053896020553E-3</v>
       </c>
       <c r="Q254" s="4">
-        <f t="shared" ref="Q254:Q258" si="167">+_xlfn.STDEV.S(M235:M254)</f>
+        <f t="shared" ref="Q254:Q259" si="167">+_xlfn.STDEV.S(M235:M254)</f>
         <v>3.1661371638001694E-2</v>
       </c>
       <c r="R254" s="4">
-        <f t="shared" ref="R254:R258" si="168">+_xlfn.STDEV.S(N235:N254)</f>
+        <f t="shared" ref="R254:R259" si="168">+_xlfn.STDEV.S(N235:N254)</f>
         <v>1.6687759679550454E-2</v>
       </c>
       <c r="S254" s="4">
-        <f t="shared" ref="S254:S258" si="169">+_xlfn.STDEV.S(O235:O254)</f>
+        <f t="shared" ref="S254:S259" si="169">+_xlfn.STDEV.S(O235:O254)</f>
         <v>2.6628872380724526E-2</v>
       </c>
       <c r="T254" s="4">
-        <f t="shared" ref="T254:T258" si="170">+_xlfn.STDEV.S(P235:P254)</f>
+        <f t="shared" ref="T254:T259" si="170">+_xlfn.STDEV.S(P235:P254)</f>
         <v>1.3223308957371435E-2</v>
       </c>
     </row>
@@ -20009,7 +20009,7 @@
         <v>1.5666726060010915E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="7">
         <v>45670</v>
       </c>
@@ -20083,6 +20083,82 @@
       <c r="T258" s="4">
         <f t="shared" si="170"/>
         <v>1.4835431534097953E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A259" s="7">
+        <v>45671</v>
+      </c>
+      <c r="B259">
+        <v>97042.8</v>
+      </c>
+      <c r="C259">
+        <v>1235</v>
+      </c>
+      <c r="D259">
+        <v>2733273.25</v>
+      </c>
+      <c r="E259">
+        <v>68.62</v>
+      </c>
+      <c r="F259">
+        <v>213.81890179443309</v>
+      </c>
+      <c r="G259" s="2">
+        <f t="shared" si="157"/>
+        <v>2.138189017944331</v>
+      </c>
+      <c r="H259" s="8">
+        <f t="shared" si="158"/>
+        <v>45385.51044158743</v>
+      </c>
+      <c r="I259">
+        <f t="shared" si="159"/>
+        <v>577.59159252783797</v>
+      </c>
+      <c r="J259">
+        <f t="shared" si="160"/>
+        <v>12783.122666244853</v>
+      </c>
+      <c r="K259">
+        <f t="shared" si="161"/>
+        <v>1035.0706612344011</v>
+      </c>
+      <c r="L259">
+        <f t="shared" si="162"/>
+        <v>32.092579011546754</v>
+      </c>
+      <c r="M259" s="4">
+        <f t="shared" si="163"/>
+        <v>2.243642694768979E-2</v>
+      </c>
+      <c r="N259" s="4">
+        <f t="shared" si="164"/>
+        <v>-1.2072581234269249E-2</v>
+      </c>
+      <c r="O259" s="4">
+        <f t="shared" si="165"/>
+        <v>2.8987811269565553E-2</v>
+      </c>
+      <c r="P259" s="4">
+        <f t="shared" si="166"/>
+        <v>8.7476314077940091E-4</v>
+      </c>
+      <c r="Q259" s="4">
+        <f t="shared" si="167"/>
+        <v>2.6128507268841111E-2</v>
+      </c>
+      <c r="R259" s="4">
+        <f t="shared" si="168"/>
+        <v>1.3302460854154204E-2</v>
+      </c>
+      <c r="S259" s="4">
+        <f t="shared" si="169"/>
+        <v>2.6251398302702858E-2</v>
+      </c>
+      <c r="T259" s="4">
+        <f t="shared" si="170"/>
+        <v>1.3899563933030349E-2</v>
       </c>
     </row>
   </sheetData>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U259"/>
+  <dimension ref="A1:U261"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="B261" sqref="B261"/>
+      <selection activeCell="G267" sqref="G267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20085,18 +20085,18 @@
         <v>1.4835431534097953E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="7">
         <v>45671</v>
       </c>
       <c r="B259">
-        <v>97042.8</v>
+        <v>96534.05</v>
       </c>
       <c r="C259">
-        <v>1235</v>
+        <v>1240</v>
       </c>
       <c r="D259">
-        <v>2733273.25</v>
+        <v>2733273</v>
       </c>
       <c r="E259">
         <v>68.62</v>
@@ -20110,19 +20110,19 @@
       </c>
       <c r="H259" s="8">
         <f t="shared" si="158"/>
-        <v>45385.51044158743</v>
+        <v>45147.575443450958</v>
       </c>
       <c r="I259">
         <f t="shared" si="159"/>
-        <v>577.59159252783797</v>
+        <v>579.9300200279506</v>
       </c>
       <c r="J259">
         <f t="shared" si="160"/>
-        <v>12783.122666244853</v>
+        <v>12783.121497031103</v>
       </c>
       <c r="K259">
         <f t="shared" si="161"/>
-        <v>1035.0706612344011</v>
+        <v>1030.8968949218631</v>
       </c>
       <c r="L259">
         <f t="shared" si="162"/>
@@ -20130,15 +20130,15 @@
       </c>
       <c r="M259" s="4">
         <f t="shared" si="163"/>
-        <v>2.243642694768979E-2</v>
+        <v>1.718010449641744E-2</v>
       </c>
       <c r="N259" s="4">
         <f t="shared" si="164"/>
-        <v>-1.2072581234269249E-2</v>
+        <v>-8.0321716972642666E-3</v>
       </c>
       <c r="O259" s="4">
         <f t="shared" si="165"/>
-        <v>2.8987811269565553E-2</v>
+        <v>2.8987719804136131E-2</v>
       </c>
       <c r="P259" s="4">
         <f t="shared" si="166"/>
@@ -20146,19 +20146,171 @@
       </c>
       <c r="Q259" s="4">
         <f t="shared" si="167"/>
-        <v>2.6128507268841111E-2</v>
+        <v>2.5900277808662601E-2</v>
       </c>
       <c r="R259" s="4">
         <f t="shared" si="168"/>
-        <v>1.3302460854154204E-2</v>
+        <v>1.3091842392565981E-2</v>
       </c>
       <c r="S259" s="4">
         <f t="shared" si="169"/>
-        <v>2.6251398302702858E-2</v>
+        <v>2.6251393472825839E-2</v>
       </c>
       <c r="T259" s="4">
         <f t="shared" si="170"/>
         <v>1.3899563933030349E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="7">
+        <v>45672</v>
+      </c>
+      <c r="B260">
+        <v>100504.49</v>
+      </c>
+      <c r="C260">
+        <v>1240</v>
+      </c>
+      <c r="D260">
+        <v>2704474</v>
+      </c>
+      <c r="E260">
+        <v>68.209999999999994</v>
+      </c>
+      <c r="F260">
+        <v>214.01133880604806</v>
+      </c>
+      <c r="G260" s="2">
+        <f t="shared" ref="G260:G261" si="171">+F260/$U$1</f>
+        <v>2.1401133880604806</v>
+      </c>
+      <c r="H260" s="8">
+        <f t="shared" ref="H260:H261" si="172">+B260/G260</f>
+        <v>46962.226656169914</v>
+      </c>
+      <c r="I260">
+        <f t="shared" ref="I260:I261" si="173">+C260/G260</f>
+        <v>579.40855233085301</v>
+      </c>
+      <c r="J260">
+        <f t="shared" ref="J260:J261" si="174">+D260/F260</f>
+        <v>12637.059396422832</v>
+      </c>
+      <c r="K260">
+        <f t="shared" ref="K260:K261" si="175">+D260/C260/G260</f>
+        <v>1019.117693259906</v>
+      </c>
+      <c r="L260">
+        <f t="shared" ref="L260:L261" si="176">+E260/G260</f>
+        <v>31.872143027812481</v>
+      </c>
+      <c r="M260" s="4">
+        <f t="shared" ref="M260:M261" si="177">+LN(B260/B259)</f>
+        <v>4.0306607269032693E-2</v>
+      </c>
+      <c r="N260" s="4">
+        <f t="shared" ref="N260:N261" si="178">+LN(C260/C259)</f>
+        <v>0</v>
+      </c>
+      <c r="O260" s="4">
+        <f t="shared" ref="O260:O261" si="179">+LN(D260/D259)</f>
+        <v>-1.0592353511567803E-2</v>
+      </c>
+      <c r="P260" s="4">
+        <f t="shared" ref="P260:P261" si="180">+LN(E260/E259)</f>
+        <v>-5.9928557636758041E-3</v>
+      </c>
+      <c r="Q260" s="4">
+        <f t="shared" ref="Q260:Q261" si="181">+_xlfn.STDEV.S(M241:M260)</f>
+        <v>2.6872653955193893E-2</v>
+      </c>
+      <c r="R260" s="4">
+        <f t="shared" ref="R260:R261" si="182">+_xlfn.STDEV.S(N241:N260)</f>
+        <v>1.3091842392565981E-2</v>
+      </c>
+      <c r="S260" s="4">
+        <f t="shared" ref="S260:S261" si="183">+_xlfn.STDEV.S(O241:O260)</f>
+        <v>2.5468377815451554E-2</v>
+      </c>
+      <c r="T260" s="4">
+        <f t="shared" ref="T260:T261" si="184">+_xlfn.STDEV.S(P241:P260)</f>
+        <v>1.1463795611681479E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A261" s="7">
+        <v>45673</v>
+      </c>
+      <c r="B261">
+        <v>101001.76</v>
+      </c>
+      <c r="C261">
+        <v>1225</v>
+      </c>
+      <c r="D261">
+        <v>2629377</v>
+      </c>
+      <c r="E261">
+        <v>67.64</v>
+      </c>
+      <c r="F261">
+        <v>214.20394901097347</v>
+      </c>
+      <c r="G261" s="2">
+        <f t="shared" si="171"/>
+        <v>2.1420394901097346</v>
+      </c>
+      <c r="H261" s="8">
+        <f t="shared" si="172"/>
+        <v>47152.146571688914</v>
+      </c>
+      <c r="I261">
+        <f t="shared" si="173"/>
+        <v>571.88488151413321</v>
+      </c>
+      <c r="J261">
+        <f t="shared" si="174"/>
+        <v>12275.109829395813</v>
+      </c>
+      <c r="K261">
+        <f t="shared" si="175"/>
+        <v>1002.049781991495</v>
+      </c>
+      <c r="L261">
+        <f t="shared" si="176"/>
+        <v>31.577382355604875</v>
+      </c>
+      <c r="M261" s="4">
+        <f t="shared" si="177"/>
+        <v>4.9355393139315328E-3</v>
+      </c>
+      <c r="N261" s="4">
+        <f t="shared" si="178"/>
+        <v>-1.2170535620255179E-2</v>
+      </c>
+      <c r="O261" s="4">
+        <f t="shared" si="179"/>
+        <v>-2.8160502676789722E-2</v>
+      </c>
+      <c r="P261" s="4">
+        <f t="shared" si="180"/>
+        <v>-8.3916576362482887E-3</v>
+      </c>
+      <c r="Q261" s="4">
+        <f t="shared" si="181"/>
+        <v>2.6767666981384733E-2</v>
+      </c>
+      <c r="R261" s="4">
+        <f t="shared" si="182"/>
+        <v>1.1346448844561962E-2</v>
+      </c>
+      <c r="S261" s="4">
+        <f t="shared" si="183"/>
+        <v>2.4433845574869256E-2</v>
+      </c>
+      <c r="T261" s="4">
+        <f t="shared" si="184"/>
+        <v>1.0820780183787572E-2</v>
       </c>
     </row>
   </sheetData>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U261"/>
+  <dimension ref="A1:U262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="G267" sqref="G267"/>
+      <selection activeCell="B262" sqref="B262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20237,12 +20237,12 @@
         <v>1.1463795611681479E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="7">
         <v>45673</v>
       </c>
       <c r="B261">
-        <v>101001.76</v>
+        <v>99756.91</v>
       </c>
       <c r="C261">
         <v>1225</v>
@@ -20262,7 +20262,7 @@
       </c>
       <c r="H261" s="8">
         <f t="shared" si="172"/>
-        <v>47152.146571688914</v>
+        <v>46570.994820870248</v>
       </c>
       <c r="I261">
         <f t="shared" si="173"/>
@@ -20282,7 +20282,7 @@
       </c>
       <c r="M261" s="4">
         <f t="shared" si="177"/>
-        <v>4.9355393139315328E-3</v>
+        <v>-7.4660765644215012E-3</v>
       </c>
       <c r="N261" s="4">
         <f t="shared" si="178"/>
@@ -20298,7 +20298,7 @@
       </c>
       <c r="Q261" s="4">
         <f t="shared" si="181"/>
-        <v>2.6767666981384733E-2</v>
+        <v>2.6844858927214745E-2</v>
       </c>
       <c r="R261" s="4">
         <f t="shared" si="182"/>
@@ -20311,6 +20311,82 @@
       <c r="T261" s="4">
         <f t="shared" si="184"/>
         <v>1.0820780183787572E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A262" s="7">
+        <v>45674</v>
+      </c>
+      <c r="B262">
+        <v>104462.04</v>
+      </c>
+      <c r="C262">
+        <v>1235</v>
+      </c>
+      <c r="D262">
+        <v>2510886</v>
+      </c>
+      <c r="E262">
+        <v>66.930000000000007</v>
+      </c>
+      <c r="F262">
+        <v>215.20484901097348</v>
+      </c>
+      <c r="G262" s="2">
+        <f t="shared" ref="G262" si="185">+F262/$U$1</f>
+        <v>2.1520484901097348</v>
+      </c>
+      <c r="H262" s="8">
+        <f t="shared" ref="H262" si="186">+B262/G262</f>
+        <v>48540.746400502059</v>
+      </c>
+      <c r="I262">
+        <f t="shared" ref="I262" si="187">+C262/G262</f>
+        <v>573.87182755209494</v>
+      </c>
+      <c r="J262">
+        <f t="shared" ref="J262" si="188">+D262/F262</f>
+        <v>11667.422976477486</v>
+      </c>
+      <c r="K262">
+        <f t="shared" ref="K262" si="189">+D262/C262/G262</f>
+        <v>944.73060538279242</v>
+      </c>
+      <c r="L262">
+        <f t="shared" ref="L262" si="190">+E262/G262</f>
+        <v>31.100600338511512</v>
+      </c>
+      <c r="M262" s="4">
+        <f t="shared" ref="M262" si="191">+LN(B262/B261)</f>
+        <v>4.6087425270128053E-2</v>
+      </c>
+      <c r="N262" s="4">
+        <f t="shared" ref="N262" si="192">+LN(C262/C261)</f>
+        <v>8.1301260832503091E-3</v>
+      </c>
+      <c r="O262" s="4">
+        <f t="shared" ref="O262" si="193">+LN(D262/D261)</f>
+        <v>-4.6111257093515268E-2</v>
+      </c>
+      <c r="P262" s="4">
+        <f t="shared" ref="P262" si="194">+LN(E262/E261)</f>
+        <v>-1.0552226917828606E-2</v>
+      </c>
+      <c r="Q262" s="4">
+        <f t="shared" ref="Q262" si="195">+_xlfn.STDEV.S(M243:M262)</f>
+        <v>2.8572819165003219E-2</v>
+      </c>
+      <c r="R262" s="4">
+        <f t="shared" ref="R262" si="196">+_xlfn.STDEV.S(N243:N262)</f>
+        <v>9.6412273641909123E-3</v>
+      </c>
+      <c r="S262" s="4">
+        <f t="shared" ref="S262" si="197">+_xlfn.STDEV.S(O243:O262)</f>
+        <v>2.6575086047616093E-2</v>
+      </c>
+      <c r="T262" s="4">
+        <f t="shared" ref="T262" si="198">+_xlfn.STDEV.S(P243:P262)</f>
+        <v>1.1036153548877603E-2</v>
       </c>
     </row>
   </sheetData>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U262"/>
+  <dimension ref="A1:U264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="B262" sqref="B262"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="B263" sqref="B263:AD263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20313,7 +20313,7 @@
         <v>1.0820780183787572E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="7">
         <v>45674</v>
       </c>
@@ -20388,6 +20388,85 @@
         <f t="shared" ref="T262" si="198">+_xlfn.STDEV.S(P243:P262)</f>
         <v>1.1036153548877603E-2</v>
       </c>
+    </row>
+    <row r="263" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="7">
+        <v>45677</v>
+      </c>
+      <c r="B263">
+        <v>102270.69</v>
+      </c>
+      <c r="C263">
+        <v>1235</v>
+      </c>
+      <c r="D263">
+        <v>2536837.5</v>
+      </c>
+      <c r="E263">
+        <v>67.03</v>
+      </c>
+      <c r="F263">
+        <v>215.39853337508333</v>
+      </c>
+      <c r="G263" s="2">
+        <f t="shared" ref="G263" si="199">+F263/$U$1</f>
+        <v>2.1539853337508332</v>
+      </c>
+      <c r="H263" s="8">
+        <f t="shared" ref="H263" si="200">+B263/G263</f>
+        <v>47479.752251567734</v>
+      </c>
+      <c r="I263">
+        <f t="shared" ref="I263" si="201">+C263/G263</f>
+        <v>573.35580732550204</v>
+      </c>
+      <c r="J263">
+        <f t="shared" ref="J263" si="202">+D263/F263</f>
+        <v>11777.413059644601</v>
+      </c>
+      <c r="K263">
+        <f t="shared" ref="K263" si="203">+D263/C263/G263</f>
+        <v>953.63668499146581</v>
+      </c>
+      <c r="L263">
+        <f t="shared" ref="L263" si="204">+E263/G263</f>
+        <v>31.119060538484536</v>
+      </c>
+      <c r="M263" s="4">
+        <f t="shared" ref="M263" si="205">+LN(B263/B262)</f>
+        <v>-2.1200630182038091E-2</v>
+      </c>
+      <c r="N263" s="4">
+        <f t="shared" ref="N263" si="206">+LN(C263/C262)</f>
+        <v>0</v>
+      </c>
+      <c r="O263" s="4">
+        <f t="shared" ref="O263" si="207">+LN(D263/D262)</f>
+        <v>1.0282547629892043E-2</v>
+      </c>
+      <c r="P263" s="4">
+        <f t="shared" ref="P263" si="208">+LN(E263/E262)</f>
+        <v>1.4929832573154871E-3</v>
+      </c>
+      <c r="Q263" s="4">
+        <f t="shared" ref="Q263" si="209">+_xlfn.STDEV.S(M244:M263)</f>
+        <v>2.7972227801735715E-2</v>
+      </c>
+      <c r="R263" s="4">
+        <f t="shared" ref="R263" si="210">+_xlfn.STDEV.S(N244:N263)</f>
+        <v>8.6009657229332952E-3</v>
+      </c>
+      <c r="S263" s="4">
+        <f t="shared" ref="S263" si="211">+_xlfn.STDEV.S(O244:O263)</f>
+        <v>2.6503712729378816E-2</v>
+      </c>
+      <c r="T263" s="4">
+        <f t="shared" ref="T263" si="212">+_xlfn.STDEV.S(P244:P263)</f>
+        <v>1.1047869898804852E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A264" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -480,7 +480,7 @@
   <dimension ref="A1:U264"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="B263" sqref="B263:AD263"/>
+      <selection activeCell="A263" sqref="A263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20333,59 +20333,59 @@
         <v>215.20484901097348</v>
       </c>
       <c r="G262" s="2">
-        <f t="shared" ref="G262" si="185">+F262/$U$1</f>
+        <f t="shared" ref="G262:G264" si="185">+F262/$U$1</f>
         <v>2.1520484901097348</v>
       </c>
       <c r="H262" s="8">
-        <f t="shared" ref="H262" si="186">+B262/G262</f>
+        <f t="shared" ref="H262:H264" si="186">+B262/G262</f>
         <v>48540.746400502059</v>
       </c>
       <c r="I262">
-        <f t="shared" ref="I262" si="187">+C262/G262</f>
+        <f t="shared" ref="I262:I264" si="187">+C262/G262</f>
         <v>573.87182755209494</v>
       </c>
       <c r="J262">
-        <f t="shared" ref="J262" si="188">+D262/F262</f>
+        <f t="shared" ref="J262:J264" si="188">+D262/F262</f>
         <v>11667.422976477486</v>
       </c>
       <c r="K262">
-        <f t="shared" ref="K262" si="189">+D262/C262/G262</f>
+        <f t="shared" ref="K262:K264" si="189">+D262/C262/G262</f>
         <v>944.73060538279242</v>
       </c>
       <c r="L262">
-        <f t="shared" ref="L262" si="190">+E262/G262</f>
+        <f t="shared" ref="L262:L264" si="190">+E262/G262</f>
         <v>31.100600338511512</v>
       </c>
       <c r="M262" s="4">
-        <f t="shared" ref="M262" si="191">+LN(B262/B261)</f>
+        <f t="shared" ref="M262:M264" si="191">+LN(B262/B261)</f>
         <v>4.6087425270128053E-2</v>
       </c>
       <c r="N262" s="4">
-        <f t="shared" ref="N262" si="192">+LN(C262/C261)</f>
+        <f t="shared" ref="N262:N264" si="192">+LN(C262/C261)</f>
         <v>8.1301260832503091E-3</v>
       </c>
       <c r="O262" s="4">
-        <f t="shared" ref="O262" si="193">+LN(D262/D261)</f>
+        <f t="shared" ref="O262:O264" si="193">+LN(D262/D261)</f>
         <v>-4.6111257093515268E-2</v>
       </c>
       <c r="P262" s="4">
-        <f t="shared" ref="P262" si="194">+LN(E262/E261)</f>
+        <f t="shared" ref="P262:Q264" si="194">+LN(E262/E261)</f>
         <v>-1.0552226917828606E-2</v>
       </c>
       <c r="Q262" s="4">
-        <f t="shared" ref="Q262" si="195">+_xlfn.STDEV.S(M243:M262)</f>
+        <f t="shared" ref="Q262:Q264" si="195">+_xlfn.STDEV.S(M243:M262)</f>
         <v>2.8572819165003219E-2</v>
       </c>
       <c r="R262" s="4">
-        <f t="shared" ref="R262" si="196">+_xlfn.STDEV.S(N243:N262)</f>
+        <f t="shared" ref="R262:R264" si="196">+_xlfn.STDEV.S(N243:N262)</f>
         <v>9.6412273641909123E-3</v>
       </c>
       <c r="S262" s="4">
-        <f t="shared" ref="S262" si="197">+_xlfn.STDEV.S(O243:O262)</f>
+        <f t="shared" ref="S262:S264" si="197">+_xlfn.STDEV.S(O243:O262)</f>
         <v>2.6575086047616093E-2</v>
       </c>
       <c r="T262" s="4">
-        <f t="shared" ref="T262" si="198">+_xlfn.STDEV.S(P243:P262)</f>
+        <f t="shared" ref="T262:U264" si="198">+_xlfn.STDEV.S(P243:P262)</f>
         <v>1.1036153548877603E-2</v>
       </c>
     </row>
@@ -20394,7 +20394,7 @@
         <v>45677</v>
       </c>
       <c r="B263">
-        <v>102270.69</v>
+        <v>102016.66</v>
       </c>
       <c r="C263">
         <v>1235</v>
@@ -20409,64 +20409,137 @@
         <v>215.39853337508333</v>
       </c>
       <c r="G263" s="2">
-        <f t="shared" ref="G263" si="199">+F263/$U$1</f>
+        <f t="shared" si="185"/>
         <v>2.1539853337508332</v>
       </c>
       <c r="H263" s="8">
-        <f t="shared" ref="H263" si="200">+B263/G263</f>
-        <v>47479.752251567734</v>
+        <f t="shared" si="186"/>
+        <v>47361.817372430167</v>
       </c>
       <c r="I263">
-        <f t="shared" ref="I263" si="201">+C263/G263</f>
+        <f t="shared" si="187"/>
         <v>573.35580732550204</v>
       </c>
       <c r="J263">
-        <f t="shared" ref="J263" si="202">+D263/F263</f>
+        <f t="shared" si="188"/>
         <v>11777.413059644601</v>
       </c>
       <c r="K263">
-        <f t="shared" ref="K263" si="203">+D263/C263/G263</f>
+        <f t="shared" si="189"/>
         <v>953.63668499146581</v>
       </c>
       <c r="L263">
-        <f t="shared" ref="L263" si="204">+E263/G263</f>
+        <f t="shared" si="190"/>
         <v>31.119060538484536</v>
       </c>
       <c r="M263" s="4">
-        <f t="shared" ref="M263" si="205">+LN(B263/B262)</f>
-        <v>-2.1200630182038091E-2</v>
+        <f t="shared" si="191"/>
+        <v>-2.3687618543614401E-2</v>
       </c>
       <c r="N263" s="4">
-        <f t="shared" ref="N263" si="206">+LN(C263/C262)</f>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="O263" s="4">
-        <f t="shared" ref="O263" si="207">+LN(D263/D262)</f>
+        <f t="shared" si="193"/>
         <v>1.0282547629892043E-2</v>
       </c>
       <c r="P263" s="4">
-        <f t="shared" ref="P263" si="208">+LN(E263/E262)</f>
+        <f t="shared" si="194"/>
         <v>1.4929832573154871E-3</v>
       </c>
       <c r="Q263" s="4">
-        <f t="shared" ref="Q263" si="209">+_xlfn.STDEV.S(M244:M263)</f>
-        <v>2.7972227801735715E-2</v>
+        <f t="shared" si="195"/>
+        <v>2.8094722935891551E-2</v>
       </c>
       <c r="R263" s="4">
-        <f t="shared" ref="R263" si="210">+_xlfn.STDEV.S(N244:N263)</f>
+        <f t="shared" si="196"/>
         <v>8.6009657229332952E-3</v>
       </c>
       <c r="S263" s="4">
-        <f t="shared" ref="S263" si="211">+_xlfn.STDEV.S(O244:O263)</f>
+        <f t="shared" si="197"/>
         <v>2.6503712729378816E-2</v>
       </c>
       <c r="T263" s="4">
-        <f t="shared" ref="T263" si="212">+_xlfn.STDEV.S(P244:P263)</f>
+        <f t="shared" si="198"/>
         <v>1.1047869898804852E-2</v>
       </c>
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A264" s="7"/>
+      <c r="A264" s="7">
+        <v>45678</v>
+      </c>
+      <c r="B264">
+        <v>105970.23</v>
+      </c>
+      <c r="C264">
+        <v>1235</v>
+      </c>
+      <c r="D264">
+        <v>2619719.2000000002</v>
+      </c>
+      <c r="E264">
+        <v>67.06</v>
+      </c>
+      <c r="F264">
+        <v>215.59239205512088</v>
+      </c>
+      <c r="G264" s="2">
+        <f t="shared" si="185"/>
+        <v>2.1559239205512086</v>
+      </c>
+      <c r="H264" s="8">
+        <f t="shared" si="186"/>
+        <v>49153.047094957976</v>
+      </c>
+      <c r="I264">
+        <f t="shared" si="187"/>
+        <v>572.84025109951256</v>
+      </c>
+      <c r="J264">
+        <f t="shared" si="188"/>
+        <v>12151.259954155581</v>
+      </c>
+      <c r="K264">
+        <f t="shared" si="189"/>
+        <v>983.90768859559364</v>
+      </c>
+      <c r="L264">
+        <f t="shared" si="190"/>
+        <v>31.104993715573535</v>
+      </c>
+      <c r="M264" s="4">
+        <f t="shared" si="191"/>
+        <v>3.8022072329813437E-2</v>
+      </c>
+      <c r="N264" s="4">
+        <f t="shared" si="192"/>
+        <v>0</v>
+      </c>
+      <c r="O264" s="4">
+        <f t="shared" si="193"/>
+        <v>3.2148909921005039E-2</v>
+      </c>
+      <c r="P264" s="4">
+        <f t="shared" si="194"/>
+        <v>4.474606682161615E-4</v>
+      </c>
+      <c r="Q264" s="4">
+        <f t="shared" si="195"/>
+        <v>2.7874542433205196E-2</v>
+      </c>
+      <c r="R264" s="4">
+        <f t="shared" si="196"/>
+        <v>8.6009657229332952E-3</v>
+      </c>
+      <c r="S264" s="4">
+        <f t="shared" si="197"/>
+        <v>2.7110924433475184E-2</v>
+      </c>
+      <c r="T264" s="4">
+        <f t="shared" si="198"/>
+        <v>1.1051310383238458E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -132,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +148,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,6 +202,13 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,10 +490,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U264"/>
+  <dimension ref="A1:Y265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="A263" sqref="A263"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A264" sqref="A264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17656,75 +17671,75 @@
       <c r="A227" s="7">
         <v>45625</v>
       </c>
-      <c r="B227" s="11">
+      <c r="B227" s="15">
         <v>97286.55</v>
       </c>
-      <c r="C227" s="11">
+      <c r="C227" s="15">
         <v>1120</v>
       </c>
-      <c r="D227" s="11">
+      <c r="D227" s="15">
         <v>2258295</v>
       </c>
-      <c r="E227" s="11">
+      <c r="E227" s="15">
         <v>65.75</v>
       </c>
-      <c r="F227" s="11">
+      <c r="F227" s="15">
         <v>210.76665007278871</v>
       </c>
-      <c r="G227" s="12">
+      <c r="G227" s="16">
         <f t="shared" si="65"/>
         <v>2.1076665007278872</v>
       </c>
-      <c r="H227" s="13">
+      <c r="H227" s="17">
         <f t="shared" si="66"/>
         <v>46158.417361760927</v>
       </c>
-      <c r="I227" s="11">
+      <c r="I227" s="15">
         <f t="shared" si="67"/>
         <v>531.39336779002065</v>
       </c>
-      <c r="J227" s="11">
+      <c r="J227" s="15">
         <f t="shared" si="68"/>
         <v>10714.669513512186</v>
       </c>
-      <c r="K227" s="11">
+      <c r="K227" s="15">
         <f t="shared" si="69"/>
         <v>956.66692084930219</v>
       </c>
-      <c r="L227" s="11">
+      <c r="L227" s="15">
         <f t="shared" si="70"/>
         <v>31.195637439458803</v>
       </c>
-      <c r="M227" s="4">
+      <c r="M227" s="18">
         <f t="shared" si="71"/>
         <v>7.5863776275319206E-3</v>
       </c>
-      <c r="N227" s="4">
+      <c r="N227" s="18">
         <f t="shared" si="72"/>
         <v>-4.4543503493803087E-3</v>
       </c>
-      <c r="O227" s="4">
+      <c r="O227" s="18">
         <f t="shared" si="73"/>
         <v>1.2248381375193044E-2</v>
       </c>
-      <c r="P227" s="4">
+      <c r="P227" s="18">
         <f t="shared" si="74"/>
         <v>-2.531646921779508E-3</v>
       </c>
-      <c r="Q227" s="4">
+      <c r="Q227" s="18">
         <f>+_xlfn.STDEV.S(M208:M227)</f>
         <v>4.0486749611416593E-2</v>
       </c>
-      <c r="R227" s="4">
-        <f t="shared" ref="R227:T227" si="77">+_xlfn.STDEV.S(N208:N227)</f>
+      <c r="R227" s="18">
+        <f t="shared" ref="R227:S227" si="77">+_xlfn.STDEV.S(N208:N227)</f>
         <v>9.4965319141101703E-3</v>
       </c>
-      <c r="S227" s="4">
+      <c r="S227" s="18">
         <f t="shared" si="77"/>
         <v>1.6374089845088043E-2</v>
       </c>
-      <c r="T227" s="4">
-        <f t="shared" si="77"/>
+      <c r="T227" s="18">
+        <f>+_xlfn.STDEV.S(P208:P227)</f>
         <v>8.4471996791993589E-3</v>
       </c>
       <c r="U227" s="5"/>
@@ -18717,7 +18732,7 @@
         <v>1.2739193771541894E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="7">
         <v>45645</v>
       </c>
@@ -18793,7 +18808,7 @@
         <v>1.312229352937302E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="7">
         <v>45646</v>
       </c>
@@ -18869,7 +18884,7 @@
         <v>1.3130761358161313E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="7">
         <v>45649</v>
       </c>
@@ -18945,7 +18960,7 @@
         <v>1.3053839904637432E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="7">
         <v>45650</v>
       </c>
@@ -19021,7 +19036,7 @@
         <v>1.3011907811446739E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="7">
         <v>45651</v>
       </c>
@@ -19097,7 +19112,7 @@
         <v>1.3002348360400366E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="7">
         <v>45652</v>
       </c>
@@ -19173,7 +19188,7 @@
         <v>1.3194826794129918E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="7">
         <v>45653</v>
       </c>
@@ -19249,7 +19264,7 @@
         <v>1.3151728671364585E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="7">
         <v>45656</v>
       </c>
@@ -19309,99 +19324,104 @@
         <v>3.9957431959107108E-3</v>
       </c>
       <c r="Q248" s="4">
-        <f t="shared" ref="Q248:Q249" si="144">+_xlfn.STDEV.S(M229:M248)</f>
+        <f t="shared" ref="Q248" si="144">+_xlfn.STDEV.S(M229:M248)</f>
         <v>3.1425279498059303E-2</v>
       </c>
       <c r="R248" s="4">
-        <f t="shared" ref="R248:R249" si="145">+_xlfn.STDEV.S(N229:N248)</f>
+        <f t="shared" ref="R248" si="145">+_xlfn.STDEV.S(N229:N248)</f>
         <v>1.8614177987299606E-2</v>
       </c>
       <c r="S248" s="4">
-        <f t="shared" ref="S248:S249" si="146">+_xlfn.STDEV.S(O229:O248)</f>
+        <f t="shared" ref="S248" si="146">+_xlfn.STDEV.S(O229:O248)</f>
         <v>2.5607439411847857E-2</v>
       </c>
       <c r="T248" s="4">
-        <f t="shared" ref="T248:T249" si="147">+_xlfn.STDEV.S(P229:P248)</f>
+        <f t="shared" ref="T248" si="147">+_xlfn.STDEV.S(P229:P248)</f>
         <v>1.2983324550563337E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="7">
+    <row r="249" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="19">
         <v>45657</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="15">
         <v>93429.2</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="15">
         <v>1230</v>
       </c>
-      <c r="D249">
+      <c r="D249" s="15">
         <v>2533635</v>
       </c>
-      <c r="E249">
+      <c r="E249" s="15">
         <v>69.657407407407405</v>
       </c>
-      <c r="F249">
+      <c r="F249" s="15">
         <v>212.49052579948761</v>
       </c>
-      <c r="G249" s="2">
+      <c r="G249" s="16">
         <f t="shared" si="135"/>
         <v>2.1249052579948762</v>
       </c>
-      <c r="H249" s="8">
+      <c r="H249" s="17">
         <f t="shared" si="66"/>
         <v>43968.642671703194</v>
       </c>
-      <c r="I249">
+      <c r="I249" s="15">
         <f t="shared" si="67"/>
         <v>578.84933710440555</v>
       </c>
-      <c r="J249">
+      <c r="J249" s="15">
         <f t="shared" si="68"/>
         <v>11923.519839142444</v>
       </c>
-      <c r="K249">
+      <c r="K249" s="15">
         <f t="shared" si="69"/>
         <v>969.39185684084919</v>
       </c>
-      <c r="L249">
+      <c r="L249" s="15">
         <f t="shared" si="70"/>
         <v>32.781417969259586</v>
       </c>
-      <c r="M249" s="4">
+      <c r="M249" s="18">
         <f t="shared" si="71"/>
         <v>8.4482667245536248E-3</v>
       </c>
-      <c r="N249" s="4">
+      <c r="N249" s="18">
         <f t="shared" si="72"/>
         <v>1.2270092591814401E-2</v>
       </c>
-      <c r="O249" s="4">
+      <c r="O249" s="18">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="P249" s="4">
+      <c r="P249" s="18">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="Q249" s="4">
-        <f t="shared" si="144"/>
-        <v>3.1501290185368465E-2</v>
-      </c>
-      <c r="R249" s="4">
-        <f t="shared" si="145"/>
-        <v>1.7942433805614999E-2</v>
-      </c>
-      <c r="S249" s="4">
-        <f t="shared" si="146"/>
-        <v>2.4615061076099242E-2</v>
-      </c>
-      <c r="T249" s="4">
-        <f t="shared" si="147"/>
-        <v>1.2940746322726342E-2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q249" s="18">
+        <f>+_xlfn.STDEV.S(M228:M249)</f>
+        <v>3.0107279294914118E-2</v>
+      </c>
+      <c r="R249" s="18">
+        <f t="shared" ref="R249:T249" si="148">+_xlfn.STDEV.S(N228:N249)</f>
+        <v>1.7816912929349074E-2</v>
+      </c>
+      <c r="S249" s="18">
+        <f t="shared" si="148"/>
+        <v>2.4543712565587263E-2</v>
+      </c>
+      <c r="T249" s="18">
+        <f t="shared" si="148"/>
+        <v>1.2526613590292716E-2</v>
+      </c>
+      <c r="U249" s="18"/>
+      <c r="V249" s="2"/>
+      <c r="W249" s="2"/>
+      <c r="X249" s="2"/>
+      <c r="Y249" s="2"/>
+    </row>
+    <row r="250" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="7">
         <v>45658</v>
       </c>
@@ -19461,23 +19481,23 @@
         <v>0</v>
       </c>
       <c r="Q250" s="4">
-        <f t="shared" ref="Q250:Q252" si="148">+_xlfn.STDEV.S(M231:M250)</f>
+        <f t="shared" ref="Q250:Q252" si="149">+_xlfn.STDEV.S(M231:M250)</f>
         <v>3.0859623317084483E-2</v>
       </c>
       <c r="R250" s="4">
-        <f t="shared" ref="R250:R252" si="149">+_xlfn.STDEV.S(N231:N250)</f>
+        <f t="shared" ref="R250:R252" si="150">+_xlfn.STDEV.S(N231:N250)</f>
         <v>1.7662183558150742E-2</v>
       </c>
       <c r="S250" s="4">
-        <f t="shared" ref="S250:S252" si="150">+_xlfn.STDEV.S(O231:O250)</f>
+        <f t="shared" ref="S250:S252" si="151">+_xlfn.STDEV.S(O231:O250)</f>
         <v>2.4335349120384014E-2</v>
       </c>
       <c r="T250" s="4">
-        <f t="shared" ref="T250:T252" si="151">+_xlfn.STDEV.S(P231:P250)</f>
+        <f t="shared" ref="T250:T252" si="152">+_xlfn.STDEV.S(P231:P250)</f>
         <v>1.2940746322726342E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="7">
         <v>45659</v>
       </c>
@@ -19537,23 +19557,23 @@
         <v>2.1565595788910402E-2</v>
       </c>
       <c r="Q251" s="4">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>3.1151029099653588E-2</v>
       </c>
       <c r="R251" s="4">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>1.5847989086026172E-2</v>
       </c>
       <c r="S251" s="4">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>2.7170048946020826E-2</v>
       </c>
       <c r="T251" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>1.3477823092602346E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="7">
         <v>45660</v>
       </c>
@@ -19613,23 +19633,23 @@
         <v>-7.9671289316228817E-3</v>
       </c>
       <c r="Q252" s="4">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>2.94666656670508E-2</v>
       </c>
       <c r="R252" s="4">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>1.6849101790084645E-2</v>
       </c>
       <c r="S252" s="4">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>2.6970864980235418E-2</v>
       </c>
       <c r="T252" s="4">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>1.3705591832213719E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="7">
         <v>45663</v>
       </c>
@@ -19649,7 +19669,7 @@
         <v>212.5585309278149</v>
       </c>
       <c r="G253" s="2">
-        <f t="shared" ref="G253" si="152">+F253/$U$1</f>
+        <f t="shared" ref="G253" si="153">+F253/$U$1</f>
         <v>2.1255853092781489</v>
       </c>
       <c r="H253" s="8">
@@ -19689,23 +19709,23 @@
         <v>9.5269888605402434E-3</v>
       </c>
       <c r="Q253" s="4">
-        <f t="shared" ref="Q253" si="153">+_xlfn.STDEV.S(M234:M253)</f>
+        <f t="shared" ref="Q253" si="154">+_xlfn.STDEV.S(M234:M253)</f>
         <v>2.9107028105402027E-2</v>
       </c>
       <c r="R253" s="4">
-        <f t="shared" ref="R253" si="154">+_xlfn.STDEV.S(N234:N253)</f>
+        <f t="shared" ref="R253" si="155">+_xlfn.STDEV.S(N234:N253)</f>
         <v>1.6712903635426733E-2</v>
       </c>
       <c r="S253" s="4">
-        <f t="shared" ref="S253" si="155">+_xlfn.STDEV.S(O234:O253)</f>
+        <f t="shared" ref="S253" si="156">+_xlfn.STDEV.S(O234:O253)</f>
         <v>2.7191151619692315E-2</v>
       </c>
       <c r="T253" s="4">
-        <f t="shared" ref="T253" si="156">+_xlfn.STDEV.S(P234:P253)</f>
+        <f t="shared" ref="T253" si="157">+_xlfn.STDEV.S(P234:P253)</f>
         <v>1.3643899655943991E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="7">
         <v>45664</v>
       </c>
@@ -19725,63 +19745,63 @@
         <v>212.57553561028914</v>
       </c>
       <c r="G254" s="2">
-        <f t="shared" ref="G254:G259" si="157">+F254/$U$1</f>
+        <f t="shared" ref="G254:G259" si="158">+F254/$U$1</f>
         <v>2.1257553561028915</v>
       </c>
       <c r="H254" s="8">
-        <f t="shared" ref="H254:H259" si="158">+B254/G254</f>
+        <f t="shared" ref="H254:H259" si="159">+B254/G254</f>
         <v>45534.76472356345</v>
       </c>
       <c r="I254">
-        <f t="shared" ref="I254:I259" si="159">+C254/G254</f>
+        <f t="shared" ref="I254:I259" si="160">+C254/G254</f>
         <v>566.85732746269753</v>
       </c>
       <c r="J254">
-        <f t="shared" ref="J254:J259" si="160">+D254/F254</f>
+        <f t="shared" ref="J254:J259" si="161">+D254/F254</f>
         <v>13276.1020307334</v>
       </c>
       <c r="K254">
-        <f t="shared" ref="K254:K259" si="161">+D254/C254/G254</f>
+        <f t="shared" ref="K254:K259" si="162">+D254/C254/G254</f>
         <v>1101.7512058699917</v>
       </c>
       <c r="L254">
-        <f t="shared" ref="L254:L259" si="162">+E254/G254</f>
+        <f t="shared" ref="L254:L259" si="163">+E254/G254</f>
         <v>33.469584326289905</v>
       </c>
       <c r="M254" s="4">
-        <f t="shared" ref="M254:M259" si="163">+LN(B254/B253)</f>
+        <f t="shared" ref="M254:M259" si="164">+LN(B254/B253)</f>
         <v>-5.3134813625759912E-2</v>
       </c>
       <c r="N254" s="4">
-        <f t="shared" ref="N254:N259" si="164">+LN(C254/C253)</f>
+        <f t="shared" ref="N254:N259" si="165">+LN(C254/C253)</f>
         <v>0</v>
       </c>
       <c r="O254" s="4">
-        <f t="shared" ref="O254:O259" si="165">+LN(D254/D253)</f>
+        <f t="shared" ref="O254:O259" si="166">+LN(D254/D253)</f>
         <v>7.4522935382701477E-3</v>
       </c>
       <c r="P254" s="4">
-        <f t="shared" ref="P254:P259" si="166">+LN(E254/E253)</f>
+        <f t="shared" ref="P254:P259" si="167">+LN(E254/E253)</f>
         <v>-1.9502053896020553E-3</v>
       </c>
       <c r="Q254" s="4">
-        <f t="shared" ref="Q254:Q259" si="167">+_xlfn.STDEV.S(M235:M254)</f>
+        <f t="shared" ref="Q254:Q259" si="168">+_xlfn.STDEV.S(M235:M254)</f>
         <v>3.1661371638001694E-2</v>
       </c>
       <c r="R254" s="4">
-        <f t="shared" ref="R254:R259" si="168">+_xlfn.STDEV.S(N235:N254)</f>
+        <f t="shared" ref="R254:R259" si="169">+_xlfn.STDEV.S(N235:N254)</f>
         <v>1.6687759679550454E-2</v>
       </c>
       <c r="S254" s="4">
-        <f t="shared" ref="S254:S259" si="169">+_xlfn.STDEV.S(O235:O254)</f>
+        <f t="shared" ref="S254:S259" si="170">+_xlfn.STDEV.S(O235:O254)</f>
         <v>2.6628872380724526E-2</v>
       </c>
       <c r="T254" s="4">
-        <f t="shared" ref="T254:T259" si="170">+_xlfn.STDEV.S(P235:P254)</f>
+        <f t="shared" ref="T254:T259" si="171">+_xlfn.STDEV.S(P235:P254)</f>
         <v>1.3223308957371435E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="7">
         <v>45665</v>
       </c>
@@ -19801,63 +19821,63 @@
         <v>212.59254165313797</v>
       </c>
       <c r="G255" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2.1259254165313797</v>
       </c>
       <c r="H255" s="8">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>44706.892942213955</v>
       </c>
       <c r="I255">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>571.51581638379923</v>
       </c>
       <c r="J255">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>13088.309582091726</v>
       </c>
       <c r="K255">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>1077.2271260980845</v>
       </c>
       <c r="L255">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>32.268300414756069</v>
       </c>
       <c r="M255" s="4">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-1.8268403015105603E-2</v>
       </c>
       <c r="N255" s="4">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>8.2645098498934314E-3</v>
       </c>
       <c r="O255" s="4">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>-1.4166148910975158E-2</v>
       </c>
       <c r="P255" s="4">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>-3.6471762032388146E-2</v>
       </c>
       <c r="Q255" s="4">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>2.9937208378000082E-2</v>
       </c>
       <c r="R255" s="4">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1.6690124556772584E-2</v>
       </c>
       <c r="S255" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>2.6428594964044309E-2</v>
       </c>
       <c r="T255" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>1.5666762432702236E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="7">
         <v>45666</v>
       </c>
@@ -19877,59 +19897,59 @@
         <v>212.60954905647023</v>
       </c>
       <c r="G256" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2.1260954905647025</v>
       </c>
       <c r="H256" s="8">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>43499.47611028314</v>
       </c>
       <c r="I256">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>573.82182757744408</v>
       </c>
       <c r="J256">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>13309.51508320263</v>
       </c>
       <c r="K256">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>1090.943859278904</v>
       </c>
       <c r="L256">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>32.22809149639874</v>
       </c>
       <c r="M256" s="4">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-2.7298802874510277E-2</v>
       </c>
       <c r="N256" s="4">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>4.1067819526535024E-3</v>
       </c>
       <c r="O256" s="4">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>1.6839762557734811E-2</v>
       </c>
       <c r="P256" s="4">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>-1.1668612759203323E-3</v>
       </c>
       <c r="Q256" s="4">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>3.0248292259291917E-2</v>
       </c>
       <c r="R256" s="4">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1.6682254940604237E-2</v>
       </c>
       <c r="S256" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>2.6456286179979836E-2</v>
       </c>
       <c r="T256" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>1.5673472207381387E-2</v>
       </c>
     </row>
@@ -19953,59 +19973,59 @@
         <v>212.62655782039477</v>
       </c>
       <c r="G257" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2.1262655782039475</v>
       </c>
       <c r="H257" s="8">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>44538.862393659278</v>
       </c>
       <c r="I257">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>576.12746618169649</v>
       </c>
       <c r="J257">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>13192.801636611623</v>
       </c>
       <c r="K257">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>1076.9633989070715</v>
       </c>
       <c r="L257">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>32.201998048539394</v>
       </c>
       <c r="M257" s="4">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>2.3693222493836912E-2</v>
       </c>
       <c r="N257" s="4">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>4.0899852515250664E-3</v>
       </c>
       <c r="O257" s="4">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>-8.7278521406521942E-3</v>
       </c>
       <c r="P257" s="4">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>-7.2998032294757935E-4</v>
       </c>
       <c r="Q257" s="4">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>3.0083046770979779E-2</v>
       </c>
       <c r="R257" s="4">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1.6587397357796518E-2</v>
       </c>
       <c r="S257" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>2.6416773424824763E-2</v>
       </c>
       <c r="T257" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>1.5666726060010915E-2</v>
       </c>
     </row>
@@ -20029,59 +20049,59 @@
         <v>213.62663782039476</v>
       </c>
       <c r="G258" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2.1362663782039477</v>
       </c>
       <c r="H258" s="8">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>44418.500879922074</v>
       </c>
       <c r="I258">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>585.13302121570132</v>
       </c>
       <c r="J258">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>12429.063281107878</v>
       </c>
       <c r="K258">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>994.32506248863012</v>
       </c>
       <c r="L258">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>32.093375947638791</v>
       </c>
       <c r="M258" s="4">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>1.9863797677813094E-3</v>
       </c>
       <c r="N258" s="4">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>2.0202707317519469E-2</v>
       </c>
       <c r="O258" s="4">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>-5.4941376218979834E-2</v>
       </c>
       <c r="P258" s="4">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>1.3135811565527494E-3</v>
       </c>
       <c r="Q258" s="4">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>2.8459209001087584E-2</v>
       </c>
       <c r="R258" s="4">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1.6893419308479745E-2</v>
       </c>
       <c r="S258" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>2.5818237743090586E-2</v>
       </c>
       <c r="T258" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>1.4835431534097953E-2</v>
       </c>
     </row>
@@ -20105,59 +20125,59 @@
         <v>213.81890179443309</v>
       </c>
       <c r="G259" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2.138189017944331</v>
       </c>
       <c r="H259" s="8">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>45147.575443450958</v>
       </c>
       <c r="I259">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>579.9300200279506</v>
       </c>
       <c r="J259">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>12783.121497031103</v>
       </c>
       <c r="K259">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>1030.8968949218631</v>
       </c>
       <c r="L259">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>32.092579011546754</v>
       </c>
       <c r="M259" s="4">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>1.718010449641744E-2</v>
       </c>
       <c r="N259" s="4">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>-8.0321716972642666E-3</v>
       </c>
       <c r="O259" s="4">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>2.8987719804136131E-2</v>
       </c>
       <c r="P259" s="4">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>8.7476314077940091E-4</v>
       </c>
       <c r="Q259" s="4">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>2.5900277808662601E-2</v>
       </c>
       <c r="R259" s="4">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1.3091842392565981E-2</v>
       </c>
       <c r="S259" s="4">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>2.6251393472825839E-2</v>
       </c>
       <c r="T259" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>1.3899563933030349E-2</v>
       </c>
     </row>
@@ -20181,59 +20201,59 @@
         <v>214.01133880604806</v>
       </c>
       <c r="G260" s="2">
-        <f t="shared" ref="G260:G261" si="171">+F260/$U$1</f>
+        <f t="shared" ref="G260:G261" si="172">+F260/$U$1</f>
         <v>2.1401133880604806</v>
       </c>
       <c r="H260" s="8">
-        <f t="shared" ref="H260:H261" si="172">+B260/G260</f>
+        <f t="shared" ref="H260:H261" si="173">+B260/G260</f>
         <v>46962.226656169914</v>
       </c>
       <c r="I260">
-        <f t="shared" ref="I260:I261" si="173">+C260/G260</f>
+        <f t="shared" ref="I260:I261" si="174">+C260/G260</f>
         <v>579.40855233085301</v>
       </c>
       <c r="J260">
-        <f t="shared" ref="J260:J261" si="174">+D260/F260</f>
+        <f t="shared" ref="J260:J261" si="175">+D260/F260</f>
         <v>12637.059396422832</v>
       </c>
       <c r="K260">
-        <f t="shared" ref="K260:K261" si="175">+D260/C260/G260</f>
+        <f t="shared" ref="K260:K261" si="176">+D260/C260/G260</f>
         <v>1019.117693259906</v>
       </c>
       <c r="L260">
-        <f t="shared" ref="L260:L261" si="176">+E260/G260</f>
+        <f t="shared" ref="L260:L261" si="177">+E260/G260</f>
         <v>31.872143027812481</v>
       </c>
       <c r="M260" s="4">
-        <f t="shared" ref="M260:M261" si="177">+LN(B260/B259)</f>
+        <f t="shared" ref="M260:M261" si="178">+LN(B260/B259)</f>
         <v>4.0306607269032693E-2</v>
       </c>
       <c r="N260" s="4">
-        <f t="shared" ref="N260:N261" si="178">+LN(C260/C259)</f>
+        <f t="shared" ref="N260:N261" si="179">+LN(C260/C259)</f>
         <v>0</v>
       </c>
       <c r="O260" s="4">
-        <f t="shared" ref="O260:O261" si="179">+LN(D260/D259)</f>
+        <f t="shared" ref="O260:O261" si="180">+LN(D260/D259)</f>
         <v>-1.0592353511567803E-2</v>
       </c>
       <c r="P260" s="4">
-        <f t="shared" ref="P260:P261" si="180">+LN(E260/E259)</f>
+        <f t="shared" ref="P260:P261" si="181">+LN(E260/E259)</f>
         <v>-5.9928557636758041E-3</v>
       </c>
       <c r="Q260" s="4">
-        <f t="shared" ref="Q260:Q261" si="181">+_xlfn.STDEV.S(M241:M260)</f>
+        <f t="shared" ref="Q260:Q261" si="182">+_xlfn.STDEV.S(M241:M260)</f>
         <v>2.6872653955193893E-2</v>
       </c>
       <c r="R260" s="4">
-        <f t="shared" ref="R260:R261" si="182">+_xlfn.STDEV.S(N241:N260)</f>
+        <f t="shared" ref="R260:R261" si="183">+_xlfn.STDEV.S(N241:N260)</f>
         <v>1.3091842392565981E-2</v>
       </c>
       <c r="S260" s="4">
-        <f t="shared" ref="S260:S261" si="183">+_xlfn.STDEV.S(O241:O260)</f>
+        <f t="shared" ref="S260:S261" si="184">+_xlfn.STDEV.S(O241:O260)</f>
         <v>2.5468377815451554E-2</v>
       </c>
       <c r="T260" s="4">
-        <f t="shared" ref="T260:T261" si="184">+_xlfn.STDEV.S(P241:P260)</f>
+        <f t="shared" ref="T260:T261" si="185">+_xlfn.STDEV.S(P241:P260)</f>
         <v>1.1463795611681479E-2</v>
       </c>
     </row>
@@ -20257,59 +20277,59 @@
         <v>214.20394901097347</v>
       </c>
       <c r="G261" s="2">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>2.1420394901097346</v>
       </c>
       <c r="H261" s="8">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>46570.994820870248</v>
       </c>
       <c r="I261">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>571.88488151413321</v>
       </c>
       <c r="J261">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>12275.109829395813</v>
       </c>
       <c r="K261">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>1002.049781991495</v>
       </c>
       <c r="L261">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>31.577382355604875</v>
       </c>
       <c r="M261" s="4">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>-7.4660765644215012E-3</v>
       </c>
       <c r="N261" s="4">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>-1.2170535620255179E-2</v>
       </c>
       <c r="O261" s="4">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>-2.8160502676789722E-2</v>
       </c>
       <c r="P261" s="4">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>-8.3916576362482887E-3</v>
       </c>
       <c r="Q261" s="4">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>2.6844858927214745E-2</v>
       </c>
       <c r="R261" s="4">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>1.1346448844561962E-2</v>
       </c>
       <c r="S261" s="4">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>2.4433845574869256E-2</v>
       </c>
       <c r="T261" s="4">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>1.0820780183787572E-2</v>
       </c>
     </row>
@@ -20333,59 +20353,59 @@
         <v>215.20484901097348</v>
       </c>
       <c r="G262" s="2">
-        <f t="shared" ref="G262:G264" si="185">+F262/$U$1</f>
+        <f t="shared" ref="G262:G265" si="186">+F262/$U$1</f>
         <v>2.1520484901097348</v>
       </c>
       <c r="H262" s="8">
-        <f t="shared" ref="H262:H264" si="186">+B262/G262</f>
+        <f t="shared" ref="H262:H265" si="187">+B262/G262</f>
         <v>48540.746400502059</v>
       </c>
       <c r="I262">
-        <f t="shared" ref="I262:I264" si="187">+C262/G262</f>
+        <f t="shared" ref="I262:I265" si="188">+C262/G262</f>
         <v>573.87182755209494</v>
       </c>
       <c r="J262">
-        <f t="shared" ref="J262:J264" si="188">+D262/F262</f>
+        <f t="shared" ref="J262:J265" si="189">+D262/F262</f>
         <v>11667.422976477486</v>
       </c>
       <c r="K262">
-        <f t="shared" ref="K262:K264" si="189">+D262/C262/G262</f>
+        <f t="shared" ref="K262:K265" si="190">+D262/C262/G262</f>
         <v>944.73060538279242</v>
       </c>
       <c r="L262">
-        <f t="shared" ref="L262:L264" si="190">+E262/G262</f>
+        <f t="shared" ref="L262:L265" si="191">+E262/G262</f>
         <v>31.100600338511512</v>
       </c>
       <c r="M262" s="4">
-        <f t="shared" ref="M262:M264" si="191">+LN(B262/B261)</f>
+        <f t="shared" ref="M262:M265" si="192">+LN(B262/B261)</f>
         <v>4.6087425270128053E-2</v>
       </c>
       <c r="N262" s="4">
-        <f t="shared" ref="N262:N264" si="192">+LN(C262/C261)</f>
+        <f t="shared" ref="N262:N265" si="193">+LN(C262/C261)</f>
         <v>8.1301260832503091E-3</v>
       </c>
       <c r="O262" s="4">
-        <f t="shared" ref="O262:O264" si="193">+LN(D262/D261)</f>
+        <f t="shared" ref="O262:O265" si="194">+LN(D262/D261)</f>
         <v>-4.6111257093515268E-2</v>
       </c>
       <c r="P262" s="4">
-        <f t="shared" ref="P262:Q264" si="194">+LN(E262/E261)</f>
+        <f t="shared" ref="P262:P265" si="195">+LN(E262/E261)</f>
         <v>-1.0552226917828606E-2</v>
       </c>
       <c r="Q262" s="4">
-        <f t="shared" ref="Q262:Q264" si="195">+_xlfn.STDEV.S(M243:M262)</f>
+        <f t="shared" ref="Q262:Q265" si="196">+_xlfn.STDEV.S(M243:M262)</f>
         <v>2.8572819165003219E-2</v>
       </c>
       <c r="R262" s="4">
-        <f t="shared" ref="R262:R264" si="196">+_xlfn.STDEV.S(N243:N262)</f>
+        <f t="shared" ref="R262:R265" si="197">+_xlfn.STDEV.S(N243:N262)</f>
         <v>9.6412273641909123E-3</v>
       </c>
       <c r="S262" s="4">
-        <f t="shared" ref="S262:S264" si="197">+_xlfn.STDEV.S(O243:O262)</f>
+        <f t="shared" ref="S262:S265" si="198">+_xlfn.STDEV.S(O243:O262)</f>
         <v>2.6575086047616093E-2</v>
       </c>
       <c r="T262" s="4">
-        <f t="shared" ref="T262:U264" si="198">+_xlfn.STDEV.S(P243:P262)</f>
+        <f t="shared" ref="T262:T265" si="199">+_xlfn.STDEV.S(P243:P262)</f>
         <v>1.1036153548877603E-2</v>
       </c>
     </row>
@@ -20409,63 +20429,63 @@
         <v>215.39853337508333</v>
       </c>
       <c r="G263" s="2">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>2.1539853337508332</v>
       </c>
       <c r="H263" s="8">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>47361.817372430167</v>
       </c>
       <c r="I263">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>573.35580732550204</v>
       </c>
       <c r="J263">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>11777.413059644601</v>
       </c>
       <c r="K263">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>953.63668499146581</v>
       </c>
       <c r="L263">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>31.119060538484536</v>
       </c>
       <c r="M263" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>-2.3687618543614401E-2</v>
       </c>
       <c r="N263" s="4">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="O263" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1.0282547629892043E-2</v>
       </c>
       <c r="P263" s="4">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>1.4929832573154871E-3</v>
       </c>
       <c r="Q263" s="4">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>2.8094722935891551E-2</v>
       </c>
       <c r="R263" s="4">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>8.6009657229332952E-3</v>
       </c>
       <c r="S263" s="4">
-        <f t="shared" si="197"/>
+        <f t="shared" si="198"/>
         <v>2.6503712729378816E-2</v>
       </c>
       <c r="T263" s="4">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>1.1047869898804852E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="7">
         <v>45678</v>
       </c>
@@ -20485,60 +20505,136 @@
         <v>215.59239205512088</v>
       </c>
       <c r="G264" s="2">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>2.1559239205512086</v>
       </c>
       <c r="H264" s="8">
+        <f t="shared" si="187"/>
+        <v>49153.047094957976</v>
+      </c>
+      <c r="I264">
+        <f t="shared" si="188"/>
+        <v>572.84025109951256</v>
+      </c>
+      <c r="J264">
+        <f t="shared" si="189"/>
+        <v>12151.259954155581</v>
+      </c>
+      <c r="K264">
+        <f t="shared" si="190"/>
+        <v>983.90768859559364</v>
+      </c>
+      <c r="L264">
+        <f t="shared" si="191"/>
+        <v>31.104993715573535</v>
+      </c>
+      <c r="M264" s="4">
+        <f t="shared" si="192"/>
+        <v>3.8022072329813437E-2</v>
+      </c>
+      <c r="N264" s="4">
+        <f t="shared" si="193"/>
+        <v>0</v>
+      </c>
+      <c r="O264" s="4">
+        <f t="shared" si="194"/>
+        <v>3.2148909921005039E-2</v>
+      </c>
+      <c r="P264" s="4">
+        <f t="shared" si="195"/>
+        <v>4.474606682161615E-4</v>
+      </c>
+      <c r="Q264" s="4">
+        <f t="shared" si="196"/>
+        <v>2.7874542433205196E-2</v>
+      </c>
+      <c r="R264" s="4">
+        <f t="shared" si="197"/>
+        <v>8.6009657229332952E-3</v>
+      </c>
+      <c r="S264" s="4">
+        <f t="shared" si="198"/>
+        <v>2.7110924433475184E-2</v>
+      </c>
+      <c r="T264" s="4">
+        <f t="shared" si="199"/>
+        <v>1.1051310383238458E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A265" s="7">
+        <v>45679</v>
+      </c>
+      <c r="B265">
+        <v>103409.91</v>
+      </c>
+      <c r="C265">
+        <v>1235</v>
+      </c>
+      <c r="D265">
+        <v>2680945.7999999998</v>
+      </c>
+      <c r="E265">
+        <v>66.02</v>
+      </c>
+      <c r="F265">
+        <v>215.78642520797047</v>
+      </c>
+      <c r="G265" s="2">
         <f t="shared" si="186"/>
-        <v>49153.047094957976</v>
-      </c>
-      <c r="I264">
+        <v>2.1578642520797047</v>
+      </c>
+      <c r="H265" s="8">
         <f t="shared" si="187"/>
-        <v>572.84025109951256</v>
-      </c>
-      <c r="J264">
+        <v>47922.342612764303</v>
+      </c>
+      <c r="I265">
         <f t="shared" si="188"/>
-        <v>12151.259954155581</v>
-      </c>
-      <c r="K264">
+        <v>572.32515845690136</v>
+      </c>
+      <c r="J265">
         <f t="shared" si="189"/>
-        <v>983.90768859559364</v>
-      </c>
-      <c r="L264">
+        <v>12424.070686634528</v>
+      </c>
+      <c r="K265">
         <f t="shared" si="190"/>
-        <v>31.104993715573535</v>
-      </c>
-      <c r="M264" s="4">
+        <v>1005.9976264481398</v>
+      </c>
+      <c r="L265">
         <f t="shared" si="191"/>
-        <v>3.8022072329813437E-2</v>
-      </c>
-      <c r="N264" s="4">
+        <v>30.595066365445042</v>
+      </c>
+      <c r="M265" s="4">
         <f t="shared" si="192"/>
+        <v>-2.4457406735495485E-2</v>
+      </c>
+      <c r="N265" s="4">
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
-      <c r="O264" s="4">
-        <f t="shared" si="193"/>
-        <v>3.2148909921005039E-2</v>
-      </c>
-      <c r="P264" s="4">
+      <c r="O265" s="4">
         <f t="shared" si="194"/>
-        <v>4.474606682161615E-4</v>
-      </c>
-      <c r="Q264" s="4">
+        <v>2.3102506255507291E-2</v>
+      </c>
+      <c r="P265" s="4">
         <f t="shared" si="195"/>
-        <v>2.7874542433205196E-2</v>
-      </c>
-      <c r="R264" s="4">
+        <v>-1.5630014613035596E-2</v>
+      </c>
+      <c r="Q265" s="4">
         <f t="shared" si="196"/>
+        <v>2.8555926792433226E-2</v>
+      </c>
+      <c r="R265" s="4">
+        <f t="shared" si="197"/>
         <v>8.6009657229332952E-3</v>
       </c>
-      <c r="S264" s="4">
-        <f t="shared" si="197"/>
-        <v>2.7110924433475184E-2</v>
-      </c>
-      <c r="T264" s="4">
+      <c r="S265" s="4">
         <f t="shared" si="198"/>
-        <v>1.1051310383238458E-2</v>
+        <v>2.7540104235045146E-2</v>
+      </c>
+      <c r="T265" s="4">
+        <f t="shared" si="199"/>
+        <v>1.1514662178500935E-2</v>
       </c>
     </row>
   </sheetData>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -490,12 +490,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y265"/>
+  <dimension ref="A1:Y267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A264" sqref="A264"/>
+      <selection pane="bottomLeft" activeCell="B265" sqref="B265:AG267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20353,59 +20353,59 @@
         <v>215.20484901097348</v>
       </c>
       <c r="G262" s="2">
-        <f t="shared" ref="G262:G265" si="186">+F262/$U$1</f>
+        <f t="shared" ref="G262:G267" si="186">+F262/$U$1</f>
         <v>2.1520484901097348</v>
       </c>
       <c r="H262" s="8">
-        <f t="shared" ref="H262:H265" si="187">+B262/G262</f>
+        <f t="shared" ref="H262:H267" si="187">+B262/G262</f>
         <v>48540.746400502059</v>
       </c>
       <c r="I262">
-        <f t="shared" ref="I262:I265" si="188">+C262/G262</f>
+        <f t="shared" ref="I262:I267" si="188">+C262/G262</f>
         <v>573.87182755209494</v>
       </c>
       <c r="J262">
-        <f t="shared" ref="J262:J265" si="189">+D262/F262</f>
+        <f t="shared" ref="J262:J267" si="189">+D262/F262</f>
         <v>11667.422976477486</v>
       </c>
       <c r="K262">
-        <f t="shared" ref="K262:K265" si="190">+D262/C262/G262</f>
+        <f t="shared" ref="K262:K267" si="190">+D262/C262/G262</f>
         <v>944.73060538279242</v>
       </c>
       <c r="L262">
-        <f t="shared" ref="L262:L265" si="191">+E262/G262</f>
+        <f t="shared" ref="L262:L267" si="191">+E262/G262</f>
         <v>31.100600338511512</v>
       </c>
       <c r="M262" s="4">
-        <f t="shared" ref="M262:M265" si="192">+LN(B262/B261)</f>
+        <f t="shared" ref="M262:M267" si="192">+LN(B262/B261)</f>
         <v>4.6087425270128053E-2</v>
       </c>
       <c r="N262" s="4">
-        <f t="shared" ref="N262:N265" si="193">+LN(C262/C261)</f>
+        <f t="shared" ref="N262:N267" si="193">+LN(C262/C261)</f>
         <v>8.1301260832503091E-3</v>
       </c>
       <c r="O262" s="4">
-        <f t="shared" ref="O262:O265" si="194">+LN(D262/D261)</f>
+        <f t="shared" ref="O262:O267" si="194">+LN(D262/D261)</f>
         <v>-4.6111257093515268E-2</v>
       </c>
       <c r="P262" s="4">
-        <f t="shared" ref="P262:P265" si="195">+LN(E262/E261)</f>
+        <f t="shared" ref="P262:P267" si="195">+LN(E262/E261)</f>
         <v>-1.0552226917828606E-2</v>
       </c>
       <c r="Q262" s="4">
-        <f t="shared" ref="Q262:Q265" si="196">+_xlfn.STDEV.S(M243:M262)</f>
+        <f t="shared" ref="Q262:Q267" si="196">+_xlfn.STDEV.S(M243:M262)</f>
         <v>2.8572819165003219E-2</v>
       </c>
       <c r="R262" s="4">
-        <f t="shared" ref="R262:R265" si="197">+_xlfn.STDEV.S(N243:N262)</f>
+        <f t="shared" ref="R262:R267" si="197">+_xlfn.STDEV.S(N243:N262)</f>
         <v>9.6412273641909123E-3</v>
       </c>
       <c r="S262" s="4">
-        <f t="shared" ref="S262:S265" si="198">+_xlfn.STDEV.S(O243:O262)</f>
+        <f t="shared" ref="S262:S267" si="198">+_xlfn.STDEV.S(O243:O262)</f>
         <v>2.6575086047616093E-2</v>
       </c>
       <c r="T262" s="4">
-        <f t="shared" ref="T262:T265" si="199">+_xlfn.STDEV.S(P243:P262)</f>
+        <f t="shared" ref="T262:T267" si="199">+_xlfn.STDEV.S(P243:P262)</f>
         <v>1.1036153548877603E-2</v>
       </c>
     </row>
@@ -20561,12 +20561,12 @@
         <v>1.1051310383238458E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="7">
         <v>45679</v>
       </c>
       <c r="B265">
-        <v>103409.91</v>
+        <v>103653.07</v>
       </c>
       <c r="C265">
         <v>1235</v>
@@ -20586,7 +20586,7 @@
       </c>
       <c r="H265" s="8">
         <f t="shared" si="187"/>
-        <v>47922.342612764303</v>
+        <v>48035.028107120888</v>
       </c>
       <c r="I265">
         <f t="shared" si="188"/>
@@ -20606,7 +20606,7 @@
       </c>
       <c r="M265" s="4">
         <f t="shared" si="192"/>
-        <v>-2.4457406735495485E-2</v>
+        <v>-2.2108748257031394E-2</v>
       </c>
       <c r="N265" s="4">
         <f t="shared" si="193"/>
@@ -20622,7 +20622,7 @@
       </c>
       <c r="Q265" s="4">
         <f t="shared" si="196"/>
-        <v>2.8555926792433226E-2</v>
+        <v>2.8445892691961579E-2</v>
       </c>
       <c r="R265" s="4">
         <f t="shared" si="197"/>
@@ -20635,6 +20635,158 @@
       <c r="T265" s="4">
         <f t="shared" si="199"/>
         <v>1.1514662178500935E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="7">
+        <v>45680</v>
+      </c>
+      <c r="B266">
+        <v>103960.17</v>
+      </c>
+      <c r="C266">
+        <v>1240</v>
+      </c>
+      <c r="D266">
+        <v>2625050</v>
+      </c>
+      <c r="E266">
+        <v>65.790000000000006</v>
+      </c>
+      <c r="F266">
+        <v>215.98063299065763</v>
+      </c>
+      <c r="G266" s="2">
+        <f t="shared" si="186"/>
+        <v>2.1598063299065764</v>
+      </c>
+      <c r="H266" s="8">
+        <f t="shared" si="187"/>
+        <v>48134.024130069498</v>
+      </c>
+      <c r="I266">
+        <f t="shared" si="188"/>
+        <v>574.12555136535639</v>
+      </c>
+      <c r="J266">
+        <f t="shared" si="189"/>
+        <v>12154.099021061524</v>
+      </c>
+      <c r="K266">
+        <f t="shared" si="190"/>
+        <v>980.16927589205818</v>
+      </c>
+      <c r="L266">
+        <f t="shared" si="191"/>
+        <v>30.461064535747418</v>
+      </c>
+      <c r="M266" s="4">
+        <f t="shared" si="192"/>
+        <v>2.958387663327274E-3</v>
+      </c>
+      <c r="N266" s="4">
+        <f t="shared" si="193"/>
+        <v>4.0404095370049058E-3</v>
+      </c>
+      <c r="O266" s="4">
+        <f t="shared" si="194"/>
+        <v>-2.1069699231050589E-2</v>
+      </c>
+      <c r="P266" s="4">
+        <f t="shared" si="195"/>
+        <v>-3.4898753271403187E-3</v>
+      </c>
+      <c r="Q266" s="4">
+        <f t="shared" si="196"/>
+        <v>2.705219274966629E-2</v>
+      </c>
+      <c r="R266" s="4">
+        <f t="shared" si="197"/>
+        <v>8.6128677887320395E-3</v>
+      </c>
+      <c r="S266" s="4">
+        <f t="shared" si="198"/>
+        <v>2.7765864111903484E-2</v>
+      </c>
+      <c r="T266" s="4">
+        <f t="shared" si="199"/>
+        <v>1.1029651527722778E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A267" s="7">
+        <v>45681</v>
+      </c>
+      <c r="B267">
+        <v>104555.74</v>
+      </c>
+      <c r="C267">
+        <v>1240</v>
+      </c>
+      <c r="D267">
+        <v>2566082</v>
+      </c>
+      <c r="E267">
+        <v>65.94</v>
+      </c>
+      <c r="F267">
+        <v>216.17501556034921</v>
+      </c>
+      <c r="G267" s="2">
+        <f t="shared" si="186"/>
+        <v>2.1617501556034919</v>
+      </c>
+      <c r="H267" s="8">
+        <f t="shared" si="187"/>
+        <v>48366.246084904924</v>
+      </c>
+      <c r="I267">
+        <f t="shared" si="188"/>
+        <v>573.60930299266306</v>
+      </c>
+      <c r="J267">
+        <f t="shared" si="189"/>
+        <v>11870.391189048538</v>
+      </c>
+      <c r="K267">
+        <f t="shared" si="190"/>
+        <v>957.28961202004348</v>
+      </c>
+      <c r="L267">
+        <f t="shared" si="191"/>
+        <v>30.503062451077582</v>
+      </c>
+      <c r="M267" s="4">
+        <f t="shared" si="192"/>
+        <v>5.7124813120923261E-3</v>
+      </c>
+      <c r="N267" s="4">
+        <f t="shared" si="193"/>
+        <v>0</v>
+      </c>
+      <c r="O267" s="4">
+        <f t="shared" si="194"/>
+        <v>-2.2719721446080469E-2</v>
+      </c>
+      <c r="P267" s="4">
+        <f t="shared" si="195"/>
+        <v>2.2773865456783243E-3</v>
+      </c>
+      <c r="Q267" s="4">
+        <f t="shared" si="196"/>
+        <v>2.6574781041295591E-2</v>
+      </c>
+      <c r="R267" s="4">
+        <f t="shared" si="197"/>
+        <v>8.4739425119039567E-3</v>
+      </c>
+      <c r="S267" s="4">
+        <f t="shared" si="198"/>
+        <v>2.8200329308289574E-2</v>
+      </c>
+      <c r="T267" s="4">
+        <f t="shared" si="199"/>
+        <v>1.10647785273127E-2</v>
       </c>
     </row>
   </sheetData>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -490,12 +490,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y267"/>
+  <dimension ref="A1:Y269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="B265" sqref="B265:AG267"/>
+      <selection pane="bottomLeft" activeCell="A268" sqref="A268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20353,59 +20353,59 @@
         <v>215.20484901097348</v>
       </c>
       <c r="G262" s="2">
-        <f t="shared" ref="G262:G267" si="186">+F262/$U$1</f>
+        <f t="shared" ref="G262:G269" si="186">+F262/$U$1</f>
         <v>2.1520484901097348</v>
       </c>
       <c r="H262" s="8">
-        <f t="shared" ref="H262:H267" si="187">+B262/G262</f>
+        <f t="shared" ref="H262:H269" si="187">+B262/G262</f>
         <v>48540.746400502059</v>
       </c>
       <c r="I262">
-        <f t="shared" ref="I262:I267" si="188">+C262/G262</f>
+        <f t="shared" ref="I262:I269" si="188">+C262/G262</f>
         <v>573.87182755209494</v>
       </c>
       <c r="J262">
-        <f t="shared" ref="J262:J267" si="189">+D262/F262</f>
+        <f t="shared" ref="J262:J269" si="189">+D262/F262</f>
         <v>11667.422976477486</v>
       </c>
       <c r="K262">
-        <f t="shared" ref="K262:K267" si="190">+D262/C262/G262</f>
+        <f t="shared" ref="K262:K269" si="190">+D262/C262/G262</f>
         <v>944.73060538279242</v>
       </c>
       <c r="L262">
-        <f t="shared" ref="L262:L267" si="191">+E262/G262</f>
+        <f t="shared" ref="L262:L269" si="191">+E262/G262</f>
         <v>31.100600338511512</v>
       </c>
       <c r="M262" s="4">
-        <f t="shared" ref="M262:M267" si="192">+LN(B262/B261)</f>
+        <f t="shared" ref="M262:M269" si="192">+LN(B262/B261)</f>
         <v>4.6087425270128053E-2</v>
       </c>
       <c r="N262" s="4">
-        <f t="shared" ref="N262:N267" si="193">+LN(C262/C261)</f>
+        <f t="shared" ref="N262:N269" si="193">+LN(C262/C261)</f>
         <v>8.1301260832503091E-3</v>
       </c>
       <c r="O262" s="4">
-        <f t="shared" ref="O262:O267" si="194">+LN(D262/D261)</f>
+        <f t="shared" ref="O262:O269" si="194">+LN(D262/D261)</f>
         <v>-4.6111257093515268E-2</v>
       </c>
       <c r="P262" s="4">
-        <f t="shared" ref="P262:P267" si="195">+LN(E262/E261)</f>
+        <f t="shared" ref="P262:Q269" si="195">+LN(E262/E261)</f>
         <v>-1.0552226917828606E-2</v>
       </c>
       <c r="Q262" s="4">
-        <f t="shared" ref="Q262:Q267" si="196">+_xlfn.STDEV.S(M243:M262)</f>
+        <f t="shared" ref="Q262:Q269" si="196">+_xlfn.STDEV.S(M243:M262)</f>
         <v>2.8572819165003219E-2</v>
       </c>
       <c r="R262" s="4">
-        <f t="shared" ref="R262:R267" si="197">+_xlfn.STDEV.S(N243:N262)</f>
+        <f t="shared" ref="R262:R269" si="197">+_xlfn.STDEV.S(N243:N262)</f>
         <v>9.6412273641909123E-3</v>
       </c>
       <c r="S262" s="4">
-        <f t="shared" ref="S262:S267" si="198">+_xlfn.STDEV.S(O243:O262)</f>
+        <f t="shared" ref="S262:S269" si="198">+_xlfn.STDEV.S(O243:O262)</f>
         <v>2.6575086047616093E-2</v>
       </c>
       <c r="T262" s="4">
-        <f t="shared" ref="T262:T267" si="199">+_xlfn.STDEV.S(P243:P262)</f>
+        <f t="shared" ref="T262:U269" si="199">+_xlfn.STDEV.S(P243:P262)</f>
         <v>1.1036153548877603E-2</v>
       </c>
     </row>
@@ -20713,7 +20713,7 @@
         <v>1.1029651527722778E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="7">
         <v>45681</v>
       </c>
@@ -20787,6 +20787,158 @@
       <c r="T267" s="4">
         <f t="shared" si="199"/>
         <v>1.10647785273127E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="7">
+        <v>45684</v>
+      </c>
+      <c r="B268">
+        <v>102682.5</v>
+      </c>
+      <c r="C268">
+        <v>1225</v>
+      </c>
+      <c r="D268">
+        <v>2439099</v>
+      </c>
+      <c r="E268">
+        <v>65.650000000000006</v>
+      </c>
+      <c r="F268">
+        <v>216.3695730743535</v>
+      </c>
+      <c r="G268" s="2">
+        <f t="shared" si="186"/>
+        <v>2.1636957307435352</v>
+      </c>
+      <c r="H268" s="8">
+        <f t="shared" si="187"/>
+        <v>47456.996166791927</v>
+      </c>
+      <c r="I268">
+        <f t="shared" si="188"/>
+        <v>566.16093593669916</v>
+      </c>
+      <c r="J268">
+        <f t="shared" si="189"/>
+        <v>11272.837328018506</v>
+      </c>
+      <c r="K268">
+        <f t="shared" si="190"/>
+        <v>920.23161861375547</v>
+      </c>
+      <c r="L268">
+        <f t="shared" si="191"/>
+        <v>30.34160444428106</v>
+      </c>
+      <c r="M268" s="4">
+        <f t="shared" si="192"/>
+        <v>-1.8078623134485796E-2</v>
+      </c>
+      <c r="N268" s="4">
+        <f t="shared" si="193"/>
+        <v>-1.2170535620255179E-2</v>
+      </c>
+      <c r="O268" s="4">
+        <f t="shared" si="194"/>
+        <v>-5.0751513219231631E-2</v>
+      </c>
+      <c r="P268" s="4">
+        <f t="shared" ref="P268:P273" si="200">+LN(E268/E267)</f>
+        <v>-4.4076368947796258E-3</v>
+      </c>
+      <c r="Q268" s="4">
+        <f t="shared" si="196"/>
+        <v>2.663636698022806E-2</v>
+      </c>
+      <c r="R268" s="4">
+        <f t="shared" si="197"/>
+        <v>8.9504318610885512E-3</v>
+      </c>
+      <c r="S268" s="4">
+        <f t="shared" si="198"/>
+        <v>3.0191563617746983E-2</v>
+      </c>
+      <c r="T268" s="4">
+        <f t="shared" ref="T268:T273" si="201">+_xlfn.STDEV.S(P249:P268)</f>
+        <v>1.0962515199686683E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A269" s="7">
+        <v>45685</v>
+      </c>
+      <c r="B269">
+        <v>102076.91</v>
+      </c>
+      <c r="C269">
+        <v>1225</v>
+      </c>
+      <c r="D269">
+        <v>2395910</v>
+      </c>
+      <c r="E269">
+        <v>66.52</v>
+      </c>
+      <c r="F269">
+        <v>216.56430569012039</v>
+      </c>
+      <c r="G269" s="2">
+        <f t="shared" si="186"/>
+        <v>2.165643056901204</v>
+      </c>
+      <c r="H269" s="8">
+        <f t="shared" si="187"/>
+        <v>47134.688089394003</v>
+      </c>
+      <c r="I269">
+        <f t="shared" si="188"/>
+        <v>565.65184927235407</v>
+      </c>
+      <c r="J269">
+        <f t="shared" si="189"/>
+        <v>11063.27283420511</v>
+      </c>
+      <c r="K269">
+        <f t="shared" si="190"/>
+        <v>903.12431299633556</v>
+      </c>
+      <c r="L269">
+        <f t="shared" si="191"/>
+        <v>30.716049807017953</v>
+      </c>
+      <c r="M269" s="4">
+        <f t="shared" si="192"/>
+        <v>-5.9151544317365273E-3</v>
+      </c>
+      <c r="N269" s="4">
+        <f t="shared" si="193"/>
+        <v>0</v>
+      </c>
+      <c r="O269" s="4">
+        <f t="shared" si="194"/>
+        <v>-1.7865591872549044E-2</v>
+      </c>
+      <c r="P269" s="4">
+        <f t="shared" si="200"/>
+        <v>1.3165053575921508E-2</v>
+      </c>
+      <c r="Q269" s="4">
+        <f t="shared" si="196"/>
+        <v>2.6736043946313688E-2</v>
+      </c>
+      <c r="R269" s="4">
+        <f t="shared" si="197"/>
+        <v>8.5040824806998944E-3</v>
+      </c>
+      <c r="S269" s="4">
+        <f t="shared" si="198"/>
+        <v>3.0395951851298824E-2</v>
+      </c>
+      <c r="T269" s="4">
+        <f t="shared" si="201"/>
+        <v>1.1530316104970236E-2</v>
       </c>
     </row>
   </sheetData>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -490,12 +490,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y269"/>
+  <dimension ref="A1:Y270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A268" sqref="A268"/>
+      <selection pane="bottomLeft" activeCell="C268" sqref="C268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20353,59 +20353,59 @@
         <v>215.20484901097348</v>
       </c>
       <c r="G262" s="2">
-        <f t="shared" ref="G262:G269" si="186">+F262/$U$1</f>
+        <f t="shared" ref="G262:G270" si="186">+F262/$U$1</f>
         <v>2.1520484901097348</v>
       </c>
       <c r="H262" s="8">
-        <f t="shared" ref="H262:H269" si="187">+B262/G262</f>
+        <f t="shared" ref="H262:H270" si="187">+B262/G262</f>
         <v>48540.746400502059</v>
       </c>
       <c r="I262">
-        <f t="shared" ref="I262:I269" si="188">+C262/G262</f>
+        <f t="shared" ref="I262:I270" si="188">+C262/G262</f>
         <v>573.87182755209494</v>
       </c>
       <c r="J262">
-        <f t="shared" ref="J262:J269" si="189">+D262/F262</f>
+        <f t="shared" ref="J262:J270" si="189">+D262/F262</f>
         <v>11667.422976477486</v>
       </c>
       <c r="K262">
-        <f t="shared" ref="K262:K269" si="190">+D262/C262/G262</f>
+        <f t="shared" ref="K262:K270" si="190">+D262/C262/G262</f>
         <v>944.73060538279242</v>
       </c>
       <c r="L262">
-        <f t="shared" ref="L262:L269" si="191">+E262/G262</f>
+        <f t="shared" ref="L262:L270" si="191">+E262/G262</f>
         <v>31.100600338511512</v>
       </c>
       <c r="M262" s="4">
-        <f t="shared" ref="M262:M269" si="192">+LN(B262/B261)</f>
+        <f t="shared" ref="M262:M270" si="192">+LN(B262/B261)</f>
         <v>4.6087425270128053E-2</v>
       </c>
       <c r="N262" s="4">
-        <f t="shared" ref="N262:N269" si="193">+LN(C262/C261)</f>
+        <f t="shared" ref="N262:N270" si="193">+LN(C262/C261)</f>
         <v>8.1301260832503091E-3</v>
       </c>
       <c r="O262" s="4">
-        <f t="shared" ref="O262:O269" si="194">+LN(D262/D261)</f>
+        <f t="shared" ref="O262:O270" si="194">+LN(D262/D261)</f>
         <v>-4.6111257093515268E-2</v>
       </c>
       <c r="P262" s="4">
-        <f t="shared" ref="P262:Q269" si="195">+LN(E262/E261)</f>
+        <f t="shared" ref="P262:P270" si="195">+LN(E262/E261)</f>
         <v>-1.0552226917828606E-2</v>
       </c>
       <c r="Q262" s="4">
-        <f t="shared" ref="Q262:Q269" si="196">+_xlfn.STDEV.S(M243:M262)</f>
+        <f t="shared" ref="Q262:Q270" si="196">+_xlfn.STDEV.S(M243:M262)</f>
         <v>2.8572819165003219E-2</v>
       </c>
       <c r="R262" s="4">
-        <f t="shared" ref="R262:R269" si="197">+_xlfn.STDEV.S(N243:N262)</f>
+        <f t="shared" ref="R262:R270" si="197">+_xlfn.STDEV.S(N243:N262)</f>
         <v>9.6412273641909123E-3</v>
       </c>
       <c r="S262" s="4">
-        <f t="shared" ref="S262:S269" si="198">+_xlfn.STDEV.S(O243:O262)</f>
+        <f t="shared" ref="S262:S270" si="198">+_xlfn.STDEV.S(O243:O262)</f>
         <v>2.6575086047616093E-2</v>
       </c>
       <c r="T262" s="4">
-        <f t="shared" ref="T262:U269" si="199">+_xlfn.STDEV.S(P243:P262)</f>
+        <f t="shared" ref="T262:T270" si="199">+_xlfn.STDEV.S(P243:P262)</f>
         <v>1.1036153548877603E-2</v>
       </c>
     </row>
@@ -20718,7 +20718,7 @@
         <v>45681</v>
       </c>
       <c r="B267">
-        <v>104555.74</v>
+        <v>104819.48</v>
       </c>
       <c r="C267">
         <v>1240</v>
@@ -20738,7 +20738,7 @@
       </c>
       <c r="H267" s="8">
         <f t="shared" si="187"/>
-        <v>48366.246084904924</v>
+        <v>48488.249082946277</v>
       </c>
       <c r="I267">
         <f t="shared" si="188"/>
@@ -20758,7 +20758,7 @@
       </c>
       <c r="M267" s="4">
         <f t="shared" si="192"/>
-        <v>5.7124813120923261E-3</v>
+        <v>8.2317874601104332E-3</v>
       </c>
       <c r="N267" s="4">
         <f t="shared" si="193"/>
@@ -20774,7 +20774,7 @@
       </c>
       <c r="Q267" s="4">
         <f t="shared" si="196"/>
-        <v>2.6574781041295591E-2</v>
+        <v>2.6583241274210166E-2</v>
       </c>
       <c r="R267" s="4">
         <f t="shared" si="197"/>
@@ -20794,10 +20794,10 @@
         <v>45684</v>
       </c>
       <c r="B268">
-        <v>102682.5</v>
+        <v>102087.69</v>
       </c>
       <c r="C268">
-        <v>1225</v>
+        <v>1230</v>
       </c>
       <c r="D268">
         <v>2439099</v>
@@ -20814,11 +20814,11 @@
       </c>
       <c r="H268" s="8">
         <f t="shared" si="187"/>
-        <v>47456.996166791927</v>
+        <v>47182.091524910691</v>
       </c>
       <c r="I268">
         <f t="shared" si="188"/>
-        <v>566.16093593669916</v>
+        <v>568.47179689970608</v>
       </c>
       <c r="J268">
         <f t="shared" si="189"/>
@@ -20826,7 +20826,7 @@
       </c>
       <c r="K268">
         <f t="shared" si="190"/>
-        <v>920.23161861375547</v>
+        <v>916.49083967630122</v>
       </c>
       <c r="L268">
         <f t="shared" si="191"/>
@@ -20834,52 +20834,52 @@
       </c>
       <c r="M268" s="4">
         <f t="shared" si="192"/>
-        <v>-1.8078623134485796E-2</v>
+        <v>-2.6407482645200955E-2</v>
       </c>
       <c r="N268" s="4">
         <f t="shared" si="193"/>
-        <v>-1.2170535620255179E-2</v>
+        <v>-8.0972102326193618E-3</v>
       </c>
       <c r="O268" s="4">
         <f t="shared" si="194"/>
         <v>-5.0751513219231631E-2</v>
       </c>
       <c r="P268" s="4">
-        <f t="shared" ref="P268:P273" si="200">+LN(E268/E267)</f>
+        <f t="shared" si="195"/>
         <v>-4.4076368947796258E-3</v>
       </c>
       <c r="Q268" s="4">
         <f t="shared" si="196"/>
-        <v>2.663636698022806E-2</v>
+        <v>2.7090645042689824E-2</v>
       </c>
       <c r="R268" s="4">
         <f t="shared" si="197"/>
-        <v>8.9504318610885512E-3</v>
+        <v>8.6917045956611851E-3</v>
       </c>
       <c r="S268" s="4">
         <f t="shared" si="198"/>
         <v>3.0191563617746983E-2</v>
       </c>
       <c r="T268" s="4">
-        <f t="shared" ref="T268:T273" si="201">+_xlfn.STDEV.S(P249:P268)</f>
+        <f t="shared" si="199"/>
         <v>1.0962515199686683E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="7">
         <v>45685</v>
       </c>
       <c r="B269">
-        <v>102076.91</v>
+        <v>101332.48</v>
       </c>
       <c r="C269">
-        <v>1225</v>
+        <v>1230</v>
       </c>
       <c r="D269">
-        <v>2395910</v>
+        <v>2435629</v>
       </c>
       <c r="E269">
-        <v>66.52</v>
+        <v>66.489999999999995</v>
       </c>
       <c r="F269">
         <v>216.56430569012039</v>
@@ -20890,27 +20890,27 @@
       </c>
       <c r="H269" s="8">
         <f t="shared" si="187"/>
-        <v>47134.688089394003</v>
+        <v>46790.94261498272</v>
       </c>
       <c r="I269">
         <f t="shared" si="188"/>
-        <v>565.65184927235407</v>
+        <v>567.96063233060863</v>
       </c>
       <c r="J269">
         <f t="shared" si="189"/>
-        <v>11063.27283420511</v>
+        <v>11246.677942786731</v>
       </c>
       <c r="K269">
         <f t="shared" si="190"/>
-        <v>903.12431299633556</v>
+        <v>914.36406038916516</v>
       </c>
       <c r="L269">
         <f t="shared" si="191"/>
-        <v>30.716049807017953</v>
+        <v>30.702197108668425</v>
       </c>
       <c r="M269" s="4">
         <f t="shared" si="192"/>
-        <v>-5.9151544317365273E-3</v>
+        <v>-7.4251581811635974E-3</v>
       </c>
       <c r="N269" s="4">
         <f t="shared" si="193"/>
@@ -20918,27 +20918,103 @@
       </c>
       <c r="O269" s="4">
         <f t="shared" si="194"/>
-        <v>-1.7865591872549044E-2</v>
+        <v>-1.4236694174907284E-3</v>
       </c>
       <c r="P269" s="4">
-        <f t="shared" si="200"/>
-        <v>1.3165053575921508E-2</v>
+        <f t="shared" si="195"/>
+        <v>1.2713959665558314E-2</v>
       </c>
       <c r="Q269" s="4">
         <f t="shared" si="196"/>
-        <v>2.6736043946313688E-2</v>
+        <v>2.7212045554381246E-2</v>
       </c>
       <c r="R269" s="4">
         <f t="shared" si="197"/>
-        <v>8.5040824806998944E-3</v>
+        <v>8.24730078071928E-3</v>
       </c>
       <c r="S269" s="4">
         <f t="shared" si="198"/>
-        <v>3.0395951851298824E-2</v>
+        <v>3.0188523056011128E-2</v>
       </c>
       <c r="T269" s="4">
-        <f t="shared" si="201"/>
-        <v>1.1530316104970236E-2</v>
+        <f t="shared" si="199"/>
+        <v>1.1498861800611637E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A270" s="7">
+        <v>45686</v>
+      </c>
+      <c r="B270">
+        <v>104332.38</v>
+      </c>
+      <c r="C270">
+        <v>1220</v>
+      </c>
+      <c r="D270">
+        <v>2545356</v>
+      </c>
+      <c r="E270">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="F270">
+        <v>216.75921356524148</v>
+      </c>
+      <c r="G270" s="2">
+        <f t="shared" si="186"/>
+        <v>2.1675921356524146</v>
+      </c>
+      <c r="H270" s="8">
+        <f t="shared" si="187"/>
+        <v>48132.846712233266</v>
+      </c>
+      <c r="I270">
+        <f t="shared" si="188"/>
+        <v>562.83651335208287</v>
+      </c>
+      <c r="J270">
+        <f t="shared" si="189"/>
+        <v>11742.781117047574</v>
+      </c>
+      <c r="K270">
+        <f t="shared" si="190"/>
+        <v>962.52304238094871</v>
+      </c>
+      <c r="L270">
+        <f t="shared" si="191"/>
+        <v>30.725337532171078</v>
+      </c>
+      <c r="M270" s="4">
+        <f t="shared" si="192"/>
+        <v>2.9174772800082568E-2</v>
+      </c>
+      <c r="N270" s="4">
+        <f t="shared" si="193"/>
+        <v>-8.1633106391609811E-3</v>
+      </c>
+      <c r="O270" s="4">
+        <f t="shared" si="194"/>
+        <v>4.406548294327356E-2</v>
+      </c>
+      <c r="P270" s="4">
+        <f t="shared" si="195"/>
+        <v>1.6530171319798143E-3</v>
+      </c>
+      <c r="Q270" s="4">
+        <f t="shared" si="196"/>
+        <v>2.7759052079324126E-2</v>
+      </c>
+      <c r="R270" s="4">
+        <f t="shared" si="197"/>
+        <v>8.4468900902772964E-3</v>
+      </c>
+      <c r="S270" s="4">
+        <f t="shared" si="198"/>
+        <v>3.1899602621149069E-2</v>
+      </c>
+      <c r="T270" s="4">
+        <f t="shared" si="199"/>
+        <v>1.1522383708074097E-2</v>
       </c>
     </row>
   </sheetData>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -90,11 +90,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="171" formatCode="0.000000000000000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -180,7 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,6 +211,10 @@
     <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="170" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,12 +496,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y270"/>
+  <dimension ref="A1:Y283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="C268" sqref="C268"/>
+      <selection pane="bottomLeft" activeCell="M279" sqref="M279:T280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,6 +512,7 @@
     <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19383,7 +19390,7 @@
         <f t="shared" si="70"/>
         <v>32.781417969259586</v>
       </c>
-      <c r="M249" s="18">
+      <c r="M249" s="20">
         <f t="shared" si="71"/>
         <v>8.4482667245536248E-3</v>
       </c>
@@ -19399,7 +19406,7 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="Q249" s="18">
+      <c r="Q249" s="21">
         <f>+_xlfn.STDEV.S(M228:M249)</f>
         <v>3.0107279294914118E-2</v>
       </c>
@@ -20941,12 +20948,12 @@
         <v>1.1498861800611637E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="7">
         <v>45686</v>
       </c>
       <c r="B270">
-        <v>104332.38</v>
+        <v>103703.21</v>
       </c>
       <c r="C270">
         <v>1220</v>
@@ -20966,7 +20973,7 @@
       </c>
       <c r="H270" s="8">
         <f t="shared" si="187"/>
-        <v>48132.846712233266</v>
+        <v>47842.584540835123</v>
       </c>
       <c r="I270">
         <f t="shared" si="188"/>
@@ -20986,7 +20993,7 @@
       </c>
       <c r="M270" s="4">
         <f t="shared" si="192"/>
-        <v>2.9174772800082568E-2</v>
+        <v>2.312607778332515E-2</v>
       </c>
       <c r="N270" s="4">
         <f t="shared" si="193"/>
@@ -21002,7 +21009,7 @@
       </c>
       <c r="Q270" s="4">
         <f t="shared" si="196"/>
-        <v>2.7759052079324126E-2</v>
+        <v>2.7513573882982079E-2</v>
       </c>
       <c r="R270" s="4">
         <f t="shared" si="197"/>
@@ -21016,6 +21023,552 @@
         <f t="shared" si="199"/>
         <v>1.1522383708074097E-2</v>
       </c>
+    </row>
+    <row r="271" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="7">
+        <v>45687</v>
+      </c>
+      <c r="B271">
+        <v>104735.3</v>
+      </c>
+      <c r="C271">
+        <v>1220</v>
+      </c>
+      <c r="D271">
+        <v>2599329</v>
+      </c>
+      <c r="E271">
+        <v>66.709999999999994</v>
+      </c>
+      <c r="F271">
+        <v>216.95429685745017</v>
+      </c>
+      <c r="G271" s="2">
+        <f t="shared" ref="G271:G277" si="200">+F271/$U$1</f>
+        <v>2.1695429685745018</v>
+      </c>
+      <c r="H271" s="8">
+        <f t="shared" ref="H271:H277" si="201">+B271/G271</f>
+        <v>48275.282636515993</v>
+      </c>
+      <c r="I271">
+        <f t="shared" ref="I271:I277" si="202">+C271/G271</f>
+        <v>562.33041597770284</v>
+      </c>
+      <c r="J271">
+        <f t="shared" ref="J271:J277" si="203">+D271/F271</f>
+        <v>11980.998015023824</v>
+      </c>
+      <c r="K271">
+        <f t="shared" ref="K271:K277" si="204">+D271/C271/G271</f>
+        <v>982.04901762490351</v>
+      </c>
+      <c r="L271">
+        <f t="shared" ref="L271:L277" si="205">+E271/G271</f>
+        <v>30.748411516288982</v>
+      </c>
+      <c r="M271" s="4">
+        <f t="shared" ref="M271:M277" si="206">+LN(B271/B270)</f>
+        <v>9.90314539226529E-3</v>
+      </c>
+      <c r="N271" s="4">
+        <f t="shared" ref="N271:N277" si="207">+LN(C271/C270)</f>
+        <v>0</v>
+      </c>
+      <c r="O271" s="4">
+        <f t="shared" ref="O271:O277" si="208">+LN(D271/D270)</f>
+        <v>2.0982812455077736E-2</v>
+      </c>
+      <c r="P271" s="4">
+        <f t="shared" ref="P271:P277" si="209">+LN(E271/E270)</f>
+        <v>1.650289175080543E-3</v>
+      </c>
+      <c r="Q271" s="4">
+        <f t="shared" ref="Q271:Q277" si="210">+_xlfn.STDEV.S(M252:M271)</f>
+        <v>2.709835326389045E-2</v>
+      </c>
+      <c r="R271" s="4">
+        <f t="shared" ref="R271:R277" si="211">+_xlfn.STDEV.S(N252:N271)</f>
+        <v>8.4468900902772964E-3</v>
+      </c>
+      <c r="S271" s="4">
+        <f t="shared" ref="S271:S277" si="212">+_xlfn.STDEV.S(O252:O271)</f>
+        <v>2.8898539956395932E-2</v>
+      </c>
+      <c r="T271" s="4">
+        <f t="shared" ref="T271:T277" si="213">+_xlfn.STDEV.S(P252:P271)</f>
+        <v>1.013324379078628E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="7">
+        <v>45688</v>
+      </c>
+      <c r="B272">
+        <v>102405.42</v>
+      </c>
+      <c r="C272">
+        <v>1220</v>
+      </c>
+      <c r="D272">
+        <v>2564659</v>
+      </c>
+      <c r="E272">
+        <v>66.45</v>
+      </c>
+      <c r="F272">
+        <v>217.14955572462185</v>
+      </c>
+      <c r="G272" s="2">
+        <f t="shared" si="200"/>
+        <v>2.1714955572462187</v>
+      </c>
+      <c r="H272" s="8">
+        <f t="shared" si="201"/>
+        <v>47158.935996104636</v>
+      </c>
+      <c r="I272">
+        <f t="shared" si="202"/>
+        <v>561.82477368138973</v>
+      </c>
+      <c r="J272">
+        <f t="shared" si="203"/>
+        <v>11810.565264302781</v>
+      </c>
+      <c r="K272">
+        <f t="shared" si="204"/>
+        <v>968.07912002481794</v>
+      </c>
+      <c r="L272">
+        <f t="shared" si="205"/>
+        <v>30.601029681252744</v>
+      </c>
+      <c r="M272" s="4">
+        <f t="shared" si="206"/>
+        <v>-2.2496573933432754E-2</v>
+      </c>
+      <c r="N272" s="4">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="O272" s="4">
+        <f t="shared" si="208"/>
+        <v>-1.3427808481598708E-2</v>
+      </c>
+      <c r="P272" s="4">
+        <f t="shared" si="209"/>
+        <v>-3.9050815621696142E-3</v>
+      </c>
+      <c r="Q272" s="4">
+        <f t="shared" si="210"/>
+        <v>2.7637602214547849E-2</v>
+      </c>
+      <c r="R272" s="4">
+        <f t="shared" si="211"/>
+        <v>6.9949558265587656E-3</v>
+      </c>
+      <c r="S272" s="4">
+        <f t="shared" si="212"/>
+        <v>2.8810434875523906E-2</v>
+      </c>
+      <c r="T272" s="4">
+        <f t="shared" si="213"/>
+        <v>1.0074045462583243E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="7">
+        <v>45691</v>
+      </c>
+      <c r="B273">
+        <v>101405.42</v>
+      </c>
+      <c r="C273">
+        <v>1220</v>
+      </c>
+      <c r="D273">
+        <v>2484136</v>
+      </c>
+      <c r="E273">
+        <v>65.709999999999994</v>
+      </c>
+      <c r="F273">
+        <v>217.34499032477399</v>
+      </c>
+      <c r="G273" s="2">
+        <f t="shared" si="200"/>
+        <v>2.1734499032477399</v>
+      </c>
+      <c r="H273" s="8">
+        <f t="shared" si="201"/>
+        <v>46656.433096742665</v>
+      </c>
+      <c r="I273">
+        <f t="shared" si="202"/>
+        <v>561.31958605394129</v>
+      </c>
+      <c r="J273">
+        <f t="shared" si="203"/>
+        <v>11429.460583784372</v>
+      </c>
+      <c r="K273">
+        <f t="shared" si="204"/>
+        <v>936.84103145773543</v>
+      </c>
+      <c r="L273">
+        <f t="shared" si="205"/>
+        <v>30.233040983282358</v>
+      </c>
+      <c r="M273" s="4">
+        <f t="shared" si="206"/>
+        <v>-9.8130994870594748E-3</v>
+      </c>
+      <c r="N273" s="4">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="O273" s="4">
+        <f t="shared" si="208"/>
+        <v>-3.1900613340120697E-2</v>
+      </c>
+      <c r="P273" s="4">
+        <f t="shared" si="209"/>
+        <v>-1.1198664249477939E-2</v>
+      </c>
+      <c r="Q273" s="4">
+        <f t="shared" si="210"/>
+        <v>2.6282703071151266E-2</v>
+      </c>
+      <c r="R273" s="4">
+        <f t="shared" si="211"/>
+        <v>6.9949558265587656E-3</v>
+      </c>
+      <c r="S273" s="4">
+        <f t="shared" si="212"/>
+        <v>2.8631575982280826E-2</v>
+      </c>
+      <c r="T273" s="4">
+        <f t="shared" si="213"/>
+        <v>9.7751765864891402E-3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="7">
+        <v>45692</v>
+      </c>
+      <c r="B274">
+        <v>97871.82</v>
+      </c>
+      <c r="C274">
+        <v>1220</v>
+      </c>
+      <c r="D274">
+        <v>2523647</v>
+      </c>
+      <c r="E274">
+        <v>65.319999999999993</v>
+      </c>
+      <c r="F274">
+        <v>217.54060081606627</v>
+      </c>
+      <c r="G274" s="2">
+        <f t="shared" si="200"/>
+        <v>2.1754060081606625</v>
+      </c>
+      <c r="H274" s="8">
+        <f t="shared" si="201"/>
+        <v>44990.139602837662</v>
+      </c>
+      <c r="I274">
+        <f t="shared" si="202"/>
+        <v>560.81485268652341</v>
+      </c>
+      <c r="J274">
+        <f t="shared" si="203"/>
+        <v>11600.809184735957</v>
+      </c>
+      <c r="K274">
+        <f t="shared" si="204"/>
+        <v>950.88599874884903</v>
+      </c>
+      <c r="L274">
+        <f t="shared" si="205"/>
+        <v>30.02657883400304</v>
+      </c>
+      <c r="M274" s="4">
+        <f t="shared" si="206"/>
+        <v>-3.5467878043435243E-2</v>
+      </c>
+      <c r="N274" s="4">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="O274" s="4">
+        <f t="shared" si="208"/>
+        <v>1.5780164553697403E-2</v>
+      </c>
+      <c r="P274" s="4">
+        <f t="shared" si="209"/>
+        <v>-5.9528528075121056E-3</v>
+      </c>
+      <c r="Q274" s="4">
+        <f t="shared" si="210"/>
+        <v>2.4661461166213337E-2</v>
+      </c>
+      <c r="R274" s="4">
+        <f t="shared" si="211"/>
+        <v>6.9949558265587656E-3</v>
+      </c>
+      <c r="S274" s="4">
+        <f t="shared" si="212"/>
+        <v>2.8896938536318677E-2</v>
+      </c>
+      <c r="T274" s="4">
+        <f t="shared" si="213"/>
+        <v>9.7703974103127006E-3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="7">
+        <v>45693</v>
+      </c>
+      <c r="B275">
+        <v>96615.45</v>
+      </c>
+      <c r="C275">
+        <v>1215</v>
+      </c>
+      <c r="D275">
+        <v>2477714</v>
+      </c>
+      <c r="E275">
+        <v>65.02</v>
+      </c>
+      <c r="F275">
+        <v>217.73638735680072</v>
+      </c>
+      <c r="G275" s="2">
+        <f t="shared" si="200"/>
+        <v>2.177363873568007</v>
+      </c>
+      <c r="H275" s="8">
+        <f t="shared" si="201"/>
+        <v>44372.670628395244</v>
+      </c>
+      <c r="I275">
+        <f t="shared" si="202"/>
+        <v>558.0142183625934</v>
+      </c>
+      <c r="J275">
+        <f t="shared" si="203"/>
+        <v>11379.420913876993</v>
+      </c>
+      <c r="K275">
+        <f t="shared" si="204"/>
+        <v>936.5778529939912</v>
+      </c>
+      <c r="L275">
+        <f t="shared" si="205"/>
+        <v>29.861797924227012</v>
+      </c>
+      <c r="M275" s="4">
+        <f t="shared" si="206"/>
+        <v>-1.2919997043715541E-2</v>
+      </c>
+      <c r="N275" s="4">
+        <f t="shared" si="207"/>
+        <v>-4.1067819526533593E-3</v>
+      </c>
+      <c r="O275" s="4">
+        <f t="shared" si="208"/>
+        <v>-1.8368716640495109E-2</v>
+      </c>
+      <c r="P275" s="4">
+        <f t="shared" si="209"/>
+        <v>-4.6033532265050163E-3</v>
+      </c>
+      <c r="Q275" s="4">
+        <f t="shared" si="210"/>
+        <v>2.4474921980349125E-2</v>
+      </c>
+      <c r="R275" s="4">
+        <f t="shared" si="211"/>
+        <v>6.8282490291801832E-3</v>
+      </c>
+      <c r="S275" s="4">
+        <f t="shared" si="212"/>
+        <v>2.897774933328754E-2</v>
+      </c>
+      <c r="T275" s="4">
+        <f t="shared" si="213"/>
+        <v>6.1829176419892417E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="7">
+        <v>45694</v>
+      </c>
+      <c r="B276">
+        <v>96593.3</v>
+      </c>
+      <c r="C276">
+        <v>1215</v>
+      </c>
+      <c r="D276">
+        <v>2503483</v>
+      </c>
+      <c r="E276">
+        <v>65.44</v>
+      </c>
+      <c r="F276">
+        <v>217.93235010542182</v>
+      </c>
+      <c r="G276" s="2">
+        <f t="shared" si="200"/>
+        <v>2.1793235010542182</v>
+      </c>
+      <c r="H276" s="8">
+        <f t="shared" si="201"/>
+        <v>44322.607429908545</v>
+      </c>
+      <c r="I276">
+        <f t="shared" si="202"/>
+        <v>557.51245715115726</v>
+      </c>
+      <c r="J276">
+        <f t="shared" si="203"/>
+        <v>11487.431759392188</v>
+      </c>
+      <c r="K276">
+        <f t="shared" si="204"/>
+        <v>945.46763451787547</v>
+      </c>
+      <c r="L276">
+        <f t="shared" si="205"/>
+        <v>30.027666827960275</v>
+      </c>
+      <c r="M276" s="4">
+        <f t="shared" si="206"/>
+        <v>-2.2928568294175298E-4</v>
+      </c>
+      <c r="N276" s="4">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="O276" s="4">
+        <f t="shared" si="208"/>
+        <v>1.0346601383235001E-2</v>
+      </c>
+      <c r="P276" s="4">
+        <f t="shared" si="209"/>
+        <v>6.4387774187324642E-3</v>
+      </c>
+      <c r="Q276" s="4">
+        <f t="shared" si="210"/>
+        <v>2.3569829156928485E-2</v>
+      </c>
+      <c r="R276" s="4">
+        <f t="shared" si="211"/>
+        <v>6.759654967753939E-3</v>
+      </c>
+      <c r="S276" s="4">
+        <f t="shared" si="212"/>
+        <v>2.8746195758183293E-2</v>
+      </c>
+      <c r="T276" s="4">
+        <f t="shared" si="213"/>
+        <v>6.5063101207080837E-3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A277" s="7">
+        <v>45695</v>
+      </c>
+      <c r="B277">
+        <v>96529.09</v>
+      </c>
+      <c r="C277">
+        <v>1215</v>
+      </c>
+      <c r="D277">
+        <v>2416382</v>
+      </c>
+      <c r="E277">
+        <v>65.44</v>
+      </c>
+      <c r="F277">
+        <v>218.12848922051668</v>
+      </c>
+      <c r="G277" s="2">
+        <f t="shared" si="200"/>
+        <v>2.1812848922051669</v>
+      </c>
+      <c r="H277" s="8">
+        <f t="shared" si="201"/>
+        <v>44253.316173851112</v>
+      </c>
+      <c r="I277">
+        <f t="shared" si="202"/>
+        <v>557.0111471187505</v>
+      </c>
+      <c r="J277">
+        <f t="shared" si="203"/>
+        <v>11077.791849358853</v>
+      </c>
+      <c r="K277">
+        <f t="shared" si="204"/>
+        <v>911.75241558509072</v>
+      </c>
+      <c r="L277">
+        <f t="shared" si="205"/>
+        <v>30.000666228354756</v>
+      </c>
+      <c r="M277" s="4">
+        <f t="shared" si="206"/>
+        <v>-6.6496694004302488E-4</v>
+      </c>
+      <c r="N277" s="4">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="O277" s="4">
+        <f t="shared" si="208"/>
+        <v>-3.5411582114624529E-2</v>
+      </c>
+      <c r="P277" s="4">
+        <f t="shared" si="209"/>
+        <v>0</v>
+      </c>
+      <c r="Q277" s="4">
+        <f t="shared" si="210"/>
+        <v>2.3022300938537986E-2</v>
+      </c>
+      <c r="R277" s="4">
+        <f t="shared" si="211"/>
+        <v>6.6843167752709117E-3</v>
+      </c>
+      <c r="S277" s="4">
+        <f t="shared" si="212"/>
+        <v>2.9483147777733337E-2</v>
+      </c>
+      <c r="T277" s="4">
+        <f t="shared" si="213"/>
+        <v>6.5176164744013788E-3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M279" s="23"/>
+      <c r="N279" s="23"/>
+      <c r="O279" s="23"/>
+      <c r="P279" s="23"/>
+      <c r="Q279" s="23"/>
+      <c r="R279" s="23"/>
+      <c r="S279" s="23"/>
+      <c r="T279" s="23"/>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M283" s="22"/>
+      <c r="Q283" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -95,8 +95,8 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
-    <numFmt numFmtId="171" formatCode="0.000000000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.000000000000000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -182,7 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,10 +211,9 @@
     <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,12 +495,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y283"/>
+  <dimension ref="A1:Y285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="M279" sqref="M279:T280"/>
+      <selection pane="bottomLeft" activeCell="G281" sqref="G281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21480,7 +21479,7 @@
         <v>6.5063101207080837E-3</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" s="7">
         <v>45695</v>
       </c>
@@ -21494,7 +21493,7 @@
         <v>2416382</v>
       </c>
       <c r="E277">
-        <v>65.44</v>
+        <v>65.05</v>
       </c>
       <c r="F277">
         <v>218.12848922051668</v>
@@ -21521,7 +21520,7 @@
       </c>
       <c r="L277">
         <f t="shared" si="205"/>
-        <v>30.000666228354756</v>
+        <v>29.821872526810466</v>
       </c>
       <c r="M277" s="4">
         <f t="shared" si="206"/>
@@ -21537,7 +21536,7 @@
       </c>
       <c r="P277" s="4">
         <f t="shared" si="209"/>
-        <v>0</v>
+        <v>-5.9774873359773164E-3</v>
       </c>
       <c r="Q277" s="4">
         <f t="shared" si="210"/>
@@ -21553,22 +21552,180 @@
       </c>
       <c r="T277" s="4">
         <f t="shared" si="213"/>
-        <v>6.5176164744013788E-3</v>
-      </c>
-    </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="M279" s="23"/>
-      <c r="N279" s="23"/>
-      <c r="O279" s="23"/>
-      <c r="P279" s="23"/>
-      <c r="Q279" s="23"/>
-      <c r="R279" s="23"/>
-      <c r="S279" s="23"/>
-      <c r="T279" s="23"/>
-    </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
+        <v>6.5453707991472345E-3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="7">
+        <v>45698</v>
+      </c>
+      <c r="B278">
+        <v>97437.55</v>
+      </c>
+      <c r="C278">
+        <v>1205</v>
+      </c>
+      <c r="D278">
+        <v>2391368</v>
+      </c>
+      <c r="E278">
+        <v>64.650000000000006</v>
+      </c>
+      <c r="F278">
+        <v>218.32480486081514</v>
+      </c>
+      <c r="G278" s="2">
+        <f t="shared" ref="G278:G279" si="214">+F278/$U$1</f>
+        <v>2.1832480486081511</v>
+      </c>
+      <c r="H278" s="8">
+        <f t="shared" ref="H278:H279" si="215">+B278/G278</f>
+        <v>44629.628805630993</v>
+      </c>
+      <c r="I278">
+        <f t="shared" ref="I278:I279" si="216">+C278/G278</f>
+        <v>551.92995627235439</v>
+      </c>
+      <c r="J278">
+        <f t="shared" ref="J278:J279" si="217">+D278/F278</f>
+        <v>10953.258387312097</v>
+      </c>
+      <c r="K278">
+        <f t="shared" ref="K278:K279" si="218">+D278/C278/G278</f>
+        <v>908.98409853212422</v>
+      </c>
+      <c r="L278">
+        <f t="shared" ref="L278:L279" si="219">+E278/G278</f>
+        <v>29.611843712039601</v>
+      </c>
+      <c r="M278" s="4">
+        <f t="shared" ref="M278:M279" si="220">+LN(B278/B277)</f>
+        <v>9.367246272332614E-3</v>
+      </c>
+      <c r="N278" s="4">
+        <f t="shared" ref="N278:N279" si="221">+LN(C278/C277)</f>
+        <v>-8.2645098498934245E-3</v>
+      </c>
+      <c r="O278" s="4">
+        <f t="shared" ref="O278:O279" si="222">+LN(D278/D277)</f>
+        <v>-1.0405793025991133E-2</v>
+      </c>
+      <c r="P278" s="4">
+        <f t="shared" ref="P278:P279" si="223">+LN(E278/E277)</f>
+        <v>-6.1680997406476611E-3</v>
+      </c>
+      <c r="Q278" s="4">
+        <f t="shared" ref="Q278:Q279" si="224">+_xlfn.STDEV.S(M259:M278)</f>
+        <v>2.3098721320869615E-2</v>
+      </c>
+      <c r="R278" s="4">
+        <f t="shared" ref="R278:R279" si="225">+_xlfn.STDEV.S(N259:N278)</f>
+        <v>4.8407341033250258E-3</v>
+      </c>
+      <c r="S278" s="4">
+        <f t="shared" ref="S278:S279" si="226">+_xlfn.STDEV.S(O259:O278)</f>
+        <v>2.7309926762754757E-2</v>
+      </c>
+      <c r="T278" s="4">
+        <f t="shared" ref="T278:T279" si="227">+_xlfn.STDEV.S(P259:P278)</f>
+        <v>6.5259850258142784E-3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="7">
+        <v>45699</v>
+      </c>
+      <c r="B279">
+        <v>95747.43</v>
+      </c>
+      <c r="C279">
+        <v>1205</v>
+      </c>
+      <c r="D279">
+        <v>2273568</v>
+      </c>
+      <c r="E279">
+        <v>64.64</v>
+      </c>
+      <c r="F279">
+        <v>218.52129718518984</v>
+      </c>
+      <c r="G279" s="2">
+        <f t="shared" si="214"/>
+        <v>2.1852129718518984</v>
+      </c>
+      <c r="H279" s="8">
+        <f t="shared" si="215"/>
+        <v>43816.063346382703</v>
+      </c>
+      <c r="I279">
+        <f t="shared" si="216"/>
+        <v>551.4336659729787</v>
+      </c>
+      <c r="J279">
+        <f t="shared" si="217"/>
+        <v>10404.331428040277</v>
+      </c>
+      <c r="K279">
+        <f t="shared" si="218"/>
+        <v>863.42999402823875</v>
+      </c>
+      <c r="L279">
+        <f t="shared" si="219"/>
+        <v>29.580640803728919</v>
+      </c>
+      <c r="M279" s="4">
+        <f t="shared" si="220"/>
+        <v>-1.7497872997852448E-2</v>
+      </c>
+      <c r="N279" s="4">
+        <f t="shared" si="221"/>
+        <v>0</v>
+      </c>
+      <c r="O279" s="4">
+        <f t="shared" si="222"/>
+        <v>-5.0515183464586236E-2</v>
+      </c>
+      <c r="P279" s="4">
+        <f t="shared" si="223"/>
+        <v>-1.5469100502658059E-4</v>
+      </c>
+      <c r="Q279" s="4">
+        <f t="shared" si="224"/>
+        <v>2.3147401502046725E-2</v>
+      </c>
+      <c r="R279" s="4">
+        <f t="shared" si="225"/>
+        <v>4.6278845741279584E-3</v>
+      </c>
+      <c r="S279" s="4">
+        <f t="shared" si="226"/>
+        <v>2.7847611856520946E-2</v>
+      </c>
+      <c r="T279" s="4">
+        <f t="shared" si="227"/>
+        <v>6.4983470993695419E-3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="7"/>
+    </row>
+    <row r="281" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="7"/>
+    </row>
+    <row r="282" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="7"/>
+    </row>
+    <row r="283" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="7"/>
       <c r="M283" s="22"/>
       <c r="Q283" s="2"/>
+    </row>
+    <row r="284" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="7"/>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A285" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -90,13 +90,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.000000000000000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -182,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,7 +212,6 @@
     </xf>
     <xf numFmtId="168" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,12 +493,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y285"/>
+  <dimension ref="A1:Y283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="G281" sqref="G281"/>
+      <selection pane="bottomLeft" activeCell="A279" sqref="A279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21575,59 +21573,59 @@
         <v>218.32480486081514</v>
       </c>
       <c r="G278" s="2">
-        <f t="shared" ref="G278:G279" si="214">+F278/$U$1</f>
+        <f t="shared" ref="G278:G284" si="214">+F278/$U$1</f>
         <v>2.1832480486081511</v>
       </c>
       <c r="H278" s="8">
-        <f t="shared" ref="H278:H279" si="215">+B278/G278</f>
+        <f t="shared" ref="H278:H284" si="215">+B278/G278</f>
         <v>44629.628805630993</v>
       </c>
       <c r="I278">
-        <f t="shared" ref="I278:I279" si="216">+C278/G278</f>
+        <f t="shared" ref="I278:I284" si="216">+C278/G278</f>
         <v>551.92995627235439</v>
       </c>
       <c r="J278">
-        <f t="shared" ref="J278:J279" si="217">+D278/F278</f>
+        <f t="shared" ref="J278:J284" si="217">+D278/F278</f>
         <v>10953.258387312097</v>
       </c>
       <c r="K278">
-        <f t="shared" ref="K278:K279" si="218">+D278/C278/G278</f>
+        <f t="shared" ref="K278:K284" si="218">+D278/C278/G278</f>
         <v>908.98409853212422</v>
       </c>
       <c r="L278">
-        <f t="shared" ref="L278:L279" si="219">+E278/G278</f>
+        <f t="shared" ref="L278:L284" si="219">+E278/G278</f>
         <v>29.611843712039601</v>
       </c>
       <c r="M278" s="4">
-        <f t="shared" ref="M278:M279" si="220">+LN(B278/B277)</f>
+        <f t="shared" ref="M278:M284" si="220">+LN(B278/B277)</f>
         <v>9.367246272332614E-3</v>
       </c>
       <c r="N278" s="4">
-        <f t="shared" ref="N278:N279" si="221">+LN(C278/C277)</f>
+        <f t="shared" ref="N278:N284" si="221">+LN(C278/C277)</f>
         <v>-8.2645098498934245E-3</v>
       </c>
       <c r="O278" s="4">
-        <f t="shared" ref="O278:O279" si="222">+LN(D278/D277)</f>
+        <f t="shared" ref="O278:O284" si="222">+LN(D278/D277)</f>
         <v>-1.0405793025991133E-2</v>
       </c>
       <c r="P278" s="4">
-        <f t="shared" ref="P278:P279" si="223">+LN(E278/E277)</f>
+        <f t="shared" ref="P278:P284" si="223">+LN(E278/E277)</f>
         <v>-6.1680997406476611E-3</v>
       </c>
       <c r="Q278" s="4">
-        <f t="shared" ref="Q278:Q279" si="224">+_xlfn.STDEV.S(M259:M278)</f>
+        <f t="shared" ref="Q278:Q284" si="224">+_xlfn.STDEV.S(M259:M278)</f>
         <v>2.3098721320869615E-2</v>
       </c>
       <c r="R278" s="4">
-        <f t="shared" ref="R278:R279" si="225">+_xlfn.STDEV.S(N259:N278)</f>
+        <f t="shared" ref="R278:R284" si="225">+_xlfn.STDEV.S(N259:N278)</f>
         <v>4.8407341033250258E-3</v>
       </c>
       <c r="S278" s="4">
-        <f t="shared" ref="S278:S279" si="226">+_xlfn.STDEV.S(O259:O278)</f>
+        <f t="shared" ref="S278:S284" si="226">+_xlfn.STDEV.S(O259:O278)</f>
         <v>2.7309926762754757E-2</v>
       </c>
       <c r="T278" s="4">
-        <f t="shared" ref="T278:T279" si="227">+_xlfn.STDEV.S(P259:P278)</f>
+        <f t="shared" ref="T278:T284" si="227">+_xlfn.STDEV.S(P259:P278)</f>
         <v>6.5259850258142784E-3</v>
       </c>
     </row>
@@ -21648,31 +21646,31 @@
         <v>64.64</v>
       </c>
       <c r="F279">
-        <v>218.52129718518984</v>
+        <v>212.71154531143071</v>
       </c>
       <c r="G279" s="2">
         <f t="shared" si="214"/>
-        <v>2.1852129718518984</v>
+        <v>2.1271154531143073</v>
       </c>
       <c r="H279" s="8">
         <f t="shared" si="215"/>
-        <v>43816.063346382703</v>
+        <v>45012.803540972018</v>
       </c>
       <c r="I279">
         <f t="shared" si="216"/>
-        <v>551.4336659729787</v>
+        <v>566.49487372007047</v>
       </c>
       <c r="J279">
         <f t="shared" si="217"/>
-        <v>10404.331428040277</v>
+        <v>10688.503046091231</v>
       </c>
       <c r="K279">
         <f t="shared" si="218"/>
-        <v>863.42999402823875</v>
+        <v>887.01270092043399</v>
       </c>
       <c r="L279">
         <f t="shared" si="219"/>
-        <v>29.580640803728919</v>
+        <v>30.388571483207766</v>
       </c>
       <c r="M279" s="4">
         <f t="shared" si="220"/>
@@ -21708,24 +21706,308 @@
       </c>
     </row>
     <row r="280" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="7"/>
+      <c r="A280" s="7">
+        <v>45700</v>
+      </c>
+      <c r="B280">
+        <v>97885.86</v>
+      </c>
+      <c r="C280">
+        <v>1210</v>
+      </c>
+      <c r="D280">
+        <v>2285846</v>
+      </c>
+      <c r="E280">
+        <v>64.930000000000007</v>
+      </c>
+      <c r="F280">
+        <v>212.71154531143071</v>
+      </c>
+      <c r="G280" s="2">
+        <f t="shared" si="214"/>
+        <v>2.1271154531143073</v>
+      </c>
+      <c r="H280" s="8">
+        <f t="shared" si="215"/>
+        <v>46018.122738324062</v>
+      </c>
+      <c r="I280">
+        <f t="shared" si="216"/>
+        <v>568.84547485583846</v>
+      </c>
+      <c r="J280">
+        <f t="shared" si="217"/>
+        <v>10746.224407581149</v>
+      </c>
+      <c r="K280">
+        <f t="shared" si="218"/>
+        <v>888.11771963480555</v>
+      </c>
+      <c r="L280">
+        <f t="shared" si="219"/>
+        <v>30.524906349082308</v>
+      </c>
+      <c r="M280" s="4">
+        <f t="shared" si="220"/>
+        <v>2.208831904054007E-2</v>
+      </c>
+      <c r="N280" s="4">
+        <f t="shared" si="221"/>
+        <v>4.1407926660313871E-3</v>
+      </c>
+      <c r="O280" s="4">
+        <f t="shared" si="222"/>
+        <v>5.3857928579157327E-3</v>
+      </c>
+      <c r="P280" s="4">
+        <f t="shared" si="223"/>
+        <v>4.4763523075555455E-3</v>
+      </c>
+      <c r="Q280" s="4">
+        <f t="shared" si="224"/>
+        <v>2.1778806039037545E-2</v>
+      </c>
+      <c r="R280" s="4">
+        <f t="shared" si="225"/>
+        <v>4.7852497745907129E-3</v>
+      </c>
+      <c r="S280" s="4">
+        <f t="shared" si="226"/>
+        <v>2.8034359161389855E-2</v>
+      </c>
+      <c r="T280" s="4">
+        <f t="shared" si="227"/>
+        <v>6.6630921778261087E-3</v>
+      </c>
     </row>
     <row r="281" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="7"/>
+      <c r="A281" s="7">
+        <v>45701</v>
+      </c>
+      <c r="B281">
+        <v>96623.87</v>
+      </c>
+      <c r="C281">
+        <v>1220</v>
+      </c>
+      <c r="D281">
+        <v>2353744</v>
+      </c>
+      <c r="E281">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="F281">
+        <v>212.71154531143071</v>
+      </c>
+      <c r="G281" s="2">
+        <f t="shared" si="214"/>
+        <v>2.1271154531143073</v>
+      </c>
+      <c r="H281" s="8">
+        <f t="shared" si="215"/>
+        <v>45424.835712858512</v>
+      </c>
+      <c r="I281">
+        <f t="shared" si="216"/>
+        <v>573.54667712737421</v>
+      </c>
+      <c r="J281">
+        <f t="shared" si="217"/>
+        <v>11065.426639413889</v>
+      </c>
+      <c r="K281">
+        <f t="shared" si="218"/>
+        <v>907.00218355851541</v>
+      </c>
+      <c r="L281">
+        <f t="shared" si="219"/>
+        <v>30.825783294460596</v>
+      </c>
+      <c r="M281" s="4">
+        <f t="shared" si="220"/>
+        <v>-1.2976293866793016E-2</v>
+      </c>
+      <c r="N281" s="4">
+        <f t="shared" si="221"/>
+        <v>8.2304991365154435E-3</v>
+      </c>
+      <c r="O281" s="4">
+        <f t="shared" si="222"/>
+        <v>2.9271055338025896E-2</v>
+      </c>
+      <c r="P281" s="4">
+        <f t="shared" si="223"/>
+        <v>9.8085077551323518E-3</v>
+      </c>
+      <c r="Q281" s="4">
+        <f t="shared" si="224"/>
+        <v>2.1895190649953825E-2</v>
+      </c>
+      <c r="R281" s="4">
+        <f t="shared" si="225"/>
+        <v>4.4947160529478954E-3</v>
+      </c>
+      <c r="S281" s="4">
+        <f t="shared" si="226"/>
+        <v>2.8834624471654646E-2</v>
+      </c>
+      <c r="T281" s="4">
+        <f t="shared" si="227"/>
+        <v>7.0429387786522168E-3</v>
+      </c>
     </row>
     <row r="282" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A282" s="7"/>
-    </row>
-    <row r="283" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="7"/>
-      <c r="M283" s="22"/>
-      <c r="Q283" s="2"/>
-    </row>
-    <row r="284" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A284" s="7"/>
-    </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A285" s="7"/>
+      <c r="A282" s="7">
+        <v>45702</v>
+      </c>
+      <c r="B282">
+        <v>97508.97</v>
+      </c>
+      <c r="C282">
+        <v>1225</v>
+      </c>
+      <c r="D282">
+        <v>2387386</v>
+      </c>
+      <c r="E282">
+        <v>65.75</v>
+      </c>
+      <c r="F282">
+        <v>212.71154531143071</v>
+      </c>
+      <c r="G282" s="2">
+        <f t="shared" si="214"/>
+        <v>2.1271154531143073</v>
+      </c>
+      <c r="H282" s="8">
+        <f t="shared" si="215"/>
+        <v>45840.939125912148</v>
+      </c>
+      <c r="I282">
+        <f t="shared" si="216"/>
+        <v>575.8972782631422</v>
+      </c>
+      <c r="J282">
+        <f t="shared" si="217"/>
+        <v>11223.5844862329</v>
+      </c>
+      <c r="K282">
+        <f t="shared" si="218"/>
+        <v>916.21097846799171</v>
+      </c>
+      <c r="L282">
+        <f t="shared" si="219"/>
+        <v>30.910404935348243</v>
+      </c>
+      <c r="M282" s="4">
+        <f t="shared" si="220"/>
+        <v>9.1185616288482069E-3</v>
+      </c>
+      <c r="N282" s="4">
+        <f t="shared" si="221"/>
+        <v>4.0899852515250664E-3</v>
+      </c>
+      <c r="O282" s="4">
+        <f t="shared" si="222"/>
+        <v>1.4191791679406436E-2</v>
+      </c>
+      <c r="P282" s="4">
+        <f t="shared" si="223"/>
+        <v>2.7413967823459559E-3</v>
+      </c>
+      <c r="Q282" s="4">
+        <f t="shared" si="224"/>
+        <v>1.9030973516827358E-2</v>
+      </c>
+      <c r="R282" s="4">
+        <f t="shared" si="225"/>
+        <v>4.1802005506250631E-3</v>
+      </c>
+      <c r="S282" s="4">
+        <f t="shared" si="226"/>
+        <v>2.7490099550976695E-2</v>
+      </c>
+      <c r="T282" s="4">
+        <f t="shared" si="227"/>
+        <v>6.7710868747120267E-3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A283" s="7">
+        <v>45705</v>
+      </c>
+      <c r="B283">
+        <v>96167.31</v>
+      </c>
+      <c r="C283">
+        <v>1220</v>
+      </c>
+      <c r="D283">
+        <v>2254189</v>
+      </c>
+      <c r="E283">
+        <v>65.75</v>
+      </c>
+      <c r="F283">
+        <v>212.71154531143071</v>
+      </c>
+      <c r="G283" s="2">
+        <f t="shared" si="214"/>
+        <v>2.1271154531143073</v>
+      </c>
+      <c r="H283" s="8">
+        <f t="shared" si="215"/>
+        <v>45210.197621949272</v>
+      </c>
+      <c r="I283">
+        <f t="shared" si="216"/>
+        <v>573.54667712737421</v>
+      </c>
+      <c r="J283">
+        <f t="shared" si="217"/>
+        <v>10597.398447271138</v>
+      </c>
+      <c r="K283">
+        <f t="shared" si="218"/>
+        <v>868.6392169894375</v>
+      </c>
+      <c r="L283">
+        <f t="shared" si="219"/>
+        <v>30.910404935348243</v>
+      </c>
+      <c r="M283" s="4">
+        <f t="shared" si="220"/>
+        <v>-1.3854886739696197E-2</v>
+      </c>
+      <c r="N283" s="4">
+        <f t="shared" si="221"/>
+        <v>-4.0899852515251661E-3</v>
+      </c>
+      <c r="O283" s="4">
+        <f t="shared" si="222"/>
+        <v>-5.7408780507675013E-2</v>
+      </c>
+      <c r="P283" s="4">
+        <f t="shared" si="223"/>
+        <v>0</v>
+      </c>
+      <c r="Q283" s="4">
+        <f t="shared" si="224"/>
+        <v>1.8602672184466096E-2</v>
+      </c>
+      <c r="R283" s="4">
+        <f t="shared" si="225"/>
+        <v>4.2585754168434926E-3</v>
+      </c>
+      <c r="S283" s="4">
+        <f t="shared" si="226"/>
+        <v>2.9892724962540789E-2</v>
+      </c>
+      <c r="T283" s="4">
+        <f t="shared" si="227"/>
+        <v>6.7516415940959149E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -493,12 +493,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y283"/>
+  <dimension ref="A1:Y285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A279" sqref="A279"/>
+      <selection pane="bottomLeft" activeCell="A283" sqref="A283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21573,59 +21573,59 @@
         <v>218.32480486081514</v>
       </c>
       <c r="G278" s="2">
-        <f t="shared" ref="G278:G284" si="214">+F278/$U$1</f>
+        <f t="shared" ref="G278:G286" si="214">+F278/$U$1</f>
         <v>2.1832480486081511</v>
       </c>
       <c r="H278" s="8">
-        <f t="shared" ref="H278:H284" si="215">+B278/G278</f>
+        <f t="shared" ref="H278:H286" si="215">+B278/G278</f>
         <v>44629.628805630993</v>
       </c>
       <c r="I278">
-        <f t="shared" ref="I278:I284" si="216">+C278/G278</f>
+        <f t="shared" ref="I278:I286" si="216">+C278/G278</f>
         <v>551.92995627235439</v>
       </c>
       <c r="J278">
-        <f t="shared" ref="J278:J284" si="217">+D278/F278</f>
+        <f t="shared" ref="J278:J286" si="217">+D278/F278</f>
         <v>10953.258387312097</v>
       </c>
       <c r="K278">
-        <f t="shared" ref="K278:K284" si="218">+D278/C278/G278</f>
+        <f t="shared" ref="K278:K286" si="218">+D278/C278/G278</f>
         <v>908.98409853212422</v>
       </c>
       <c r="L278">
-        <f t="shared" ref="L278:L284" si="219">+E278/G278</f>
+        <f t="shared" ref="L278:L286" si="219">+E278/G278</f>
         <v>29.611843712039601</v>
       </c>
       <c r="M278" s="4">
-        <f t="shared" ref="M278:M284" si="220">+LN(B278/B277)</f>
+        <f t="shared" ref="M278:M286" si="220">+LN(B278/B277)</f>
         <v>9.367246272332614E-3</v>
       </c>
       <c r="N278" s="4">
-        <f t="shared" ref="N278:N284" si="221">+LN(C278/C277)</f>
+        <f t="shared" ref="N278:N286" si="221">+LN(C278/C277)</f>
         <v>-8.2645098498934245E-3</v>
       </c>
       <c r="O278" s="4">
-        <f t="shared" ref="O278:O284" si="222">+LN(D278/D277)</f>
+        <f t="shared" ref="O278:O286" si="222">+LN(D278/D277)</f>
         <v>-1.0405793025991133E-2</v>
       </c>
       <c r="P278" s="4">
-        <f t="shared" ref="P278:P284" si="223">+LN(E278/E277)</f>
+        <f t="shared" ref="P278:P286" si="223">+LN(E278/E277)</f>
         <v>-6.1680997406476611E-3</v>
       </c>
       <c r="Q278" s="4">
-        <f t="shared" ref="Q278:Q284" si="224">+_xlfn.STDEV.S(M259:M278)</f>
+        <f t="shared" ref="Q278:Q286" si="224">+_xlfn.STDEV.S(M259:M278)</f>
         <v>2.3098721320869615E-2</v>
       </c>
       <c r="R278" s="4">
-        <f t="shared" ref="R278:R284" si="225">+_xlfn.STDEV.S(N259:N278)</f>
+        <f t="shared" ref="R278:R286" si="225">+_xlfn.STDEV.S(N259:N278)</f>
         <v>4.8407341033250258E-3</v>
       </c>
       <c r="S278" s="4">
-        <f t="shared" ref="S278:S284" si="226">+_xlfn.STDEV.S(O259:O278)</f>
+        <f t="shared" ref="S278:S286" si="226">+_xlfn.STDEV.S(O259:O278)</f>
         <v>2.7309926762754757E-2</v>
       </c>
       <c r="T278" s="4">
-        <f t="shared" ref="T278:T284" si="227">+_xlfn.STDEV.S(P259:P278)</f>
+        <f t="shared" ref="T278:T286" si="227">+_xlfn.STDEV.S(P259:P278)</f>
         <v>6.5259850258142784E-3</v>
       </c>
     </row>
@@ -21933,12 +21933,12 @@
         <v>6.7710868747120267E-3</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" s="7">
         <v>45705</v>
       </c>
       <c r="B283">
-        <v>96167.31</v>
+        <v>95773.38</v>
       </c>
       <c r="C283">
         <v>1220</v>
@@ -21947,7 +21947,7 @@
         <v>2254189</v>
       </c>
       <c r="E283">
-        <v>65.75</v>
+        <v>64.83</v>
       </c>
       <c r="F283">
         <v>212.71154531143071</v>
@@ -21958,7 +21958,7 @@
       </c>
       <c r="H283" s="8">
         <f t="shared" si="215"/>
-        <v>45210.197621949272</v>
+        <v>45025.003160866661</v>
       </c>
       <c r="I283">
         <f t="shared" si="216"/>
@@ -21974,11 +21974,11 @@
       </c>
       <c r="L283">
         <f t="shared" si="219"/>
-        <v>30.910404935348243</v>
+        <v>30.477894326366943</v>
       </c>
       <c r="M283" s="4">
         <f t="shared" si="220"/>
-        <v>-1.3854886739696197E-2</v>
+        <v>-1.7959597972098652E-2</v>
       </c>
       <c r="N283" s="4">
         <f t="shared" si="221"/>
@@ -21990,11 +21990,11 @@
       </c>
       <c r="P283" s="4">
         <f t="shared" si="223"/>
-        <v>0</v>
+        <v>-1.409121187096966E-2</v>
       </c>
       <c r="Q283" s="4">
         <f t="shared" si="224"/>
-        <v>1.8602672184466096E-2</v>
+        <v>1.8751335015598627E-2</v>
       </c>
       <c r="R283" s="4">
         <f t="shared" si="225"/>
@@ -22006,7 +22006,159 @@
       </c>
       <c r="T283" s="4">
         <f t="shared" si="227"/>
-        <v>6.7516415940959149E-3</v>
+        <v>7.3541039183597683E-3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="7">
+        <v>45706</v>
+      </c>
+      <c r="B284">
+        <v>95539.55</v>
+      </c>
+      <c r="C284">
+        <v>1235</v>
+      </c>
+      <c r="D284">
+        <v>2391725</v>
+      </c>
+      <c r="E284">
+        <v>65.12</v>
+      </c>
+      <c r="F284">
+        <v>212.71310519602542</v>
+      </c>
+      <c r="G284" s="2">
+        <f t="shared" si="214"/>
+        <v>2.1271310519602542</v>
+      </c>
+      <c r="H284" s="8">
+        <f t="shared" si="215"/>
+        <v>44914.745573365442</v>
+      </c>
+      <c r="I284">
+        <f t="shared" si="216"/>
+        <v>580.59422284390416</v>
+      </c>
+      <c r="J284">
+        <f t="shared" si="217"/>
+        <v>11243.900547622157</v>
+      </c>
+      <c r="K284">
+        <f t="shared" si="218"/>
+        <v>910.43729130543795</v>
+      </c>
+      <c r="L284">
+        <f t="shared" si="219"/>
+        <v>30.614004689550637</v>
+      </c>
+      <c r="M284" s="4">
+        <f t="shared" si="220"/>
+        <v>-2.444477918319947E-3</v>
+      </c>
+      <c r="N284" s="4">
+        <f t="shared" si="221"/>
+        <v>1.2220111334775397E-2</v>
+      </c>
+      <c r="O284" s="4">
+        <f t="shared" si="222"/>
+        <v>5.9224599890071714E-2</v>
+      </c>
+      <c r="P284" s="4">
+        <f t="shared" si="223"/>
+        <v>4.4632625073807632E-3</v>
+      </c>
+      <c r="Q284" s="4">
+        <f t="shared" si="224"/>
+        <v>1.6064847826357406E-2</v>
+      </c>
+      <c r="R284" s="4">
+        <f t="shared" si="225"/>
+        <v>5.1369226100127941E-3</v>
+      </c>
+      <c r="S284" s="4">
+        <f t="shared" si="226"/>
+        <v>3.2228714634906439E-2</v>
+      </c>
+      <c r="T284" s="4">
+        <f t="shared" si="227"/>
+        <v>7.4688464001320884E-3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A285" s="7">
+        <v>45707</v>
+      </c>
+      <c r="B285">
+        <v>96555.79</v>
+      </c>
+      <c r="C285">
+        <v>1235</v>
+      </c>
+      <c r="D285">
+        <v>2401579</v>
+      </c>
+      <c r="E285">
+        <v>64.650000000000006</v>
+      </c>
+      <c r="F285">
+        <v>212.71466509205928</v>
+      </c>
+      <c r="G285" s="2">
+        <f t="shared" si="214"/>
+        <v>2.1271466509205927</v>
+      </c>
+      <c r="H285" s="8">
+        <f t="shared" si="215"/>
+        <v>45392.164173641861</v>
+      </c>
+      <c r="I285">
+        <f t="shared" si="216"/>
+        <v>580.58996518435299</v>
+      </c>
+      <c r="J285">
+        <f t="shared" si="217"/>
+        <v>11290.143060708286</v>
+      </c>
+      <c r="K285">
+        <f t="shared" si="218"/>
+        <v>914.18162434884903</v>
+      </c>
+      <c r="L285">
+        <f t="shared" si="219"/>
+        <v>30.392826922403582</v>
+      </c>
+      <c r="M285" s="4">
+        <f t="shared" si="220"/>
+        <v>1.0580678122833191E-2</v>
+      </c>
+      <c r="N285" s="4">
+        <f t="shared" si="221"/>
+        <v>0</v>
+      </c>
+      <c r="O285" s="4">
+        <f t="shared" si="222"/>
+        <v>4.1115747642365653E-3</v>
+      </c>
+      <c r="P285" s="4">
+        <f t="shared" si="223"/>
+        <v>-7.2436164764183315E-3</v>
+      </c>
+      <c r="Q285" s="4">
+        <f t="shared" si="224"/>
+        <v>1.5914165230719986E-2</v>
+      </c>
+      <c r="R285" s="4">
+        <f t="shared" si="225"/>
+        <v>5.1369226100127941E-3</v>
+      </c>
+      <c r="S285" s="4">
+        <f t="shared" si="226"/>
+        <v>3.1645520695983767E-2</v>
+      </c>
+      <c r="T285" s="4">
+        <f t="shared" si="227"/>
+        <v>6.8409172599314307E-3</v>
       </c>
     </row>
   </sheetData>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -493,12 +493,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y285"/>
+  <dimension ref="A1:Y290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A283" sqref="A283"/>
+      <selection pane="bottomLeft" activeCell="D293" sqref="D293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21573,59 +21573,59 @@
         <v>218.32480486081514</v>
       </c>
       <c r="G278" s="2">
-        <f t="shared" ref="G278:G286" si="214">+F278/$U$1</f>
+        <f t="shared" ref="G278:G285" si="214">+F278/$U$1</f>
         <v>2.1832480486081511</v>
       </c>
       <c r="H278" s="8">
-        <f t="shared" ref="H278:H286" si="215">+B278/G278</f>
+        <f t="shared" ref="H278:H285" si="215">+B278/G278</f>
         <v>44629.628805630993</v>
       </c>
       <c r="I278">
-        <f t="shared" ref="I278:I286" si="216">+C278/G278</f>
+        <f t="shared" ref="I278:I285" si="216">+C278/G278</f>
         <v>551.92995627235439</v>
       </c>
       <c r="J278">
-        <f t="shared" ref="J278:J286" si="217">+D278/F278</f>
+        <f t="shared" ref="J278:J285" si="217">+D278/F278</f>
         <v>10953.258387312097</v>
       </c>
       <c r="K278">
-        <f t="shared" ref="K278:K286" si="218">+D278/C278/G278</f>
+        <f t="shared" ref="K278:K285" si="218">+D278/C278/G278</f>
         <v>908.98409853212422</v>
       </c>
       <c r="L278">
-        <f t="shared" ref="L278:L286" si="219">+E278/G278</f>
+        <f t="shared" ref="L278:L285" si="219">+E278/G278</f>
         <v>29.611843712039601</v>
       </c>
       <c r="M278" s="4">
-        <f t="shared" ref="M278:M286" si="220">+LN(B278/B277)</f>
+        <f t="shared" ref="M278:M285" si="220">+LN(B278/B277)</f>
         <v>9.367246272332614E-3</v>
       </c>
       <c r="N278" s="4">
-        <f t="shared" ref="N278:N286" si="221">+LN(C278/C277)</f>
+        <f t="shared" ref="N278:N291" si="221">+LN(C278/C277)</f>
         <v>-8.2645098498934245E-3</v>
       </c>
       <c r="O278" s="4">
-        <f t="shared" ref="O278:O286" si="222">+LN(D278/D277)</f>
+        <f t="shared" ref="O278:O291" si="222">+LN(D278/D277)</f>
         <v>-1.0405793025991133E-2</v>
       </c>
       <c r="P278" s="4">
-        <f t="shared" ref="P278:P286" si="223">+LN(E278/E277)</f>
+        <f t="shared" ref="P278:Q291" si="223">+LN(E278/E277)</f>
         <v>-6.1680997406476611E-3</v>
       </c>
       <c r="Q278" s="4">
-        <f t="shared" ref="Q278:Q286" si="224">+_xlfn.STDEV.S(M259:M278)</f>
+        <f t="shared" ref="Q278:Q285" si="224">+_xlfn.STDEV.S(M259:M278)</f>
         <v>2.3098721320869615E-2</v>
       </c>
       <c r="R278" s="4">
-        <f t="shared" ref="R278:R286" si="225">+_xlfn.STDEV.S(N259:N278)</f>
+        <f t="shared" ref="R278:R291" si="225">+_xlfn.STDEV.S(N259:N278)</f>
         <v>4.8407341033250258E-3</v>
       </c>
       <c r="S278" s="4">
-        <f t="shared" ref="S278:S286" si="226">+_xlfn.STDEV.S(O259:O278)</f>
+        <f t="shared" ref="S278:S291" si="226">+_xlfn.STDEV.S(O259:O278)</f>
         <v>2.7309926762754757E-2</v>
       </c>
       <c r="T278" s="4">
-        <f t="shared" ref="T278:T286" si="227">+_xlfn.STDEV.S(P259:P278)</f>
+        <f t="shared" ref="T278:U291" si="227">+_xlfn.STDEV.S(P259:P278)</f>
         <v>6.5259850258142784E-3</v>
       </c>
     </row>
@@ -22029,63 +22029,63 @@
         <v>212.71310519602542</v>
       </c>
       <c r="G284" s="2">
-        <f t="shared" si="214"/>
+        <f t="shared" ref="G284:G289" si="228">+F284/$U$1</f>
         <v>2.1271310519602542</v>
       </c>
       <c r="H284" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" ref="H284:H289" si="229">+B284/G284</f>
         <v>44914.745573365442</v>
       </c>
       <c r="I284">
-        <f t="shared" si="216"/>
+        <f t="shared" ref="I284:I289" si="230">+C284/G284</f>
         <v>580.59422284390416</v>
       </c>
       <c r="J284">
-        <f t="shared" si="217"/>
+        <f t="shared" ref="J284:J289" si="231">+D284/F284</f>
         <v>11243.900547622157</v>
       </c>
       <c r="K284">
-        <f t="shared" si="218"/>
+        <f t="shared" ref="K284:K289" si="232">+D284/C284/G284</f>
         <v>910.43729130543795</v>
       </c>
       <c r="L284">
-        <f t="shared" si="219"/>
+        <f t="shared" ref="L284:L289" si="233">+E284/G284</f>
         <v>30.614004689550637</v>
       </c>
       <c r="M284" s="4">
-        <f t="shared" si="220"/>
+        <f t="shared" ref="M284" si="234">+LN(B284/B283)</f>
         <v>-2.444477918319947E-3</v>
       </c>
       <c r="N284" s="4">
-        <f t="shared" si="221"/>
+        <f t="shared" ref="N284" si="235">+LN(C284/C283)</f>
         <v>1.2220111334775397E-2</v>
       </c>
       <c r="O284" s="4">
-        <f t="shared" si="222"/>
+        <f t="shared" ref="O284" si="236">+LN(D284/D283)</f>
         <v>5.9224599890071714E-2</v>
       </c>
       <c r="P284" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" ref="P284" si="237">+LN(E284/E283)</f>
         <v>4.4632625073807632E-3</v>
       </c>
       <c r="Q284" s="4">
-        <f t="shared" si="224"/>
+        <f t="shared" ref="Q284" si="238">+_xlfn.STDEV.S(M265:M284)</f>
         <v>1.6064847826357406E-2</v>
       </c>
       <c r="R284" s="4">
-        <f t="shared" si="225"/>
+        <f t="shared" ref="R284" si="239">+_xlfn.STDEV.S(N265:N284)</f>
         <v>5.1369226100127941E-3</v>
       </c>
       <c r="S284" s="4">
-        <f t="shared" si="226"/>
+        <f t="shared" ref="S284" si="240">+_xlfn.STDEV.S(O265:O284)</f>
         <v>3.2228714634906439E-2</v>
       </c>
       <c r="T284" s="4">
-        <f t="shared" si="227"/>
+        <f t="shared" ref="T284" si="241">+_xlfn.STDEV.S(P265:P284)</f>
         <v>7.4688464001320884E-3</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" s="7">
         <v>45707</v>
       </c>
@@ -22105,61 +22105,368 @@
         <v>212.71466509205928</v>
       </c>
       <c r="G285" s="2">
-        <f t="shared" si="214"/>
+        <f t="shared" si="228"/>
         <v>2.1271466509205927</v>
       </c>
       <c r="H285" s="8">
-        <f t="shared" si="215"/>
+        <f t="shared" si="229"/>
         <v>45392.164173641861</v>
       </c>
       <c r="I285">
-        <f t="shared" si="216"/>
+        <f t="shared" si="230"/>
         <v>580.58996518435299</v>
       </c>
       <c r="J285">
-        <f t="shared" si="217"/>
+        <f t="shared" si="231"/>
         <v>11290.143060708286</v>
       </c>
       <c r="K285">
-        <f t="shared" si="218"/>
+        <f t="shared" si="232"/>
         <v>914.18162434884903</v>
       </c>
       <c r="L285">
-        <f t="shared" si="219"/>
+        <f t="shared" si="233"/>
         <v>30.392826922403582</v>
       </c>
       <c r="M285" s="4">
-        <f t="shared" si="220"/>
+        <f>+LN(B285/B284)</f>
         <v>1.0580678122833191E-2</v>
       </c>
       <c r="N285" s="4">
-        <f t="shared" si="221"/>
+        <f>+LN(C285/C284)</f>
         <v>0</v>
       </c>
       <c r="O285" s="4">
-        <f t="shared" si="222"/>
+        <f>+LN(D285/D284)</f>
         <v>4.1115747642365653E-3</v>
       </c>
       <c r="P285" s="4">
-        <f t="shared" si="223"/>
+        <f>+LN(E285/E284)</f>
         <v>-7.2436164764183315E-3</v>
       </c>
       <c r="Q285" s="4">
-        <f t="shared" si="224"/>
-        <v>1.5914165230719986E-2</v>
+        <f>+_xlfn.STDEV.S(N268:N287)</f>
+        <v>5.3495668696416417E-3</v>
       </c>
       <c r="R285" s="4">
-        <f t="shared" si="225"/>
-        <v>5.1369226100127941E-3</v>
+        <f>+_xlfn.STDEV.S(O268:O287)</f>
+        <v>3.1386681250692584E-2</v>
       </c>
       <c r="S285" s="4">
-        <f t="shared" si="226"/>
-        <v>3.1645520695983767E-2</v>
+        <f>+_xlfn.STDEV.S(P268:P287)</f>
+        <v>6.8569963766894155E-3</v>
       </c>
       <c r="T285" s="4">
-        <f t="shared" si="227"/>
-        <v>6.8409172599314307E-3</v>
-      </c>
+        <f>+_xlfn.STDEV.S(Q268:Q287)</f>
+        <v>7.4170306095512062E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="7">
+        <v>45708</v>
+      </c>
+      <c r="B286">
+        <v>98333.94</v>
+      </c>
+      <c r="C286">
+        <v>1225</v>
+      </c>
+      <c r="D286">
+        <v>2410221</v>
+      </c>
+      <c r="E286">
+        <v>64.849999999999994</v>
+      </c>
+      <c r="F286">
+        <v>212.71622499953239</v>
+      </c>
+      <c r="G286" s="2">
+        <f t="shared" si="228"/>
+        <v>2.1271622499953238</v>
+      </c>
+      <c r="H286" s="8">
+        <f t="shared" si="229"/>
+        <v>46227.757191636971</v>
+      </c>
+      <c r="I286">
+        <f t="shared" si="230"/>
+        <v>575.88460870941697</v>
+      </c>
+      <c r="J286">
+        <f t="shared" si="231"/>
+        <v>11330.687163169139</v>
+      </c>
+      <c r="K286">
+        <f t="shared" si="232"/>
+        <v>924.95405413625633</v>
+      </c>
+      <c r="L286">
+        <f t="shared" si="233"/>
+        <v>30.486626020249538</v>
+      </c>
+      <c r="M286" s="4">
+        <f>+LN(B286/B285)</f>
+        <v>1.8248261139728605E-2</v>
+      </c>
+      <c r="N286" s="4">
+        <f>+LN(C286/C285)</f>
+        <v>-8.1301260832501755E-3</v>
+      </c>
+      <c r="O286" s="4">
+        <f>+LN(D286/D285)</f>
+        <v>3.5920068547978545E-3</v>
+      </c>
+      <c r="P286" s="4">
+        <f>+LN(E286/E285)</f>
+        <v>3.0888055445861999E-3</v>
+      </c>
+      <c r="Q286" s="4">
+        <f>+_xlfn.STDEV.S(N269:N288)</f>
+        <v>5.1410254516159682E-3</v>
+      </c>
+      <c r="R286" s="4">
+        <f>+_xlfn.STDEV.S(O269:O288)</f>
+        <v>2.942543304128812E-2</v>
+      </c>
+      <c r="S286" s="4">
+        <f>+_xlfn.STDEV.S(P269:P288)</f>
+        <v>6.8187575851889346E-3</v>
+      </c>
+      <c r="T286" s="4">
+        <f>+_xlfn.STDEV.S(Q269:Q288)</f>
+        <v>8.0458010848495649E-3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="7">
+        <v>45709</v>
+      </c>
+      <c r="B287">
+        <v>96125.55</v>
+      </c>
+      <c r="C287">
+        <v>1225</v>
+      </c>
+      <c r="D287">
+        <v>2364529</v>
+      </c>
+      <c r="E287">
+        <v>64.650000000000006</v>
+      </c>
+      <c r="F287">
+        <v>212.71778491844481</v>
+      </c>
+      <c r="G287" s="2">
+        <f t="shared" si="228"/>
+        <v>2.1271778491844482</v>
+      </c>
+      <c r="H287" s="8">
+        <f t="shared" si="229"/>
+        <v>45189.239835707282</v>
+      </c>
+      <c r="I287">
+        <f t="shared" si="230"/>
+        <v>575.88038558678124</v>
+      </c>
+      <c r="J287">
+        <f t="shared" si="231"/>
+        <v>11115.803038784705</v>
+      </c>
+      <c r="K287">
+        <f t="shared" si="232"/>
+        <v>907.4124929620167</v>
+      </c>
+      <c r="L287">
+        <f t="shared" si="233"/>
+        <v>30.39238116586564</v>
+      </c>
+      <c r="M287" s="4">
+        <f>+LN(B287/B286)</f>
+        <v>-2.2714087618250247E-2</v>
+      </c>
+      <c r="N287" s="4">
+        <f>+LN(C287/C286)</f>
+        <v>0</v>
+      </c>
+      <c r="O287" s="4">
+        <f>+LN(D287/D286)</f>
+        <v>-1.913959676707435E-2</v>
+      </c>
+      <c r="P287" s="4">
+        <f>+LN(E287/E286)</f>
+        <v>-3.0888055445862563E-3</v>
+      </c>
+      <c r="Q287" s="4">
+        <f>+_xlfn.STDEV.S(N270:N289)</f>
+        <v>5.4505397321480843E-3</v>
+      </c>
+      <c r="R287" s="4">
+        <f>+_xlfn.STDEV.S(O270:O289)</f>
+        <v>3.0010113310725697E-2</v>
+      </c>
+      <c r="S287" s="4">
+        <f>+_xlfn.STDEV.S(P270:P289)</f>
+        <v>6.0827226307411438E-3</v>
+      </c>
+      <c r="T287" s="4">
+        <f>+_xlfn.STDEV.S(Q270:Q289)</f>
+        <v>8.4629046439959645E-3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="7">
+        <v>45710</v>
+      </c>
+      <c r="B288">
+        <v>96577.76</v>
+      </c>
+      <c r="C288">
+        <v>1230</v>
+      </c>
+      <c r="D288">
+        <v>2348398</v>
+      </c>
+      <c r="E288">
+        <v>64.7</v>
+      </c>
+      <c r="F288">
+        <v>212.71934484879662</v>
+      </c>
+      <c r="G288" s="2">
+        <f t="shared" si="228"/>
+        <v>2.1271934484879664</v>
+      </c>
+      <c r="H288" s="8">
+        <f t="shared" si="229"/>
+        <v>45401.493723407511</v>
+      </c>
+      <c r="I288">
+        <f t="shared" si="230"/>
+        <v>578.22667744407454</v>
+      </c>
+      <c r="J288">
+        <f t="shared" si="231"/>
+        <v>11039.889210213902</v>
+      </c>
+      <c r="K288">
+        <f t="shared" si="232"/>
+        <v>897.55196831007322</v>
+      </c>
+      <c r="L288">
+        <f t="shared" si="233"/>
+        <v>30.415663439537909</v>
+      </c>
+      <c r="M288" s="4">
+        <f>+LN(B288/B287)</f>
+        <v>4.6933374427716298E-3</v>
+      </c>
+      <c r="N288" s="4">
+        <f>+LN(C288/C287)</f>
+        <v>4.0733253876358688E-3</v>
+      </c>
+      <c r="O288" s="4">
+        <f>+LN(D288/D287)</f>
+        <v>-6.8454542121415898E-3</v>
+      </c>
+      <c r="P288" s="4">
+        <f>+LN(E288/E287)</f>
+        <v>7.7309628898845494E-4</v>
+      </c>
+      <c r="Q288" s="4">
+        <f>+_xlfn.STDEV.S(N271:N290)</f>
+        <v>5.2024665933004957E-3</v>
+      </c>
+      <c r="R288" s="4">
+        <f>+_xlfn.STDEV.S(O271:O290)</f>
+        <v>2.8631904348873354E-2</v>
+      </c>
+      <c r="S288" s="4">
+        <f>+_xlfn.STDEV.S(P271:P290)</f>
+        <v>6.1997891910798653E-3</v>
+      </c>
+      <c r="T288" s="4">
+        <f>+_xlfn.STDEV.S(Q271:Q290)</f>
+        <v>8.4311236183597423E-3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="7">
+        <v>45713</v>
+      </c>
+      <c r="B289">
+        <v>88685.65</v>
+      </c>
+      <c r="C289">
+        <v>1240</v>
+      </c>
+      <c r="D289">
+        <v>2282898.75</v>
+      </c>
+      <c r="E289">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="F289">
+        <v>212.72090479058792</v>
+      </c>
+      <c r="G289" s="2">
+        <f t="shared" si="228"/>
+        <v>2.1272090479058794</v>
+      </c>
+      <c r="H289" s="8">
+        <f t="shared" si="229"/>
+        <v>41691.083482042421</v>
+      </c>
+      <c r="I289">
+        <f t="shared" si="230"/>
+        <v>582.92343257034941</v>
+      </c>
+      <c r="J289">
+        <f t="shared" si="231"/>
+        <v>10731.89657710129</v>
+      </c>
+      <c r="K289">
+        <f t="shared" si="232"/>
+        <v>865.47553041139429</v>
+      </c>
+      <c r="L289">
+        <f t="shared" si="233"/>
+        <v>30.274410530266536</v>
+      </c>
+      <c r="M289" s="4">
+        <f>+LN(B289/B288)</f>
+        <v>-8.5250392026426827E-2</v>
+      </c>
+      <c r="N289" s="4">
+        <f>+LN(C289/C288)</f>
+        <v>8.0972102326193028E-3</v>
+      </c>
+      <c r="O289" s="4">
+        <f>+LN(D289/D288)</f>
+        <v>-2.8287376539749224E-2</v>
+      </c>
+      <c r="P289" s="4">
+        <f>+LN(E289/E288)</f>
+        <v>-4.6475683965468513E-3</v>
+      </c>
+      <c r="Q289" s="4">
+        <f>+_xlfn.STDEV.S(N272:N291)</f>
+        <v>5.3490446815688524E-3</v>
+      </c>
+      <c r="R289" s="4">
+        <f>+_xlfn.STDEV.S(O272:O291)</f>
+        <v>2.8700342995678911E-2</v>
+      </c>
+      <c r="S289" s="4">
+        <f>+_xlfn.STDEV.S(P272:P291)</f>
+        <v>6.3224134363656977E-3</v>
+      </c>
+      <c r="T289" s="4">
+        <f>+_xlfn.STDEV.S(Q272:Q291)</f>
+        <v>8.3915882179033379E-3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A290" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -493,12 +493,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y290"/>
+  <dimension ref="A1:Y292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="D293" sqref="D293"/>
+      <selection pane="bottomLeft" activeCell="B289" sqref="B289:T292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21573,59 +21573,59 @@
         <v>218.32480486081514</v>
       </c>
       <c r="G278" s="2">
-        <f t="shared" ref="G278:G285" si="214">+F278/$U$1</f>
+        <f t="shared" ref="G278:G283" si="214">+F278/$U$1</f>
         <v>2.1832480486081511</v>
       </c>
       <c r="H278" s="8">
-        <f t="shared" ref="H278:H285" si="215">+B278/G278</f>
+        <f t="shared" ref="H278:H283" si="215">+B278/G278</f>
         <v>44629.628805630993</v>
       </c>
       <c r="I278">
-        <f t="shared" ref="I278:I285" si="216">+C278/G278</f>
+        <f t="shared" ref="I278:I283" si="216">+C278/G278</f>
         <v>551.92995627235439</v>
       </c>
       <c r="J278">
-        <f t="shared" ref="J278:J285" si="217">+D278/F278</f>
+        <f t="shared" ref="J278:J283" si="217">+D278/F278</f>
         <v>10953.258387312097</v>
       </c>
       <c r="K278">
-        <f t="shared" ref="K278:K285" si="218">+D278/C278/G278</f>
+        <f t="shared" ref="K278:K283" si="218">+D278/C278/G278</f>
         <v>908.98409853212422</v>
       </c>
       <c r="L278">
-        <f t="shared" ref="L278:L285" si="219">+E278/G278</f>
+        <f t="shared" ref="L278:L283" si="219">+E278/G278</f>
         <v>29.611843712039601</v>
       </c>
       <c r="M278" s="4">
-        <f t="shared" ref="M278:M285" si="220">+LN(B278/B277)</f>
+        <f t="shared" ref="M278:M283" si="220">+LN(B278/B277)</f>
         <v>9.367246272332614E-3</v>
       </c>
       <c r="N278" s="4">
-        <f t="shared" ref="N278:N291" si="221">+LN(C278/C277)</f>
+        <f t="shared" ref="N278:N283" si="221">+LN(C278/C277)</f>
         <v>-8.2645098498934245E-3</v>
       </c>
       <c r="O278" s="4">
-        <f t="shared" ref="O278:O291" si="222">+LN(D278/D277)</f>
+        <f t="shared" ref="O278:O283" si="222">+LN(D278/D277)</f>
         <v>-1.0405793025991133E-2</v>
       </c>
       <c r="P278" s="4">
-        <f t="shared" ref="P278:Q291" si="223">+LN(E278/E277)</f>
+        <f t="shared" ref="P278:P283" si="223">+LN(E278/E277)</f>
         <v>-6.1680997406476611E-3</v>
       </c>
       <c r="Q278" s="4">
-        <f t="shared" ref="Q278:Q285" si="224">+_xlfn.STDEV.S(M259:M278)</f>
+        <f t="shared" ref="Q278:Q283" si="224">+_xlfn.STDEV.S(M259:M278)</f>
         <v>2.3098721320869615E-2</v>
       </c>
       <c r="R278" s="4">
-        <f t="shared" ref="R278:R291" si="225">+_xlfn.STDEV.S(N259:N278)</f>
+        <f t="shared" ref="R278:R283" si="225">+_xlfn.STDEV.S(N259:N278)</f>
         <v>4.8407341033250258E-3</v>
       </c>
       <c r="S278" s="4">
-        <f t="shared" ref="S278:S291" si="226">+_xlfn.STDEV.S(O259:O278)</f>
+        <f t="shared" ref="S278:S283" si="226">+_xlfn.STDEV.S(O259:O278)</f>
         <v>2.7309926762754757E-2</v>
       </c>
       <c r="T278" s="4">
-        <f t="shared" ref="T278:U291" si="227">+_xlfn.STDEV.S(P259:P278)</f>
+        <f t="shared" ref="T278:T283" si="227">+_xlfn.STDEV.S(P259:P278)</f>
         <v>6.5259850258142784E-3</v>
       </c>
     </row>
@@ -22029,27 +22029,27 @@
         <v>212.71310519602542</v>
       </c>
       <c r="G284" s="2">
-        <f t="shared" ref="G284:G289" si="228">+F284/$U$1</f>
+        <f t="shared" ref="G284:G292" si="228">+F284/$U$1</f>
         <v>2.1271310519602542</v>
       </c>
       <c r="H284" s="8">
-        <f t="shared" ref="H284:H289" si="229">+B284/G284</f>
+        <f t="shared" ref="H284:H292" si="229">+B284/G284</f>
         <v>44914.745573365442</v>
       </c>
       <c r="I284">
-        <f t="shared" ref="I284:I289" si="230">+C284/G284</f>
+        <f t="shared" ref="I284:I292" si="230">+C284/G284</f>
         <v>580.59422284390416</v>
       </c>
       <c r="J284">
-        <f t="shared" ref="J284:J289" si="231">+D284/F284</f>
+        <f t="shared" ref="J284:J292" si="231">+D284/F284</f>
         <v>11243.900547622157</v>
       </c>
       <c r="K284">
-        <f t="shared" ref="K284:K289" si="232">+D284/C284/G284</f>
+        <f t="shared" ref="K284:K292" si="232">+D284/C284/G284</f>
         <v>910.43729130543795</v>
       </c>
       <c r="L284">
-        <f t="shared" ref="L284:L289" si="233">+E284/G284</f>
+        <f t="shared" ref="L284:L292" si="233">+E284/G284</f>
         <v>30.614004689550637</v>
       </c>
       <c r="M284" s="4">
@@ -22129,35 +22129,35 @@
         <v>30.392826922403582</v>
       </c>
       <c r="M285" s="4">
-        <f>+LN(B285/B284)</f>
+        <f t="shared" ref="M285:P292" si="242">+LN(B285/B284)</f>
         <v>1.0580678122833191E-2</v>
       </c>
       <c r="N285" s="4">
-        <f>+LN(C285/C284)</f>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
       <c r="O285" s="4">
-        <f>+LN(D285/D284)</f>
+        <f t="shared" si="242"/>
         <v>4.1115747642365653E-3</v>
       </c>
       <c r="P285" s="4">
-        <f>+LN(E285/E284)</f>
+        <f t="shared" si="242"/>
         <v>-7.2436164764183315E-3</v>
       </c>
       <c r="Q285" s="4">
-        <f>+_xlfn.STDEV.S(N268:N287)</f>
+        <f t="shared" ref="Q285:T289" si="243">+_xlfn.STDEV.S(N268:N287)</f>
         <v>5.3495668696416417E-3</v>
       </c>
       <c r="R285" s="4">
-        <f>+_xlfn.STDEV.S(O268:O287)</f>
+        <f t="shared" si="243"/>
         <v>3.1386681250692584E-2</v>
       </c>
       <c r="S285" s="4">
-        <f>+_xlfn.STDEV.S(P268:P287)</f>
+        <f t="shared" si="243"/>
         <v>6.8569963766894155E-3</v>
       </c>
       <c r="T285" s="4">
-        <f>+_xlfn.STDEV.S(Q268:Q287)</f>
+        <f t="shared" si="243"/>
         <v>7.4170306095512062E-3</v>
       </c>
     </row>
@@ -22205,36 +22205,36 @@
         <v>30.486626020249538</v>
       </c>
       <c r="M286" s="4">
-        <f>+LN(B286/B285)</f>
+        <f t="shared" si="242"/>
         <v>1.8248261139728605E-2</v>
       </c>
       <c r="N286" s="4">
-        <f>+LN(C286/C285)</f>
+        <f t="shared" si="242"/>
         <v>-8.1301260832501755E-3</v>
       </c>
       <c r="O286" s="4">
-        <f>+LN(D286/D285)</f>
+        <f t="shared" si="242"/>
         <v>3.5920068547978545E-3</v>
       </c>
       <c r="P286" s="4">
-        <f>+LN(E286/E285)</f>
+        <f t="shared" si="242"/>
         <v>3.0888055445861999E-3</v>
       </c>
       <c r="Q286" s="4">
-        <f>+_xlfn.STDEV.S(N269:N288)</f>
+        <f t="shared" si="243"/>
         <v>5.1410254516159682E-3</v>
       </c>
       <c r="R286" s="4">
-        <f>+_xlfn.STDEV.S(O269:O288)</f>
+        <f t="shared" si="243"/>
         <v>2.942543304128812E-2</v>
       </c>
       <c r="S286" s="4">
-        <f>+_xlfn.STDEV.S(P269:P288)</f>
+        <f t="shared" si="243"/>
         <v>6.8187575851889346E-3</v>
       </c>
       <c r="T286" s="4">
-        <f>+_xlfn.STDEV.S(Q269:Q288)</f>
-        <v>8.0458010848495649E-3</v>
+        <f t="shared" si="243"/>
+        <v>8.0587690791698585E-3</v>
       </c>
     </row>
     <row r="287" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22281,36 +22281,36 @@
         <v>30.39238116586564</v>
       </c>
       <c r="M287" s="4">
-        <f>+LN(B287/B286)</f>
+        <f t="shared" si="242"/>
         <v>-2.2714087618250247E-2</v>
       </c>
       <c r="N287" s="4">
-        <f>+LN(C287/C286)</f>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
       <c r="O287" s="4">
-        <f>+LN(D287/D286)</f>
+        <f t="shared" si="242"/>
         <v>-1.913959676707435E-2</v>
       </c>
       <c r="P287" s="4">
-        <f>+LN(E287/E286)</f>
+        <f t="shared" si="242"/>
         <v>-3.0888055445862563E-3</v>
       </c>
       <c r="Q287" s="4">
-        <f>+_xlfn.STDEV.S(N270:N289)</f>
+        <f t="shared" si="243"/>
         <v>5.4505397321480843E-3</v>
       </c>
       <c r="R287" s="4">
-        <f>+_xlfn.STDEV.S(O270:O289)</f>
-        <v>3.0010113310725697E-2</v>
+        <f t="shared" si="243"/>
+        <v>3.0010108499796115E-2</v>
       </c>
       <c r="S287" s="4">
-        <f>+_xlfn.STDEV.S(P270:P289)</f>
+        <f t="shared" si="243"/>
         <v>6.0827226307411438E-3</v>
       </c>
       <c r="T287" s="4">
-        <f>+_xlfn.STDEV.S(Q270:Q289)</f>
-        <v>8.4629046439959645E-3</v>
+        <f t="shared" si="243"/>
+        <v>7.9525388850578051E-3</v>
       </c>
     </row>
     <row r="288" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22357,36 +22357,36 @@
         <v>30.415663439537909</v>
       </c>
       <c r="M288" s="4">
-        <f>+LN(B288/B287)</f>
+        <f t="shared" si="242"/>
         <v>4.6933374427716298E-3</v>
       </c>
       <c r="N288" s="4">
-        <f>+LN(C288/C287)</f>
+        <f t="shared" si="242"/>
         <v>4.0733253876358688E-3</v>
       </c>
       <c r="O288" s="4">
-        <f>+LN(D288/D287)</f>
+        <f t="shared" si="242"/>
         <v>-6.8454542121415898E-3</v>
       </c>
       <c r="P288" s="4">
-        <f>+LN(E288/E287)</f>
+        <f t="shared" si="242"/>
         <v>7.7309628898845494E-4</v>
       </c>
       <c r="Q288" s="4">
-        <f>+_xlfn.STDEV.S(N271:N290)</f>
-        <v>5.2024665933004957E-3</v>
+        <f t="shared" si="243"/>
+        <v>5.0673238924963141E-3</v>
       </c>
       <c r="R288" s="4">
-        <f>+_xlfn.STDEV.S(O271:O290)</f>
-        <v>2.8631904348873354E-2</v>
+        <f t="shared" si="243"/>
+        <v>2.7872898557780267E-2</v>
       </c>
       <c r="S288" s="4">
-        <f>+_xlfn.STDEV.S(P271:P290)</f>
-        <v>6.1997891910798653E-3</v>
+        <f t="shared" si="243"/>
+        <v>6.043224080213583E-3</v>
       </c>
       <c r="T288" s="4">
-        <f>+_xlfn.STDEV.S(Q271:Q290)</f>
-        <v>8.4311236183597423E-3</v>
+        <f t="shared" si="243"/>
+        <v>7.7975797603658204E-3</v>
       </c>
     </row>
     <row r="289" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22400,7 +22400,7 @@
         <v>1240</v>
       </c>
       <c r="D289">
-        <v>2282898.75</v>
+        <v>2282899</v>
       </c>
       <c r="E289">
         <v>64.400000000000006</v>
@@ -22422,51 +22422,276 @@
       </c>
       <c r="J289">
         <f t="shared" si="231"/>
-        <v>10731.89657710129</v>
+        <v>10731.897752350147</v>
       </c>
       <c r="K289">
         <f t="shared" si="232"/>
-        <v>865.47553041139429</v>
+        <v>865.47562518952793</v>
       </c>
       <c r="L289">
         <f t="shared" si="233"/>
         <v>30.274410530266536</v>
       </c>
       <c r="M289" s="4">
-        <f>+LN(B289/B288)</f>
+        <f t="shared" si="242"/>
         <v>-8.5250392026426827E-2</v>
       </c>
       <c r="N289" s="4">
-        <f>+LN(C289/C288)</f>
+        <f t="shared" si="242"/>
         <v>8.0972102326193028E-3</v>
       </c>
       <c r="O289" s="4">
-        <f>+LN(D289/D288)</f>
-        <v>-2.8287376539749224E-2</v>
+        <f t="shared" si="242"/>
+        <v>-2.8287267029861264E-2</v>
       </c>
       <c r="P289" s="4">
-        <f>+LN(E289/E288)</f>
+        <f t="shared" si="242"/>
         <v>-4.6475683965468513E-3</v>
       </c>
       <c r="Q289" s="4">
-        <f>+_xlfn.STDEV.S(N272:N291)</f>
-        <v>5.3490446815688524E-3</v>
+        <f t="shared" ref="Q289:T292" si="244">+_xlfn.STDEV.S(M270:M289)</f>
+        <v>2.4585527292771463E-2</v>
       </c>
       <c r="R289" s="4">
-        <f>+_xlfn.STDEV.S(O272:O291)</f>
-        <v>2.8700342995678911E-2</v>
+        <f t="shared" si="244"/>
+        <v>5.4505397321480843E-3</v>
       </c>
       <c r="S289" s="4">
-        <f>+_xlfn.STDEV.S(P272:P291)</f>
-        <v>6.3224134363656977E-3</v>
+        <f t="shared" si="244"/>
+        <v>3.0010108499796115E-2</v>
       </c>
       <c r="T289" s="4">
-        <f>+_xlfn.STDEV.S(Q272:Q291)</f>
-        <v>8.3915882179033379E-3</v>
-      </c>
-    </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A290" s="7"/>
+        <f t="shared" si="244"/>
+        <v>6.0827226307411438E-3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="7">
+        <v>45714</v>
+      </c>
+      <c r="B290">
+        <v>88736.17</v>
+      </c>
+      <c r="C290">
+        <v>1240</v>
+      </c>
+      <c r="D290">
+        <v>2275037</v>
+      </c>
+      <c r="E290">
+        <v>64.38</v>
+      </c>
+      <c r="F290">
+        <v>212.72246474381882</v>
+      </c>
+      <c r="G290" s="2">
+        <f t="shared" si="228"/>
+        <v>2.1272246474381884</v>
+      </c>
+      <c r="H290" s="8">
+        <f t="shared" si="229"/>
+        <v>41714.52700440678</v>
+      </c>
+      <c r="I290">
+        <f t="shared" si="230"/>
+        <v>582.91915783005288</v>
+      </c>
+      <c r="J290">
+        <f t="shared" si="231"/>
+        <v>10694.860097356534</v>
+      </c>
+      <c r="K290">
+        <f t="shared" si="232"/>
+        <v>862.48871752875266</v>
+      </c>
+      <c r="L290">
+        <f t="shared" si="233"/>
+        <v>30.264786597660326</v>
+      </c>
+      <c r="M290" s="4">
+        <f t="shared" si="242"/>
+        <v>5.6949028440107926E-4</v>
+      </c>
+      <c r="N290" s="4">
+        <f t="shared" si="242"/>
+        <v>0</v>
+      </c>
+      <c r="O290" s="4">
+        <f t="shared" si="242"/>
+        <v>-3.4498105270733279E-3</v>
+      </c>
+      <c r="P290" s="4">
+        <f t="shared" si="242"/>
+        <v>-3.1060723964599913E-4</v>
+      </c>
+      <c r="Q290" s="4">
+        <f t="shared" si="244"/>
+        <v>2.3646391042403681E-2</v>
+      </c>
+      <c r="R290" s="4">
+        <f t="shared" si="244"/>
+        <v>5.0673238924963141E-3</v>
+      </c>
+      <c r="S290" s="4">
+        <f t="shared" si="244"/>
+        <v>2.7872898557780267E-2</v>
+      </c>
+      <c r="T290" s="4">
+        <f t="shared" si="244"/>
+        <v>6.043224080213583E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="7">
+        <v>45715</v>
+      </c>
+      <c r="B291">
+        <v>84347.02</v>
+      </c>
+      <c r="C291">
+        <v>1230</v>
+      </c>
+      <c r="D291">
+        <v>2193657</v>
+      </c>
+      <c r="E291">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="F291">
+        <v>212.72402470848937</v>
+      </c>
+      <c r="G291" s="2">
+        <f t="shared" si="228"/>
+        <v>2.1272402470848935</v>
+      </c>
+      <c r="H291" s="8">
+        <f t="shared" si="229"/>
+        <v>39650.913955575372</v>
+      </c>
+      <c r="I291">
+        <f t="shared" si="230"/>
+        <v>578.21395664432134</v>
+      </c>
+      <c r="J291">
+        <f t="shared" si="231"/>
+        <v>10312.220272280585</v>
+      </c>
+      <c r="K291">
+        <f t="shared" si="232"/>
+        <v>838.39189205533216</v>
+      </c>
+      <c r="L291">
+        <f t="shared" si="233"/>
+        <v>30.13293871617967</v>
+      </c>
+      <c r="M291" s="4">
+        <f t="shared" si="242"/>
+        <v>-5.0728105845172386E-2</v>
+      </c>
+      <c r="N291" s="4">
+        <f t="shared" si="242"/>
+        <v>-8.0972102326193618E-3</v>
+      </c>
+      <c r="O291" s="4">
+        <f t="shared" si="242"/>
+        <v>-3.6426301835894168E-2</v>
+      </c>
+      <c r="P291" s="4">
+        <f t="shared" si="242"/>
+        <v>-4.3586619440377462E-3</v>
+      </c>
+      <c r="Q291" s="4">
+        <f t="shared" si="244"/>
+        <v>2.5100129425861633E-2</v>
+      </c>
+      <c r="R291" s="4">
+        <f t="shared" si="244"/>
+        <v>5.4450881567971541E-3</v>
+      </c>
+      <c r="S291" s="4">
+        <f t="shared" si="244"/>
+        <v>2.7945738267149772E-2</v>
+      </c>
+      <c r="T291" s="4">
+        <f t="shared" si="244"/>
+        <v>6.0174676287807803E-3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A292" s="7">
+        <v>45716</v>
+      </c>
+      <c r="B292">
+        <v>84373.01</v>
+      </c>
+      <c r="C292">
+        <v>1225</v>
+      </c>
+      <c r="D292">
+        <v>2205801</v>
+      </c>
+      <c r="E292">
+        <v>63.9</v>
+      </c>
+      <c r="F292">
+        <v>212.72558468459965</v>
+      </c>
+      <c r="G292" s="2">
+        <f t="shared" si="228"/>
+        <v>2.1272558468459963</v>
+      </c>
+      <c r="H292" s="8">
+        <f t="shared" si="229"/>
+        <v>39662.840802669198</v>
+      </c>
+      <c r="I292">
+        <f t="shared" si="230"/>
+        <v>575.85927043813854</v>
+      </c>
+      <c r="J292">
+        <f t="shared" si="231"/>
+        <v>10369.232282381357</v>
+      </c>
+      <c r="K292">
+        <f t="shared" si="232"/>
+        <v>846.46794141888643</v>
+      </c>
+      <c r="L292">
+        <f t="shared" si="233"/>
+        <v>30.038699902854734</v>
+      </c>
+      <c r="M292" s="4">
+        <f t="shared" si="242"/>
+        <v>3.0808434784601547E-4</v>
+      </c>
+      <c r="N292" s="4">
+        <f t="shared" si="242"/>
+        <v>-4.0733253876357864E-3</v>
+      </c>
+      <c r="O292" s="4">
+        <f t="shared" si="242"/>
+        <v>5.5206940690349978E-3</v>
+      </c>
+      <c r="P292" s="4">
+        <f t="shared" si="242"/>
+        <v>-3.1250025431351662E-3</v>
+      </c>
+      <c r="Q292" s="4">
+        <f t="shared" si="244"/>
+        <v>2.5059952649431536E-2</v>
+      </c>
+      <c r="R292" s="4">
+        <f t="shared" si="244"/>
+        <v>5.5365687571284445E-3</v>
+      </c>
+      <c r="S292" s="4">
+        <f t="shared" si="244"/>
+        <v>2.8090142190092104E-2</v>
+      </c>
+      <c r="T292" s="4">
+        <f t="shared" si="244"/>
+        <v>6.0069578250015864E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -90,12 +90,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="9">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="175" formatCode="0.000000%"/>
+    <numFmt numFmtId="185" formatCode="_-* #,##0.000000000_-;\-* #,##0.000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -177,11 +181,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -212,8 +217,14 @@
     </xf>
     <xf numFmtId="168" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -493,19 +504,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y292"/>
+  <dimension ref="A1:Y308"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="B289" sqref="B289:T292"/>
+      <selection pane="bottomLeft" activeCell="AL290" sqref="AL290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -582,16 +593,16 @@
       <c r="A2" s="7">
         <v>45293</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="22">
         <v>44168.681186875001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="22">
         <v>1005</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="22">
         <v>930419.6875</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="22">
         <v>32.348148148148148</v>
       </c>
       <c r="F2" s="6">
@@ -650,16 +661,16 @@
       <c r="A3" s="7">
         <v>45294</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="22">
         <v>44994.673886892</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="22">
         <v>1005</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="22">
         <v>972411.6875</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="22">
         <v>32.137962962962966</v>
       </c>
       <c r="F3" s="6">
@@ -727,16 +738,16 @@
       <c r="A4" s="7">
         <v>45295</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="22">
         <v>42821.558989158002</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="22">
         <v>1020</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="22">
         <v>1004789.75</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="22">
         <v>31.886111111111106</v>
       </c>
       <c r="F4" s="6">
@@ -803,16 +814,16 @@
       <c r="A5" s="7">
         <v>45296</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="22">
         <v>44195.578562100003</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="22">
         <v>1025</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="22">
         <v>1055381.125</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="22">
         <v>31.686111111111106</v>
       </c>
       <c r="F5" s="6">
@@ -879,16 +890,16 @@
       <c r="A6" s="7">
         <v>45299</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="22">
         <v>44113.699733891001</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="22">
         <v>1050</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="22">
         <v>1104913.25</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="22">
         <v>30.92962962962963</v>
       </c>
       <c r="F6" s="6">
@@ -955,16 +966,16 @@
       <c r="A7" s="7">
         <v>45300</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="22">
         <v>46936.185561218001</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="22">
         <v>1120</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="22">
         <v>1060581.125</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="22">
         <v>30.164814814814815</v>
       </c>
       <c r="F7" s="6">
@@ -1031,16 +1042,16 @@
       <c r="A8" s="7">
         <v>45301</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="22">
         <v>46105.946078287001</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="22">
         <v>1150</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="22">
         <v>1070425.25</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="22">
         <v>31.524074074074072</v>
       </c>
       <c r="F8" s="6">
@@ -1107,16 +1118,16 @@
       <c r="A9" s="7">
         <v>45302</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="22">
         <v>46632.313148050001</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="22">
         <v>1120</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="22">
         <v>1043924</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="22">
         <v>32.06759259259259</v>
       </c>
       <c r="F9" s="6">
@@ -1183,16 +1194,16 @@
       <c r="A10" s="7">
         <v>45303</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="22">
         <v>46314.355541602999</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="22">
         <v>1120</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="22">
         <v>1043924</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="22">
         <v>31.95</v>
       </c>
       <c r="F10" s="6">
@@ -1259,16 +1270,16 @@
       <c r="A11" s="7">
         <v>45306</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="22">
         <v>41800.932821934002</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="22">
         <v>1130</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="22">
         <v>1057769.5</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="22">
         <v>32.11944444444444</v>
       </c>
       <c r="F11" s="6">
@@ -1335,16 +1346,16 @@
       <c r="A12" s="7">
         <v>45307</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="22">
         <v>42587.336038353998</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="22">
         <v>1180</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="22">
         <v>1057769.5</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="22">
         <v>31.778703703703698</v>
       </c>
       <c r="F12" s="6">
@@ -1411,16 +1422,16 @@
       <c r="A13" s="7">
         <v>45308</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="22">
         <v>43148.001643427</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="22">
         <v>1225</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="22">
         <v>1124212.375</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="22">
         <v>31.762962962962963</v>
       </c>
       <c r="F13" s="6">
@@ -1487,16 +1498,16 @@
       <c r="A14" s="7">
         <v>45309</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="22">
         <v>42713.859186939</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="22">
         <v>1240</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="22">
         <v>1133637.75</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="22">
         <v>32.033333333333331</v>
       </c>
       <c r="F14" s="6">
@@ -1563,16 +1574,16 @@
       <c r="A15" s="7">
         <v>45310</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="22">
         <v>41261.394798009998</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="22">
         <v>1220</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="22">
         <v>1174875.375</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="22">
         <v>31.778703703703698</v>
       </c>
       <c r="F15" s="6">
@@ -1639,16 +1650,16 @@
       <c r="A16" s="7">
         <v>45313</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="22">
         <v>41541.899457063002</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="22">
         <v>1220</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="22">
         <v>1219959.75</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="22">
         <v>33.181481481481477</v>
       </c>
       <c r="F16" s="6">
@@ -1715,16 +1726,16 @@
       <c r="A17" s="7">
         <v>45314</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="22">
         <v>39504.730057583998</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="22">
         <v>1235</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="22">
         <v>1206468.5</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="22">
         <v>33.309259259259257</v>
       </c>
       <c r="F17" s="6">
@@ -1791,16 +1802,16 @@
       <c r="A18" s="7">
         <v>45315</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="22">
         <v>39833.454105017001</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="22">
         <v>1255</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="22">
         <v>1251659.75</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="22">
         <v>33.648148148148152</v>
       </c>
       <c r="F18" s="6">
@@ -1867,16 +1878,16 @@
       <c r="A19" s="7">
         <v>45316</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="22">
         <v>40123.671058471002</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="22">
         <v>1255</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="22">
         <v>1284939.375</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="22">
         <v>34.412962962962958</v>
       </c>
       <c r="F19" s="6">
@@ -1943,16 +1954,16 @@
       <c r="A20" s="7">
         <v>45317</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="22">
         <v>39938.286441559001</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="22">
         <v>1220</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="22">
         <v>1253619.625</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="22">
         <v>34.030555555555551</v>
       </c>
       <c r="F20" s="6">
@@ -2019,16 +2030,16 @@
       <c r="A21" s="7">
         <v>45320</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="22">
         <v>42026.578562321003</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="22">
         <v>1225</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="22">
         <v>1253608</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="22">
         <v>33.98796296296296</v>
       </c>
       <c r="F21" s="6">
@@ -2095,16 +2106,16 @@
       <c r="A22" s="7">
         <v>45321</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="22">
         <v>43267.609276388001</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="22">
         <v>1215</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="22">
         <v>1267133.625</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="22">
         <v>33.572222222222223</v>
       </c>
       <c r="F22" s="6">
@@ -2171,16 +2182,16 @@
       <c r="A23" s="9">
         <v>45322</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="23">
         <v>42892.034530144003</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="23">
         <v>1195</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="23">
         <v>1260562.625</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="23">
         <v>33.648148148148152</v>
       </c>
       <c r="F23" s="10">
@@ -2247,16 +2258,16 @@
       <c r="A24" s="7">
         <v>45323</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="22">
         <v>42583.263546634</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="22">
         <v>1195</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="22">
         <v>1302467.125</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="22">
         <v>33.690740740740743</v>
       </c>
       <c r="F24" s="6">
@@ -2323,16 +2334,16 @@
       <c r="A25" s="7">
         <v>45324</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="22">
         <v>43069.043420937</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="22">
         <v>1175</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="22">
         <v>1316204.5</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="22">
         <v>33.87777777777778</v>
       </c>
       <c r="F25" s="6">
@@ -2399,16 +2410,16 @@
       <c r="A26" s="7">
         <v>45327</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="22">
         <v>42599.359970559999</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="22">
         <v>1160</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="22">
         <v>1246748</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="22">
         <v>35.262962962962966</v>
       </c>
       <c r="F26" s="6">
@@ -2475,16 +2486,16 @@
       <c r="A27" s="7">
         <v>45328</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="22">
         <v>42648.456921135003</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="22">
         <v>1145</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="22">
         <v>1216639</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="22">
         <v>36.197222222222223</v>
       </c>
       <c r="F27" s="6">
@@ -2551,16 +2562,16 @@
       <c r="A28" s="7">
         <v>45329</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="22">
         <v>43087.787408142998</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="22">
         <v>1179</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="22">
         <v>1154805</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="22">
         <v>34.583333333333336</v>
       </c>
       <c r="F28" s="6">
@@ -2627,16 +2638,16 @@
       <c r="A29" s="7">
         <v>45330</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="22">
         <v>44247.415415479001</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="22">
         <v>1145</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="22">
         <v>1117908</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="22">
         <v>34.583333333333336</v>
       </c>
       <c r="F29" s="6">
@@ -2703,16 +2714,16 @@
       <c r="A30" s="7">
         <v>45331</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="22">
         <v>45338.271189788997</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="22">
         <v>1145</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="22">
         <v>1149260</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="22">
         <v>34.668518518518518</v>
       </c>
       <c r="F30" s="6">
@@ -2779,16 +2790,16 @@
       <c r="A31" s="7">
         <v>45336</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="22">
         <v>49732.145369553997</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="22">
         <v>1105</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="22">
         <v>1105579.625</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="22">
         <v>36.282407407407405</v>
       </c>
       <c r="F31" s="6">
@@ -2855,16 +2866,16 @@
       <c r="A32" s="7">
         <v>45337</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="22">
         <v>51790.169297526001</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="22">
         <v>1075</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="22">
         <v>1093751.625</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="22">
         <v>37.669444444444444</v>
       </c>
       <c r="F32" s="6">
@@ -2931,16 +2942,16 @@
       <c r="A33" s="7">
         <v>45338</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="22">
         <v>51958.230291054999</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="22">
         <v>1095</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="22">
         <v>1065368.625</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="22">
         <v>38.330555555555549</v>
       </c>
       <c r="F33" s="6">
@@ -3007,16 +3018,16 @@
       <c r="A34" s="7">
         <v>45341</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="22">
         <v>52138.485788737002</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="22">
         <v>1110</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="22">
         <v>1072261</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="22">
         <v>38.772222222222219</v>
       </c>
       <c r="F34" s="6">
@@ -3083,16 +3094,16 @@
       <c r="A35" s="7">
         <v>45342</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="22">
         <v>51764.313185487998</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="22">
         <v>1115</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="22">
         <v>1059715.5</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="22">
         <v>38.109259259259261</v>
       </c>
       <c r="F35" s="6">
@@ -3159,16 +3170,16 @@
       <c r="A36" s="7">
         <v>45343</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="22">
         <v>52286.793725547002</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="22">
         <v>1115</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="22">
         <v>1039511.75</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="22">
         <v>37.352777777777774</v>
       </c>
       <c r="F36" s="6">
@@ -3235,16 +3246,16 @@
       <c r="A37" s="7">
         <v>45344</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="22">
         <v>51842.756766256003</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="22">
         <v>1085</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="22">
         <v>1076030</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="22">
         <v>38.924999999999997</v>
       </c>
       <c r="F37" s="6">
@@ -3311,16 +3322,16 @@
       <c r="A38" s="7">
         <v>45345</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="22">
         <v>51319.500125703002</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="22">
         <v>1085</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="22">
         <v>1105610.25</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="22">
         <v>38.228703703703701</v>
       </c>
       <c r="F38" s="6">
@@ -3387,16 +3398,16 @@
       <c r="A39" s="7">
         <v>45348</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="22">
         <v>51751.884054934999</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="22">
         <v>1080</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="22">
         <v>1080444.25</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="22">
         <v>38.066666666666663</v>
       </c>
       <c r="F39" s="6">
@@ -3463,16 +3474,16 @@
       <c r="A40" s="7">
         <v>45349</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="22">
         <v>54478.191083122998</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="22">
         <v>1070</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="22">
         <v>1034335</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="22">
         <v>36.962037037037035</v>
       </c>
       <c r="F40" s="6">
@@ -3539,16 +3550,16 @@
       <c r="A41" s="7">
         <v>45350</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="22">
         <v>57003.526737307999</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="22">
         <v>1045</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="22">
         <v>1009206.0625</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="22">
         <v>38.066666666666663</v>
       </c>
       <c r="F41" s="6">
@@ -3615,16 +3626,16 @@
       <c r="A42" s="9">
         <v>45351</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="23">
         <v>62558.582024192998</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="23">
         <v>1045</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="23">
         <v>1014711.9375</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="23">
         <v>38.874074074074073</v>
       </c>
       <c r="F42" s="10">
@@ -3691,16 +3702,16 @@
       <c r="A43" s="7">
         <v>45352</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="22">
         <v>61298.216861102002</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="22">
         <v>1030</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="22">
         <v>1054959</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="22">
         <v>39.425925925925924</v>
       </c>
       <c r="F43" s="6">
@@ -3767,16 +3778,16 @@
       <c r="A44" s="7">
         <v>45355</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="22">
         <v>63053.105439063998</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="22">
         <v>1050</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="22">
         <v>1056409</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="22">
         <v>40.275925925925918</v>
       </c>
       <c r="F44" s="6">
@@ -3843,16 +3854,16 @@
       <c r="A45" s="7">
         <v>45356</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="22">
         <v>68186.645934322005</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="22">
         <v>1015</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="22">
         <v>1006243</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="22">
         <v>39.638888888888886</v>
       </c>
       <c r="F45" s="6">
@@ -3919,16 +3930,16 @@
       <c r="A46" s="7">
         <v>45357</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="22">
         <v>64291.536557569001</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="22">
         <v>1010</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="22">
         <v>1015306</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="22">
         <v>40.700925925925922</v>
       </c>
       <c r="F46" s="6">
@@ -3995,16 +4006,16 @@
       <c r="A47" s="7">
         <v>45358</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="22">
         <v>66145.919278507994</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="22">
         <v>990</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="22">
         <v>989652</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="22">
         <v>40.318518518518516</v>
       </c>
       <c r="F47" s="6">
@@ -4071,16 +4082,16 @@
       <c r="A48" s="7">
         <v>45359</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="22">
         <v>66944.876390535996</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="22">
         <v>985</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="22">
         <v>992396</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="22">
         <v>39.722222222222221</v>
       </c>
       <c r="F48" s="6">
@@ -4147,16 +4158,16 @@
       <c r="A49" s="7">
         <v>45362</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="22">
         <v>69075.666881957004</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="22">
         <v>990</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="22">
         <v>964560</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="22">
         <v>39.809259259259257</v>
       </c>
       <c r="F49" s="6">
@@ -4223,16 +4234,16 @@
       <c r="A50" s="7">
         <v>45363</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="22">
         <v>72130.553007656999</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="22">
         <v>1020</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="22">
         <v>1039421</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="22">
         <v>40.49722222222222</v>
       </c>
       <c r="F50" s="6">
@@ -4299,16 +4310,16 @@
       <c r="A51" s="7">
         <v>45364</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="22">
         <v>71467.173503261001</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="22">
         <v>1030</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="22">
         <v>1051849</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="22">
         <v>41.456481481481482</v>
       </c>
       <c r="F51" s="6">
@@ -4375,16 +4386,16 @@
       <c r="A52" s="7">
         <v>45365</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="22">
         <v>73097.767026941001</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="22">
         <v>1035</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="22">
         <v>1037722</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="22">
         <v>40.616666666666667</v>
       </c>
       <c r="F52" s="6">
@@ -4451,16 +4462,16 @@
       <c r="A53" s="7">
         <v>45366</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="22">
         <v>71420.031801423</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="22">
         <v>1020</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="22">
         <v>1062473</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="22">
         <v>41.211111111111109</v>
       </c>
       <c r="F53" s="6">
@@ -4527,16 +4538,16 @@
       <c r="A54" s="7">
         <v>45369</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="22">
         <v>68425.415656430996</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="22">
         <v>1025</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="22">
         <v>1124137</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="22">
         <v>42.15</v>
       </c>
       <c r="F54" s="6">
@@ -4603,16 +4614,16 @@
       <c r="A55" s="7">
         <v>45370</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="22">
         <v>67708.943609308</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="22">
         <v>1035</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="22">
         <v>1129937</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="22">
         <v>42.8</v>
       </c>
       <c r="F55" s="6">
@@ -4679,16 +4690,16 @@
       <c r="A56" s="7">
         <v>45371</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="22">
         <v>62132.517378734003</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="22">
         <v>1030</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="22">
         <v>1185177</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="22">
         <v>44.261111111111106</v>
       </c>
       <c r="F56" s="6">
@@ -4755,16 +4766,16 @@
       <c r="A57" s="7">
         <v>45372</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="22">
         <v>67819.055706839994</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="22">
         <v>1030</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="22">
         <v>1225494</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="22">
         <v>44.541666666666664</v>
       </c>
       <c r="F57" s="6">
@@ -4831,16 +4842,16 @@
       <c r="A58" s="7">
         <v>45373</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="22">
         <v>65535.978448476999</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="22">
         <v>1020</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="22">
         <v>1227404</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="22">
         <v>45.349074074074068</v>
       </c>
       <c r="F58" s="6">
@@ -4907,16 +4918,16 @@
       <c r="A59" s="7">
         <v>45376</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="22">
         <v>63509.044965230998</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="22">
         <v>1020</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="22">
         <v>1212897</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="22">
         <v>45.969444444444441</v>
       </c>
       <c r="F59" s="6">
@@ -4983,16 +4994,16 @@
       <c r="A60" s="7">
         <v>45377</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="22">
         <v>69938.945302002001</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="22">
         <v>1015</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="22">
         <v>1214656</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="22">
         <v>45.79907407407407</v>
       </c>
       <c r="F60" s="6">
@@ -5059,16 +5070,16 @@
       <c r="A61" s="9">
         <v>45378</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="23">
         <v>70082.051224759998</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="23">
         <v>1010</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="23">
         <v>1213485</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="23">
         <v>45.951851851851849</v>
       </c>
       <c r="F61" s="10">
@@ -5135,16 +5146,16 @@
       <c r="A62" s="7">
         <v>45385</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="22">
         <v>65440.419225872</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="22">
         <v>1005</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="22">
         <v>1212639</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="22">
         <v>47.583333333333329</v>
       </c>
       <c r="F62" s="6">
@@ -5211,16 +5222,16 @@
       <c r="A63" s="7">
         <v>45386</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="22">
         <v>66123.938539074006</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="22">
         <v>1000</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="22">
         <v>1183127.25</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="22">
         <v>47.583333333333329</v>
       </c>
       <c r="F63" s="6">
@@ -5287,16 +5298,16 @@
       <c r="A64" s="7">
         <v>45387</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="22">
         <v>68542.177152795004</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="22">
         <v>985</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="22">
         <v>1214371.125</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="22">
         <v>48.348148148148148</v>
       </c>
       <c r="F64" s="6">
@@ -5363,16 +5374,16 @@
       <c r="A65" s="7">
         <v>45390</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="22">
         <v>69401.973609110006</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="22">
         <v>985</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="22">
         <v>1229638.125</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="22">
         <v>49.87777777777778</v>
       </c>
       <c r="F65" s="6">
@@ -5439,16 +5450,16 @@
       <c r="A66" s="7">
         <v>45391</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="22">
         <v>71624.184862370006</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="22">
         <v>990</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="22">
         <v>1253210.125</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="22">
         <v>49.002777777777773</v>
       </c>
       <c r="F66" s="6">
@@ -5515,16 +5526,16 @@
       <c r="A67" s="7">
         <v>45392</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="22">
         <v>69158.643812077004</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="22">
         <v>1000</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="22">
         <v>1233950.125</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="22">
         <v>47.074074074074076</v>
       </c>
       <c r="F67" s="6">
@@ -5591,16 +5602,16 @@
       <c r="A68" s="7">
         <v>45393</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="22">
         <v>70527.889975790007</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="22">
         <v>995</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="22">
         <v>1259303.375</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="22">
         <v>47.975000000000001</v>
       </c>
       <c r="F68" s="6">
@@ -5667,16 +5678,16 @@
       <c r="A69" s="7">
         <v>45394</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="22">
         <v>70106.664130709003</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="22">
         <v>1005</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="22">
         <v>1244523.75</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="22">
         <v>46.574999999999996</v>
       </c>
       <c r="F69" s="6">
@@ -5743,16 +5754,16 @@
       <c r="A70" s="7">
         <v>45397</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="22">
         <v>65752.660047288999</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="22">
         <v>1005</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="22">
         <v>1241602.75</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="22">
         <v>46.138888888888886</v>
       </c>
       <c r="F70" s="6">
@@ -5819,16 +5830,16 @@
       <c r="A71" s="7">
         <v>45398</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="22">
         <v>63430.571457368002</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="22">
         <v>1040</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="22">
         <v>1203237.75</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="22">
         <v>45.672222222222217</v>
       </c>
       <c r="F71" s="6">
@@ -5895,16 +5906,16 @@
       <c r="A72" s="7">
         <v>45399</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="22">
         <v>63720.501587480998</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="22">
         <v>1035</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="22">
         <v>1172353.25</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="22">
         <v>48.178703703703704</v>
       </c>
       <c r="F72" s="6">
@@ -5971,16 +5982,16 @@
       <c r="A73" s="7">
         <v>45400</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="22">
         <v>61328.897988607001</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="22">
         <v>1030</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="22">
         <v>1172829.5</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="22">
         <v>49.24074074074074</v>
       </c>
       <c r="F73" s="6">
@@ -6047,16 +6058,16 @@
       <c r="A74" s="7">
         <v>45401</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="22">
         <v>63461.592695107</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="22">
         <v>1015</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="22">
         <v>1189209.875</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="22">
         <v>48.781481481481478</v>
       </c>
       <c r="F74" s="6">
@@ -6123,16 +6134,16 @@
       <c r="A75" s="7">
         <v>45404</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="22">
         <v>64936.420756774001</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="22">
         <v>1025</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="22">
         <v>1268375.75</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="22">
         <v>51.06759259259259</v>
       </c>
       <c r="F75" s="6">
@@ -6199,16 +6210,16 @@
       <c r="A76" s="7">
         <v>45405</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="22">
         <v>66841.666852074006</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="22">
         <v>1030</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="22">
         <v>1245751</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="22">
         <v>50.63425925925926</v>
       </c>
       <c r="F76" s="6">
@@ -6275,16 +6286,16 @@
       <c r="A77" s="7">
         <v>45406</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="22">
         <v>66406.952443927003</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="22">
         <v>1035</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="22">
         <v>1202669</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="22">
         <v>49.206481481481482</v>
       </c>
       <c r="F77" s="6">
@@ -6351,16 +6362,16 @@
       <c r="A78" s="7">
         <v>45407</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="22">
         <v>64279.518128575</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="22">
         <v>1045</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="22">
         <v>1245143.75</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="22">
         <v>48.892592592592592</v>
       </c>
       <c r="F78" s="6">
@@ -6427,16 +6438,16 @@
       <c r="A79" s="7">
         <v>45408</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="22">
         <v>64486.183359158997</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="22">
         <v>1055</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="22">
         <v>1251724.875</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="22">
         <v>49.42777777777777</v>
       </c>
       <c r="F79" s="6">
@@ -6503,16 +6514,16 @@
       <c r="A80" s="7">
         <v>45411</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="22">
         <v>63030.433616681999</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="22">
         <v>1045</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="22">
         <v>1308068.75</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="22">
         <v>50.166666666666664</v>
       </c>
       <c r="F80" s="6">
@@ -6579,16 +6590,16 @@
       <c r="A81" s="9">
         <v>45412</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="23">
         <v>63797.6796359</v>
       </c>
-      <c r="C81" s="11">
+      <c r="C81" s="23">
         <v>1040</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D81" s="23">
         <v>1323585.875</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E81" s="23">
         <v>49.87777777777778</v>
       </c>
       <c r="F81" s="10">
@@ -6655,16 +6666,16 @@
       <c r="A82" s="7">
         <v>45414</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="22">
         <v>58297.574075324999</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="22">
         <v>1040</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="22">
         <v>1369674</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="22">
         <v>49.750925925925927</v>
       </c>
       <c r="F82" s="6">
@@ -6731,16 +6742,16 @@
       <c r="A83" s="7">
         <v>45415</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="22">
         <v>59135.173360772998</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="22">
         <v>1035</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="22">
         <v>1452001.75</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="22">
         <v>49.478703703703701</v>
       </c>
       <c r="F83" s="6">
@@ -6807,16 +6818,16 @@
       <c r="A84" s="7">
         <v>45418</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="22">
         <v>64010.008652108998</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="22">
         <v>1045</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="22">
         <v>1495826.625</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="22">
         <v>50.345370370370368</v>
       </c>
       <c r="F84" s="6">
@@ -6883,16 +6894,16 @@
       <c r="A85" s="7">
         <v>45419</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="22">
         <v>63172.481295512996</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="22">
         <v>1040</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="22">
         <v>1463623.75</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="22">
         <v>50.463888888888881</v>
       </c>
       <c r="F85" s="6">
@@ -6959,16 +6970,16 @@
       <c r="A86" s="7">
         <v>45420</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="22">
         <v>62363.057191719003</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="22">
         <v>1040</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="22">
         <v>1450498.75</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="22">
         <v>49.971296296296295</v>
       </c>
       <c r="F86" s="6">
@@ -7035,16 +7046,16 @@
       <c r="A87" s="7">
         <v>45421</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="22">
         <v>61215.504008791999</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="22">
         <v>1045</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="22">
         <v>1434922</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="22">
         <v>49.478703703703701</v>
       </c>
       <c r="F87" s="6">
@@ -7111,16 +7122,16 @@
       <c r="A88" s="7">
         <v>45422</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="22">
         <v>63148.599943096997</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="22">
         <v>1040</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="22">
         <v>1407510.5</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="22">
         <v>49.452777777777776</v>
       </c>
       <c r="F88" s="6">
@@ -7187,16 +7198,16 @@
       <c r="A89" s="7">
         <v>45425</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="22">
         <v>61507.054004120997</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="22">
         <v>1045</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="22">
         <v>1376939.25</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="22">
         <v>50.412962962962958</v>
       </c>
       <c r="F89" s="6">
@@ -7263,16 +7274,16 @@
       <c r="A90" s="7">
         <v>45426</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90" s="22">
         <v>62878.783300729003</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="22">
         <v>1060</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="22">
         <v>1409885.5</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90" s="22">
         <v>50.387962962962959</v>
       </c>
       <c r="F90" s="6">
@@ -7339,16 +7350,16 @@
       <c r="A91" s="7">
         <v>45427</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="22">
         <v>61569.113005772997</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="22">
         <v>1080</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="22">
         <v>1477795.875</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="22">
         <v>50.982407407407401</v>
       </c>
       <c r="F91" s="6">
@@ -7415,16 +7426,16 @@
       <c r="A92" s="7">
         <v>45428</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="22">
         <v>66220.518314328001</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="22">
         <v>1100</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="22">
         <v>1481343.25</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92" s="22">
         <v>50.235185185185181</v>
       </c>
       <c r="F92" s="6">
@@ -7491,16 +7502,16 @@
       <c r="A93" s="7">
         <v>45429</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="22">
         <v>65260.879803345997</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="22">
         <v>1105</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="22">
         <v>1473463.25</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="22">
         <v>49.699074074074069</v>
       </c>
       <c r="F93" s="6">
@@ -7567,16 +7578,16 @@
       <c r="A94" s="7">
         <v>45432</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="22">
         <v>66252.712595916004</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="22">
         <v>1180</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="22">
         <v>1533511.5</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94" s="22">
         <v>50.158333333333331</v>
       </c>
       <c r="F94" s="6">
@@ -7643,16 +7654,16 @@
       <c r="A95" s="7">
         <v>45433</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="22">
         <v>71430.297002150997</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="22">
         <v>1230</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="22">
         <v>1581107.125</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="22">
         <v>49.401851851851845</v>
       </c>
       <c r="F95" s="6">
@@ -7719,16 +7730,16 @@
       <c r="A96" s="7">
         <v>45434</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="22">
         <v>70189.835817700005</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="22">
         <v>1275</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="22">
         <v>1562849.375</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="22">
         <v>47.422222222222217</v>
       </c>
       <c r="F96" s="6">
@@ -7795,16 +7806,16 @@
       <c r="A97" s="7">
         <v>45435</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="22">
         <v>69181.200856777999</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="22">
         <v>1280</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="22">
         <v>1513777.375</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="22">
         <v>46.437037037037037</v>
       </c>
       <c r="F97" s="6">
@@ -7871,16 +7882,16 @@
       <c r="A98" s="7">
         <v>45436</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B98" s="22">
         <v>67906.465342761003</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="22">
         <v>1240</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="22">
         <v>1520808.875</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="22">
         <v>46.258333333333333</v>
       </c>
       <c r="F98" s="6">
@@ -7947,16 +7958,16 @@
       <c r="A99" s="7">
         <v>45439</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="22">
         <v>68508.831108757004</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="22">
         <v>1210</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="22">
         <v>1575402.125</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="22">
         <v>46.734259259259254</v>
       </c>
       <c r="F99" s="6">
@@ -8023,16 +8034,16 @@
       <c r="A100" s="7">
         <v>45440</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="22">
         <v>69367.238717557004</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="22">
         <v>1210</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="22">
         <v>1575417.125</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="22">
         <v>47.456481481481475</v>
       </c>
       <c r="F100" s="6">
@@ -8099,16 +8110,16 @@
       <c r="A101" s="7">
         <v>45441</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101" s="22">
         <v>68316.635880496004</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="22">
         <v>1220</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="22">
         <v>1567731.5</v>
       </c>
-      <c r="E101" s="6">
+      <c r="E101" s="22">
         <v>48.254629629629626</v>
       </c>
       <c r="F101" s="6">
@@ -8175,16 +8186,16 @@
       <c r="A102" s="7">
         <v>45442</v>
       </c>
-      <c r="B102" s="6">
+      <c r="B102" s="22">
         <v>67577.265589960007</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="22">
         <v>1230</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="22">
         <v>1643010.625</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E102" s="22">
         <v>49.155555555555551</v>
       </c>
       <c r="F102" s="6">
@@ -8251,16 +8262,16 @@
       <c r="A103" s="9">
         <v>45443</v>
       </c>
-      <c r="B103" s="10">
+      <c r="B103" s="23">
         <v>68372.492884341002</v>
       </c>
-      <c r="C103" s="11">
+      <c r="C103" s="23">
         <v>1225</v>
       </c>
-      <c r="D103" s="11">
+      <c r="D103" s="23">
         <v>1651417.375</v>
       </c>
-      <c r="E103" s="10">
+      <c r="E103" s="23">
         <v>48.008333333333326</v>
       </c>
       <c r="F103" s="10">
@@ -8327,16 +8338,16 @@
       <c r="A104" s="7">
         <v>45446</v>
       </c>
-      <c r="B104" s="6">
+      <c r="B104" s="22">
         <v>67740.016902225005</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="22">
         <v>1235</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="22">
         <v>1659247.625</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="22">
         <v>46.623148148148147</v>
       </c>
       <c r="F104" s="6">
@@ -8403,16 +8414,16 @@
       <c r="A105" s="7">
         <v>45447</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105" s="22">
         <v>68808.293685904995</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="22">
         <v>1265</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="22">
         <v>1581164.375</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E105" s="22">
         <v>45.23888888888888</v>
       </c>
       <c r="F105" s="6">
@@ -8479,16 +8490,16 @@
       <c r="A106" s="7">
         <v>45448</v>
       </c>
-      <c r="B106" s="6">
+      <c r="B106" s="22">
         <v>70600.011166761004</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="22">
         <v>1255</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="22">
         <v>1525668.125</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E106" s="22">
         <v>44.482407407407401</v>
       </c>
       <c r="F106" s="6">
@@ -8555,16 +8566,16 @@
       <c r="A107" s="7">
         <v>45449</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B107" s="22">
         <v>71184.599430592003</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="22">
         <v>1250</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="22">
         <v>1503728.375</v>
       </c>
-      <c r="E107" s="6">
+      <c r="E107" s="22">
         <v>42.952777777777776</v>
       </c>
       <c r="F107" s="6">
@@ -8631,16 +8642,16 @@
       <c r="A108" s="7">
         <v>45450</v>
       </c>
-      <c r="B108" s="6">
+      <c r="B108" s="22">
         <v>70759.588193014002</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="22">
         <v>1260</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="22">
         <v>1519209.125</v>
       </c>
-      <c r="E108" s="6">
+      <c r="E108" s="22">
         <v>43.760185185185186</v>
       </c>
       <c r="F108" s="6">
@@ -8707,16 +8718,16 @@
       <c r="A109" s="7">
         <v>45453</v>
       </c>
-      <c r="B109" s="6">
+      <c r="B109" s="22">
         <v>69654.160737604005</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="22">
         <v>1285</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="22">
         <v>1576628.375</v>
       </c>
-      <c r="E109" s="6">
+      <c r="E109" s="22">
         <v>46.096296296296295</v>
       </c>
       <c r="F109" s="6">
@@ -8783,16 +8794,16 @@
       <c r="A110" s="7">
         <v>45454</v>
       </c>
-      <c r="B110" s="6">
+      <c r="B110" s="22">
         <v>69493.177609157006</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="22">
         <v>1295</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="22">
         <v>1544869.25</v>
       </c>
-      <c r="E110" s="6">
+      <c r="E110" s="22">
         <v>45.416666666666664</v>
       </c>
       <c r="F110" s="6">
@@ -8859,16 +8870,16 @@
       <c r="A111" s="7">
         <v>45455</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111" s="22">
         <v>67329.152327243006</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="22">
         <v>1285</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="22">
         <v>1568096.375</v>
       </c>
-      <c r="E111" s="6">
+      <c r="E111" s="22">
         <v>45.723148148148148</v>
       </c>
       <c r="F111" s="6">
@@ -8935,16 +8946,16 @@
       <c r="A112" s="7">
         <v>45456</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="22">
         <v>68224.519675019998</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="22">
         <v>1245</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="22">
         <v>1605208.375</v>
       </c>
-      <c r="E112" s="6">
+      <c r="E112" s="22">
         <v>45.901851851851845</v>
       </c>
       <c r="F112" s="6">
@@ -9011,16 +9022,16 @@
       <c r="A113" s="7">
         <v>45457</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B113" s="22">
         <v>66700.316965644</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="22">
         <v>1280</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="22">
         <v>1582373</v>
       </c>
-      <c r="E113" s="6">
+      <c r="E113" s="22">
         <v>47.965740740740735</v>
       </c>
       <c r="F113" s="6">
@@ -9087,16 +9098,16 @@
       <c r="A114" s="7">
         <v>45461</v>
       </c>
-      <c r="B114" s="6">
+      <c r="B114" s="22">
         <v>66460.388979099997</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="22">
         <v>1305</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="22">
         <v>1557429.625</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E114" s="22">
         <v>48.561111111111103</v>
       </c>
       <c r="F114" s="6">
@@ -9163,16 +9174,16 @@
       <c r="A115" s="7">
         <v>45462</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B115" s="22">
         <v>65109.314812190001</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="22">
         <v>1300</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="22">
         <v>1576462.375</v>
       </c>
-      <c r="E115" s="6">
+      <c r="E115" s="22">
         <v>47.821296296296289</v>
       </c>
       <c r="F115" s="6">
@@ -9239,16 +9250,16 @@
       <c r="A116" s="7">
         <v>45467</v>
       </c>
-      <c r="B116" s="6">
+      <c r="B116" s="22">
         <v>63221.357384374998</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="22">
         <v>1330</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="22">
         <v>1526976.5</v>
       </c>
-      <c r="E116" s="6">
+      <c r="E116" s="22">
         <v>47.116666666666667</v>
       </c>
       <c r="F116" s="6">
@@ -9315,16 +9326,16 @@
       <c r="A117" s="7">
         <v>45468</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B117" s="22">
         <v>60363.234975296</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="22">
         <v>1360</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="22">
         <v>1581224.25</v>
       </c>
-      <c r="E117" s="6">
+      <c r="E117" s="22">
         <v>46.99722222222222</v>
       </c>
       <c r="F117" s="6">
@@ -9391,16 +9402,16 @@
       <c r="A118" s="7">
         <v>45469</v>
       </c>
-      <c r="B118" s="6">
+      <c r="B118" s="22">
         <v>61770.413870094999</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="22">
         <v>1365</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="22">
         <v>1567471.75</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E118" s="22">
         <v>47.175925925925924</v>
       </c>
       <c r="F118" s="6">
@@ -9467,16 +9478,16 @@
       <c r="A119" s="7">
         <v>45470</v>
       </c>
-      <c r="B119" s="6">
+      <c r="B119" s="22">
         <v>60749.896194020002</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="22">
         <v>1355</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="22">
         <v>1601307.75</v>
       </c>
-      <c r="E119" s="6">
+      <c r="E119" s="22">
         <v>47.405555555555551</v>
       </c>
       <c r="F119" s="6">
@@ -9543,16 +9554,16 @@
       <c r="A120" s="9">
         <v>45471</v>
       </c>
-      <c r="B120" s="10">
+      <c r="B120" s="23">
         <v>61562.645325500001</v>
       </c>
-      <c r="C120" s="11">
+      <c r="C120" s="23">
         <v>1365</v>
       </c>
-      <c r="D120" s="11">
+      <c r="D120" s="23">
         <v>1613424</v>
       </c>
-      <c r="E120" s="10">
+      <c r="E120" s="23">
         <v>46.861111111111107</v>
       </c>
       <c r="F120" s="10">
@@ -9619,16 +9630,16 @@
       <c r="A121" s="7">
         <v>45474</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B121" s="22">
         <v>62734.393839454999</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="22">
         <v>1405</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="22">
         <v>1589778.25</v>
       </c>
-      <c r="E121" s="6">
+      <c r="E121" s="22">
         <v>45.713888888888889</v>
       </c>
       <c r="F121" s="6">
@@ -9695,16 +9706,16 @@
       <c r="A122" s="7">
         <v>45475</v>
       </c>
-      <c r="B122" s="6">
+      <c r="B122" s="22">
         <v>62819.822269217999</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="22">
         <v>1425</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="22">
         <v>1623143.375</v>
       </c>
-      <c r="E122" s="6">
+      <c r="E122" s="22">
         <v>45.136111111111106</v>
       </c>
       <c r="F122" s="6">
@@ -9771,16 +9782,16 @@
       <c r="A123" s="7">
         <v>45476</v>
       </c>
-      <c r="B123" s="6">
+      <c r="B123" s="22">
         <v>62042.565037100998</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="22">
         <v>1410</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="22">
         <v>1644958.375</v>
       </c>
-      <c r="E123" s="6">
+      <c r="E123" s="22">
         <v>45.340740740740742</v>
       </c>
       <c r="F123" s="6">
@@ -9847,16 +9858,16 @@
       <c r="A124" s="7">
         <v>45477</v>
       </c>
-      <c r="B124" s="6">
+      <c r="B124" s="22">
         <v>60244.680764331002</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="22">
         <v>1395</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="22">
         <v>1614868.625</v>
       </c>
-      <c r="E124" s="6">
+      <c r="E124" s="22">
         <v>45.204629629629622</v>
       </c>
       <c r="F124" s="6">
@@ -9923,16 +9934,16 @@
       <c r="A125" s="7">
         <v>45478</v>
       </c>
-      <c r="B125" s="6">
+      <c r="B125" s="22">
         <v>57189.174124085999</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="22">
         <v>1420</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="22">
         <v>1619977.75</v>
       </c>
-      <c r="E125" s="6">
+      <c r="E125" s="22">
         <v>45.162037037037031</v>
       </c>
       <c r="F125" s="6">
@@ -9999,16 +10010,16 @@
       <c r="A126" s="7">
         <v>45481</v>
       </c>
-      <c r="B126" s="6">
+      <c r="B126" s="22">
         <v>55880.375377671</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="22">
         <v>1440</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="22">
         <v>1646446.375</v>
       </c>
-      <c r="E126" s="6">
+      <c r="E126" s="22">
         <v>45.760185185185179</v>
       </c>
       <c r="F126" s="6">
@@ -10075,16 +10086,16 @@
       <c r="A127" s="7">
         <v>45483</v>
       </c>
-      <c r="B127" s="6">
+      <c r="B127" s="22">
         <v>57988.303512084</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="22">
         <v>1440</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="22">
         <v>1672144</v>
       </c>
-      <c r="E127" s="6">
+      <c r="E127" s="22">
         <v>47.499999999999993</v>
       </c>
       <c r="F127" s="6">
@@ -10151,16 +10162,16 @@
       <c r="A128" s="7">
         <v>45484</v>
       </c>
-      <c r="B128" s="6">
+      <c r="B128" s="22">
         <v>57704.202284462997</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="22">
         <v>1465</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="22">
         <v>1688059.875</v>
       </c>
-      <c r="E128" s="6">
+      <c r="E128" s="22">
         <v>47.222222222222221</v>
       </c>
       <c r="F128" s="6">
@@ -10227,16 +10238,16 @@
       <c r="A129" s="7">
         <v>45485</v>
       </c>
-      <c r="B129" s="6">
+      <c r="B129" s="22">
         <v>57388.192479167003</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="22">
         <v>1500</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="22">
         <v>1715609</v>
       </c>
-      <c r="E129" s="6">
+      <c r="E129" s="22">
         <v>46.092592592592588</v>
       </c>
       <c r="F129" s="6">
@@ -10303,16 +10314,16 @@
       <c r="A130" s="7">
         <v>45488</v>
       </c>
-      <c r="B130" s="6">
+      <c r="B130" s="22">
         <v>60942.327739963002</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="22">
         <v>1420</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="22">
         <v>1504983</v>
       </c>
-      <c r="E130" s="6">
+      <c r="E130" s="22">
         <v>45.462962962962962</v>
       </c>
       <c r="F130" s="6">
@@ -10379,16 +10390,16 @@
       <c r="A131" s="7">
         <v>45489</v>
       </c>
-      <c r="B131" s="6">
+      <c r="B131" s="22">
         <v>64835.489733216004</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="22">
         <v>1395</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="22">
         <v>1526268</v>
       </c>
-      <c r="E131" s="6">
+      <c r="E131" s="22">
         <v>45.509259259259252</v>
       </c>
       <c r="F131" s="6">
@@ -10455,16 +10466,16 @@
       <c r="A132" s="7">
         <v>45490</v>
       </c>
-      <c r="B132" s="6">
+      <c r="B132" s="22">
         <v>65162.236252344002</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="22">
         <v>1465</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="22">
         <v>1524496</v>
       </c>
-      <c r="E132" s="6">
+      <c r="E132" s="22">
         <v>45.092592592592595</v>
       </c>
       <c r="F132" s="6">
@@ -10531,16 +10542,16 @@
       <c r="A133" s="7">
         <v>45491</v>
       </c>
-      <c r="B133" s="6">
+      <c r="B133" s="22">
         <v>64136.313843607</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="22">
         <v>1455</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="22">
         <v>1528790</v>
       </c>
-      <c r="E133" s="6">
+      <c r="E133" s="22">
         <v>44.638888888888886</v>
       </c>
       <c r="F133" s="6">
@@ -10607,16 +10618,16 @@
       <c r="A134" s="7">
         <v>45492</v>
       </c>
-      <c r="B134" s="6">
+      <c r="B134" s="22">
         <v>63959.569008093997</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="22">
         <v>1440</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="22">
         <v>1566044.625</v>
       </c>
-      <c r="E134" s="6">
+      <c r="E134" s="22">
         <v>43.518518518518519</v>
       </c>
       <c r="F134" s="6">
@@ -10683,16 +10694,16 @@
       <c r="A135" s="7">
         <v>45495</v>
       </c>
-      <c r="B135" s="6">
+      <c r="B135" s="22">
         <v>68088.139963245005</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="22">
         <v>1440</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="22">
         <v>1577348</v>
       </c>
-      <c r="E135" s="6">
+      <c r="E135" s="22">
         <v>45.138888888888886</v>
       </c>
       <c r="F135" s="6">
@@ -10759,16 +10770,16 @@
       <c r="A136" s="7">
         <v>45496</v>
       </c>
-      <c r="B136" s="6">
+      <c r="B136" s="22">
         <v>67607.713399189</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="22">
         <v>1445</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="22">
         <v>1636543</v>
       </c>
-      <c r="E136" s="6">
+      <c r="E136" s="22">
         <v>44.949074074074076</v>
       </c>
       <c r="F136" s="6">
@@ -10835,16 +10846,16 @@
       <c r="A137" s="7">
         <v>45497</v>
       </c>
-      <c r="B137" s="6">
+      <c r="B137" s="22">
         <v>65942.417465228005</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="22">
         <v>1445</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="22">
         <v>1607682</v>
       </c>
-      <c r="E137" s="6">
+      <c r="E137" s="22">
         <v>44.305555555555557</v>
       </c>
       <c r="F137" s="6">
@@ -10911,16 +10922,16 @@
       <c r="A138" s="7">
         <v>45498</v>
       </c>
-      <c r="B138" s="6">
+      <c r="B138" s="22">
         <v>65403.535130224998</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="22">
         <v>1445</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="22">
         <v>1573640</v>
       </c>
-      <c r="E138" s="6">
+      <c r="E138" s="22">
         <v>43.712962962962962</v>
       </c>
       <c r="F138" s="6">
@@ -10987,16 +10998,16 @@
       <c r="A139" s="7">
         <v>45499</v>
       </c>
-      <c r="B139" s="6">
+      <c r="B139" s="22">
         <v>65749.963619653005</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="22">
         <v>1435</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="22">
         <v>1549473</v>
       </c>
-      <c r="E139" s="6">
+      <c r="E139" s="22">
         <v>44.352777777777781</v>
       </c>
       <c r="F139" s="6">
@@ -11063,16 +11074,16 @@
       <c r="A140" s="7">
         <v>45502</v>
       </c>
-      <c r="B140" s="6">
+      <c r="B140" s="22">
         <v>68242.247444049004</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="22">
         <v>1415</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="22">
         <v>1488311.375</v>
       </c>
-      <c r="E140" s="6">
+      <c r="E140" s="22">
         <v>44.490740740740733</v>
       </c>
       <c r="F140" s="6">
@@ -11139,16 +11150,16 @@
       <c r="A141" s="7">
         <v>45503</v>
       </c>
-      <c r="B141" s="6">
+      <c r="B141" s="22">
         <v>66770.320918483005</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="22">
         <v>1385</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="22">
         <v>1444516.375</v>
       </c>
-      <c r="E141" s="6">
+      <c r="E141" s="22">
         <v>44.676851851851843</v>
       </c>
       <c r="F141" s="6">
@@ -11215,16 +11226,16 @@
       <c r="A142" s="9">
         <v>45504</v>
       </c>
-      <c r="B142" s="10">
+      <c r="B142" s="23">
         <v>66219.051024860993</v>
       </c>
-      <c r="C142" s="11">
+      <c r="C142" s="23">
         <v>1360</v>
       </c>
-      <c r="D142" s="11">
+      <c r="D142" s="23">
         <v>1469843.75</v>
       </c>
-      <c r="E142" s="10">
+      <c r="E142" s="23">
         <v>46.527777777777771</v>
       </c>
       <c r="F142" s="10">
@@ -11291,16 +11302,16 @@
       <c r="A143" s="7">
         <v>45505</v>
       </c>
-      <c r="B143" s="6">
+      <c r="B143" s="22">
         <v>64679.778647033003</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="22">
         <v>1380</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="22">
         <v>1497182</v>
       </c>
-      <c r="E143" s="6">
+      <c r="E143" s="22">
         <v>44.916666666666664</v>
       </c>
       <c r="F143" s="6">
@@ -11367,16 +11378,16 @@
       <c r="A144" s="7">
         <v>45506</v>
       </c>
-      <c r="B144" s="6">
+      <c r="B144" s="22">
         <v>65357.529607673998</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="22">
         <v>1395</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="22">
         <v>1453300.5</v>
       </c>
-      <c r="E144" s="6">
+      <c r="E144" s="22">
         <v>43.518518518518519</v>
       </c>
       <c r="F144" s="6">
@@ -11443,16 +11454,16 @@
       <c r="A145" s="7">
         <v>45509</v>
       </c>
-      <c r="B145" s="6">
+      <c r="B145" s="22">
         <v>58006.206586687003</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="22">
         <v>1395</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="22">
         <v>1420523</v>
       </c>
-      <c r="E145" s="6">
+      <c r="E145" s="22">
         <v>43.31481481481481</v>
       </c>
       <c r="F145" s="6">
@@ -11519,16 +11530,16 @@
       <c r="A146" s="7">
         <v>45510</v>
       </c>
-      <c r="B146" s="6">
+      <c r="B146" s="22">
         <v>53956.261841596999</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="22">
         <v>1370</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="22">
         <v>1457571</v>
       </c>
-      <c r="E146" s="6">
+      <c r="E146" s="22">
         <v>44.259259259259252</v>
       </c>
       <c r="F146" s="6">
@@ -11595,16 +11606,16 @@
       <c r="A147" s="7">
         <v>45511</v>
       </c>
-      <c r="B147" s="6">
+      <c r="B147" s="22">
         <v>55959.841073994001</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="22">
         <v>1380</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="22">
         <v>1452160.75</v>
       </c>
-      <c r="E147" s="6">
+      <c r="E147" s="22">
         <v>44.462962962962962</v>
       </c>
       <c r="F147" s="6">
@@ -11671,16 +11682,16 @@
       <c r="A148" s="7">
         <v>45512</v>
       </c>
-      <c r="B148" s="6">
+      <c r="B148" s="22">
         <v>55099.951811466999</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="22">
         <v>1375</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="22">
         <v>1530365.75</v>
       </c>
-      <c r="E148" s="6">
+      <c r="E148" s="22">
         <v>45.185185185185176</v>
       </c>
       <c r="F148" s="6">
@@ -11747,16 +11758,16 @@
       <c r="A149" s="7">
         <v>45513</v>
       </c>
-      <c r="B149" s="6">
+      <c r="B149" s="22">
         <v>61859.031599041999</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="22">
         <v>1355</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="22">
         <v>1583894.875</v>
       </c>
-      <c r="E149" s="6">
+      <c r="E149" s="22">
         <v>45.074074074074069</v>
       </c>
       <c r="F149" s="6">
@@ -11823,16 +11834,16 @@
       <c r="A150" s="7">
         <v>45516</v>
       </c>
-      <c r="B150" s="6">
+      <c r="B150" s="22">
         <v>58804.234499926002</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="22">
         <v>1350</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="22">
         <v>1588905.125</v>
       </c>
-      <c r="E150" s="6">
+      <c r="E150" s="22">
         <v>45.555555555555557</v>
       </c>
       <c r="F150" s="6">
@@ -11899,16 +11910,16 @@
       <c r="A151" s="7">
         <v>45517</v>
       </c>
-      <c r="B151" s="6">
+      <c r="B151" s="22">
         <v>59350.074332707001</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="22">
         <v>1355</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="22">
         <v>1591696.875</v>
       </c>
-      <c r="E151" s="6">
+      <c r="E151" s="22">
         <v>45.462962962962962</v>
       </c>
       <c r="F151" s="6">
@@ -11975,16 +11986,16 @@
       <c r="A152" s="7">
         <v>45518</v>
       </c>
-      <c r="B152" s="6">
+      <c r="B152" s="22">
         <v>60601.223177897002</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="22">
         <v>1355</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="22">
         <v>1607310.125</v>
       </c>
-      <c r="E152" s="6">
+      <c r="E152" s="22">
         <v>46.157407407407405</v>
       </c>
       <c r="F152" s="6">
@@ -12051,16 +12062,16 @@
       <c r="A153" s="7">
         <v>45519</v>
       </c>
-      <c r="B153" s="6">
+      <c r="B153" s="22">
         <v>58739.193822310001</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="22">
         <v>1350</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="22">
         <v>1643875</v>
       </c>
-      <c r="E153" s="6">
+      <c r="E153" s="22">
         <v>46.56481481481481</v>
       </c>
       <c r="F153" s="6">
@@ -12127,16 +12138,16 @@
       <c r="A154" s="7">
         <v>45520</v>
       </c>
-      <c r="B154" s="6">
+      <c r="B154" s="22">
         <v>57624.116928522002</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="22">
         <v>1345</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="22">
         <v>1649329.375</v>
       </c>
-      <c r="E154" s="6">
+      <c r="E154" s="22">
         <v>46.25</v>
       </c>
       <c r="F154" s="6">
@@ -12203,16 +12214,16 @@
       <c r="A155" s="7">
         <v>45523</v>
       </c>
-      <c r="B155" s="6">
+      <c r="B155" s="22">
         <v>58438.293742684997</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="22">
         <v>1350</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="22">
         <v>1657074.625</v>
       </c>
-      <c r="E155" s="6">
+      <c r="E155" s="22">
         <v>46.472222222222214</v>
       </c>
       <c r="F155" s="6">
@@ -12279,16 +12290,16 @@
       <c r="A156" s="7">
         <v>45524</v>
       </c>
-      <c r="B156" s="6">
+      <c r="B156" s="22">
         <v>59574.945812940998</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="22">
         <v>1355</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="22">
         <v>1659274.75</v>
       </c>
-      <c r="E156" s="6">
+      <c r="E156" s="22">
         <v>46.518518518518519</v>
       </c>
       <c r="F156" s="6">
@@ -12355,16 +12366,16 @@
       <c r="A157" s="7">
         <v>45525</v>
       </c>
-      <c r="B157" s="6">
+      <c r="B157" s="22">
         <v>59060.126100740999</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="22">
         <v>1355</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="22">
         <v>1621075.625</v>
       </c>
-      <c r="E157" s="6">
+      <c r="E157" s="22">
         <v>46.018518518518519</v>
       </c>
       <c r="F157" s="6">
@@ -12431,16 +12442,16 @@
       <c r="A158" s="7">
         <v>45526</v>
       </c>
-      <c r="B158" s="6">
+      <c r="B158" s="22">
         <v>61144.687628665997</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="22">
         <v>1350</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="22">
         <v>1577419.875</v>
       </c>
-      <c r="E158" s="6">
+      <c r="E158" s="22">
         <v>45.833333333333329</v>
       </c>
       <c r="F158" s="6">
@@ -12507,16 +12518,16 @@
       <c r="A159" s="7">
         <v>45527</v>
       </c>
-      <c r="B159" s="6">
+      <c r="B159" s="22">
         <v>60387.540623214001</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="22">
         <v>1350</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="22">
         <v>1606967.375</v>
       </c>
-      <c r="E159" s="6">
+      <c r="E159" s="22">
         <v>46.509259259259252</v>
       </c>
       <c r="F159" s="6">
@@ -12583,16 +12594,16 @@
       <c r="A160" s="7">
         <v>45530</v>
       </c>
-      <c r="B160" s="6">
+      <c r="B160" s="22">
         <v>64265.816312729003</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="22">
         <v>1350</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="22">
         <v>1593002.5</v>
       </c>
-      <c r="E160" s="6">
+      <c r="E160" s="22">
         <v>46.898148148148145</v>
       </c>
       <c r="F160" s="6">
@@ -12659,16 +12670,16 @@
       <c r="A161" s="7">
         <v>45531</v>
       </c>
-      <c r="B161" s="6">
+      <c r="B161" s="22">
         <v>62922.586346762997</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="22">
         <v>1340</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="22">
         <v>1616134.125</v>
       </c>
-      <c r="E161" s="6">
+      <c r="E161" s="22">
         <v>47.333333333333329</v>
       </c>
       <c r="F161" s="6">
@@ -12735,16 +12746,16 @@
       <c r="A162" s="7">
         <v>45532</v>
       </c>
-      <c r="B162" s="6">
+      <c r="B162" s="22">
         <v>59526.560879591001</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="22">
         <v>1330</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="22">
         <v>1617544.375</v>
       </c>
-      <c r="E162" s="6">
+      <c r="E162" s="22">
         <v>48.453703703703702</v>
       </c>
       <c r="F162" s="6">
@@ -12811,16 +12822,16 @@
       <c r="A163" s="7">
         <v>45533</v>
       </c>
-      <c r="B163" s="6">
+      <c r="B163" s="22">
         <v>59015.296338879001</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="22">
         <v>1315</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="22">
         <v>1660144</v>
       </c>
-      <c r="E163" s="6">
+      <c r="E163" s="22">
         <v>49.824074074074076</v>
       </c>
       <c r="F163" s="6">
@@ -12887,16 +12898,16 @@
       <c r="A164" s="9">
         <v>45534</v>
       </c>
-      <c r="B164" s="10">
+      <c r="B164" s="23">
         <v>59351.579490973003</v>
       </c>
-      <c r="C164" s="11">
+      <c r="C164" s="23">
         <v>1305</v>
       </c>
-      <c r="D164" s="11">
+      <c r="D164" s="23">
         <v>1717564.5</v>
       </c>
-      <c r="E164" s="10">
+      <c r="E164" s="23">
         <v>50.370370370370367</v>
       </c>
       <c r="F164" s="10">
@@ -12963,16 +12974,16 @@
       <c r="A165" s="7">
         <v>45537</v>
       </c>
-      <c r="B165" s="6">
+      <c r="B165" s="22">
         <v>57357.716172822002</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="22">
         <v>1305</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="22">
         <v>1754833</v>
       </c>
-      <c r="E165" s="6">
+      <c r="E165" s="22">
         <v>50.777777777777779</v>
       </c>
       <c r="F165" s="6">
@@ -13039,16 +13050,16 @@
       <c r="A166" s="7">
         <v>45538</v>
       </c>
-      <c r="B166" s="6">
+      <c r="B166" s="22">
         <v>59108.732358636997</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="22">
         <v>1310</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="22">
         <v>1735253</v>
       </c>
-      <c r="E166" s="6">
+      <c r="E166" s="22">
         <v>50.185185185185183</v>
       </c>
       <c r="F166" s="6">
@@ -13115,16 +13126,16 @@
       <c r="A167" s="7">
         <v>45539</v>
       </c>
-      <c r="B167" s="6">
+      <c r="B167" s="22">
         <v>57504.538586219998</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="22">
         <v>1305</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="22">
         <v>1796920.125</v>
       </c>
-      <c r="E167" s="6">
+      <c r="E167" s="22">
         <v>50.657407407407405</v>
       </c>
       <c r="F167" s="6">
@@ -13191,16 +13202,16 @@
       <c r="A168" s="7">
         <v>45540</v>
       </c>
-      <c r="B168" s="6">
+      <c r="B168" s="22">
         <v>57987.846014101</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="22">
         <v>1265</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="22">
         <v>1765465</v>
       </c>
-      <c r="E168" s="6">
+      <c r="E168" s="22">
         <v>51.194444444444443</v>
       </c>
       <c r="F168" s="6">
@@ -13267,16 +13278,16 @@
       <c r="A169" s="7">
         <v>45541</v>
       </c>
-      <c r="B169" s="6">
+      <c r="B169" s="22">
         <v>56132.404732089002</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="22">
         <v>1240</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="22">
         <v>1721668</v>
       </c>
-      <c r="E169" s="6">
+      <c r="E169" s="22">
         <v>50.99074074074074</v>
       </c>
       <c r="F169" s="6">
@@ -13343,16 +13354,16 @@
       <c r="A170" s="7">
         <v>45544</v>
       </c>
-      <c r="B170" s="6">
+      <c r="B170" s="22">
         <v>54792.407557685998</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="22">
         <v>1265</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="22">
         <v>1738555.75</v>
       </c>
-      <c r="E170" s="6">
+      <c r="E170" s="22">
         <v>52.425925925925917</v>
       </c>
       <c r="F170" s="6">
@@ -13419,16 +13430,16 @@
       <c r="A171" s="7">
         <v>45545</v>
       </c>
-      <c r="B171" s="6">
+      <c r="B171" s="22">
         <v>57049.118751143003</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="22">
         <v>1270</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="22">
         <v>1683315.5</v>
       </c>
-      <c r="E171" s="6">
+      <c r="E171" s="22">
         <v>52.074074074074069</v>
       </c>
       <c r="F171" s="6">
@@ -13495,16 +13506,16 @@
       <c r="A172" s="7">
         <v>45546</v>
       </c>
-      <c r="B172" s="6">
+      <c r="B172" s="22">
         <v>57624.161783361</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="22">
         <v>1280</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="22">
         <v>1764128.5</v>
       </c>
-      <c r="E172" s="6">
+      <c r="E172" s="22">
         <v>51.81481481481481</v>
       </c>
       <c r="F172" s="6">
@@ -13571,16 +13582,16 @@
       <c r="A173" s="7">
         <v>45547</v>
       </c>
-      <c r="B173" s="6">
+      <c r="B173" s="22">
         <v>57381.764445000001</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="22">
         <v>1280</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="22">
         <v>1790058.125</v>
       </c>
-      <c r="E173" s="6">
+      <c r="E173" s="22">
         <v>51.694444444444443</v>
       </c>
       <c r="F173" s="6">
@@ -13647,16 +13658,16 @@
       <c r="A174" s="7">
         <v>45548</v>
       </c>
-      <c r="B174" s="6">
+      <c r="B174" s="22">
         <v>58106.951229815</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="22">
         <v>1270</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="22">
         <v>1817734</v>
       </c>
-      <c r="E174" s="6">
+      <c r="E174" s="22">
         <v>52.361111111111107</v>
       </c>
       <c r="F174" s="6">
@@ -13723,16 +13734,16 @@
       <c r="A175" s="7">
         <v>45551</v>
       </c>
-      <c r="B175" s="6">
+      <c r="B175" s="22">
         <v>59214.802268018</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="22">
         <v>1275</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="22">
         <v>1812872.375</v>
       </c>
-      <c r="E175" s="6">
+      <c r="E175" s="22">
         <v>53.462962962962962</v>
       </c>
       <c r="F175" s="6">
@@ -13799,16 +13810,16 @@
       <c r="A176" s="7">
         <v>45552</v>
       </c>
-      <c r="B176" s="6">
+      <c r="B176" s="22">
         <v>58211.123231286001</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="22">
         <v>1270</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="22">
         <v>1813298</v>
       </c>
-      <c r="E176" s="6">
+      <c r="E176" s="22">
         <v>53.425925925925924</v>
       </c>
       <c r="F176" s="6">
@@ -13875,16 +13886,16 @@
       <c r="A177" s="7">
         <v>45553</v>
       </c>
-      <c r="B177" s="6">
+      <c r="B177" s="22">
         <v>60317.031979462998</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="22">
         <v>1260</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="22">
         <v>1815098.875</v>
       </c>
-      <c r="E177" s="6">
+      <c r="E177" s="22">
         <v>53.749999999999993</v>
       </c>
       <c r="F177" s="6">
@@ -13951,16 +13962,16 @@
       <c r="A178" s="7">
         <v>45554</v>
       </c>
-      <c r="B178" s="6">
+      <c r="B178" s="22">
         <v>61440.412084944997</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="22">
         <v>1240</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="22">
         <v>1847053.125</v>
       </c>
-      <c r="E178" s="6">
+      <c r="E178" s="22">
         <v>54.175925925925924</v>
       </c>
       <c r="F178" s="6">
@@ -14027,16 +14038,16 @@
       <c r="A179" s="7">
         <v>45555</v>
       </c>
-      <c r="B179" s="6">
+      <c r="B179" s="22">
         <v>62966.529319105</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="22">
         <v>1250</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="22">
         <v>1822928.25</v>
       </c>
-      <c r="E179" s="6">
+      <c r="E179" s="22">
         <v>53.907407407407405</v>
       </c>
       <c r="F179" s="6">
@@ -14103,16 +14114,16 @@
       <c r="A180" s="7">
         <v>45558</v>
       </c>
-      <c r="B180" s="6">
+      <c r="B180" s="22">
         <v>63582.599569247999</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="22">
         <v>1245</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="22">
         <v>1790228.125</v>
       </c>
-      <c r="E180" s="6">
+      <c r="E180" s="22">
         <v>53.907407407407405</v>
       </c>
       <c r="F180" s="6">
@@ -14179,16 +14190,16 @@
       <c r="A181" s="7">
         <v>45559</v>
       </c>
-      <c r="B181" s="6">
+      <c r="B181" s="22">
         <v>63327.026544501998</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="22">
         <v>1245</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="22">
         <v>1774668</v>
       </c>
-      <c r="E181" s="6">
+      <c r="E181" s="22">
         <v>53.916666666666657</v>
       </c>
       <c r="F181" s="6">
@@ -14255,16 +14266,16 @@
       <c r="A182" s="7">
         <v>45560</v>
       </c>
-      <c r="B182" s="6">
+      <c r="B182" s="22">
         <v>64334.142748760998</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="22">
         <v>1245</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="22">
         <v>1744131.25</v>
       </c>
-      <c r="E182" s="6">
+      <c r="E182" s="22">
         <v>53.712962962962955</v>
       </c>
       <c r="F182" s="6">
@@ -14331,16 +14342,16 @@
       <c r="A183" s="7">
         <v>45561</v>
       </c>
-      <c r="B183" s="6">
+      <c r="B183" s="22">
         <v>63151.899594012997</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="22">
         <v>1220</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="22">
         <v>1715670.625</v>
       </c>
-      <c r="E183" s="6">
+      <c r="E183" s="22">
         <v>53.287037037037031</v>
       </c>
       <c r="F183" s="6">
@@ -14407,16 +14418,16 @@
       <c r="A184" s="7">
         <v>45562</v>
       </c>
-      <c r="B184" s="6">
+      <c r="B184" s="22">
         <v>65130.768840231998</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="22">
         <v>1245</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="22">
         <v>1727776.5</v>
       </c>
-      <c r="E184" s="6">
+      <c r="E184" s="22">
         <v>53.30555555555555</v>
       </c>
       <c r="F184" s="6">
@@ -14483,16 +14494,16 @@
       <c r="A185" s="9">
         <v>45565</v>
       </c>
-      <c r="B185" s="10">
+      <c r="B185" s="23">
         <v>65663.689866622997</v>
       </c>
-      <c r="C185" s="11">
+      <c r="C185" s="23">
         <v>1230</v>
       </c>
-      <c r="D185" s="11">
+      <c r="D185" s="23">
         <v>1697400.625</v>
       </c>
-      <c r="E185" s="10">
+      <c r="E185" s="23">
         <v>53.953703703703702</v>
       </c>
       <c r="F185" s="10">
@@ -14559,16 +14570,16 @@
       <c r="A186" s="7">
         <v>45566</v>
       </c>
-      <c r="B186" s="6">
+      <c r="B186" s="22">
         <v>63243.275324643997</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="22">
         <v>1220</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="22">
         <v>1728761.125</v>
       </c>
-      <c r="E186" s="6">
+      <c r="E186" s="22">
         <v>54.055555555555557</v>
       </c>
       <c r="F186" s="6">
@@ -14635,16 +14646,16 @@
       <c r="A187" s="7">
         <v>45567</v>
       </c>
-      <c r="B187" s="6">
+      <c r="B187" s="22">
         <v>60872.668543726002</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="22">
         <v>1215</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="22">
         <v>1715159</v>
       </c>
-      <c r="E187" s="6">
+      <c r="E187" s="22">
         <v>54.481481481481481</v>
       </c>
       <c r="F187" s="6">
@@ -14711,16 +14722,16 @@
       <c r="A188" s="7">
         <v>45568</v>
       </c>
-      <c r="B188" s="6">
+      <c r="B188" s="22">
         <v>60655.559791968</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="22">
         <v>1205</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="22">
         <v>1754992.375</v>
       </c>
-      <c r="E188" s="6">
+      <c r="E188" s="22">
         <v>54.907407407407398</v>
       </c>
       <c r="F188" s="6">
@@ -14787,16 +14798,16 @@
       <c r="A189" s="7">
         <v>45569</v>
       </c>
-      <c r="B189" s="6">
+      <c r="B189" s="22">
         <v>60727.863951692998</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="22">
         <v>1195</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="22">
         <v>1756515.5</v>
       </c>
-      <c r="E189" s="6">
+      <c r="E189" s="22">
         <v>55.05555555555555</v>
       </c>
       <c r="F189" s="6">
@@ -14863,16 +14874,16 @@
       <c r="A190" s="7">
         <v>45572</v>
       </c>
-      <c r="B190" s="6">
+      <c r="B190" s="22">
         <v>62811.799728113001</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="22">
         <v>1190</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="22">
         <v>1714593.625</v>
       </c>
-      <c r="E190" s="6">
+      <c r="E190" s="22">
         <v>55.712962962962962</v>
       </c>
       <c r="F190" s="6">
@@ -14939,16 +14950,16 @@
       <c r="A191" s="7">
         <v>45573</v>
       </c>
-      <c r="B191" s="6">
+      <c r="B191" s="22">
         <v>62287.390105106999</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="22">
         <v>1175</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="22">
         <v>1731369.625</v>
       </c>
-      <c r="E191" s="6">
+      <c r="E191" s="22">
         <v>56.361111111111107</v>
       </c>
       <c r="F191" s="6">
@@ -15015,16 +15026,16 @@
       <c r="A192" s="7">
         <v>45574</v>
       </c>
-      <c r="B192" s="6">
+      <c r="B192" s="22">
         <v>62185.230423727997</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="22">
         <v>1175</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="22">
         <v>1771931.75</v>
       </c>
-      <c r="E192" s="6">
+      <c r="E192" s="22">
         <v>57.416666666666664</v>
       </c>
       <c r="F192" s="6">
@@ -15091,16 +15102,16 @@
       <c r="A193" s="7">
         <v>45575</v>
       </c>
-      <c r="B193" s="6">
+      <c r="B193" s="22">
         <v>60597.150456183001</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="22">
         <v>1180</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="22">
         <v>1782989.125</v>
       </c>
-      <c r="E193" s="6">
+      <c r="E193" s="22">
         <v>57.268518518518519</v>
       </c>
       <c r="F193" s="6">
@@ -15167,16 +15178,16 @@
       <c r="A194" s="7">
         <v>45579</v>
       </c>
-      <c r="B194" s="6">
+      <c r="B194" s="22">
         <v>62829.533686089002</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="22">
         <v>1190</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="22">
         <v>1797829.875</v>
       </c>
-      <c r="E194" s="6">
+      <c r="E194" s="22">
         <v>57.916666666666657</v>
       </c>
       <c r="F194" s="6">
@@ -15243,16 +15254,16 @@
       <c r="A195" s="7">
         <v>45580</v>
       </c>
-      <c r="B195" s="6">
+      <c r="B195" s="22">
         <v>66049.994927079999</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="22">
         <v>1235</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="22">
         <v>1816250.5</v>
       </c>
-      <c r="E195" s="6">
+      <c r="E195" s="22">
         <v>59.166666666666664</v>
       </c>
       <c r="F195" s="6">
@@ -15319,16 +15330,16 @@
       <c r="A196" s="7">
         <v>45581</v>
       </c>
-      <c r="B196" s="6">
+      <c r="B196" s="22">
         <v>66962.219944968005</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="22">
         <v>1220</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="22">
         <v>1776060.5</v>
       </c>
-      <c r="E196" s="6">
+      <c r="E196" s="22">
         <v>58.240740740740733</v>
       </c>
       <c r="F196" s="6">
@@ -15395,16 +15406,16 @@
       <c r="A197" s="7">
         <v>45582</v>
       </c>
-      <c r="B197" s="6">
+      <c r="B197" s="22">
         <v>67647.544147669003</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="22">
         <v>1220</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="22">
         <v>1802713.125</v>
       </c>
-      <c r="E197" s="6">
+      <c r="E197" s="22">
         <v>57.666666666666664</v>
       </c>
       <c r="F197" s="6">
@@ -15471,16 +15482,16 @@
       <c r="A198" s="7">
         <v>45583</v>
       </c>
-      <c r="B198" s="6">
+      <c r="B198" s="22">
         <v>67328.105270030006</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="22">
         <v>1225</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="22">
         <v>1805584.375</v>
       </c>
-      <c r="E198" s="6">
+      <c r="E198" s="22">
         <v>57.518518518518512</v>
       </c>
       <c r="F198" s="6">
@@ -15547,16 +15558,16 @@
       <c r="A199" s="7">
         <v>45586</v>
       </c>
-      <c r="B199" s="6">
+      <c r="B199" s="22">
         <v>68962.829180457004</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="22">
         <v>1240</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="22">
         <v>1820705.375</v>
       </c>
-      <c r="E199" s="6">
+      <c r="E199" s="22">
         <v>57.129629629629626</v>
       </c>
       <c r="F199" s="6">
@@ -15623,16 +15634,16 @@
       <c r="A200" s="7">
         <v>45587</v>
       </c>
-      <c r="B200" s="6">
+      <c r="B200" s="22">
         <v>67394.857757356003</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="22">
         <v>1245</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="22">
         <v>1807539.25</v>
       </c>
-      <c r="E200" s="6">
+      <c r="E200" s="22">
         <v>57.222222222222214</v>
       </c>
       <c r="F200" s="6">
@@ -15699,16 +15710,16 @@
       <c r="A201" s="7">
         <v>45588</v>
       </c>
-      <c r="B201" s="6">
+      <c r="B201" s="22">
         <v>67351.047935124996</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="22">
         <v>1240</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="22">
         <v>1774318.625</v>
       </c>
-      <c r="E201" s="6">
+      <c r="E201" s="22">
         <v>57.388888888888886</v>
       </c>
       <c r="F201" s="6">
@@ -15775,16 +15786,16 @@
       <c r="A202" s="7">
         <v>45589</v>
       </c>
-      <c r="B202" s="6">
+      <c r="B202" s="22">
         <v>66683.968065423003</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="22">
         <v>1230</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="22">
         <v>1849994.75</v>
       </c>
-      <c r="E202" s="6">
+      <c r="E202" s="22">
         <v>59.027777777777771</v>
       </c>
       <c r="F202" s="6">
@@ -15851,16 +15862,16 @@
       <c r="A203" s="7">
         <v>45590</v>
       </c>
-      <c r="B203" s="6">
+      <c r="B203" s="22">
         <v>68214.052051574006</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="22">
         <v>1215</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="22">
         <v>1872784.625</v>
       </c>
-      <c r="E203" s="6">
+      <c r="E203" s="22">
         <v>60.787037037037038</v>
       </c>
       <c r="F203" s="6">
@@ -15927,16 +15938,16 @@
       <c r="A204" s="7">
         <v>45593</v>
       </c>
-      <c r="B204" s="6">
+      <c r="B204" s="22">
         <v>67938.554128856995</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="22">
         <v>1225</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="22">
         <v>1851913.75</v>
       </c>
-      <c r="E204" s="6">
+      <c r="E204" s="22">
         <v>62.037037037037031</v>
       </c>
       <c r="F204" s="6">
@@ -16003,16 +16014,16 @@
       <c r="A205" s="7">
         <v>45594</v>
       </c>
-      <c r="B205" s="6">
+      <c r="B205" s="22">
         <v>69845.304531168993</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="22">
         <v>1220</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="22">
         <v>1845639.25</v>
       </c>
-      <c r="E205" s="6">
+      <c r="E205" s="22">
         <v>60.574074074074069</v>
       </c>
       <c r="F205" s="6">
@@ -16079,16 +16090,16 @@
       <c r="A206" s="7">
         <v>45595</v>
       </c>
-      <c r="B206" s="6">
+      <c r="B206" s="22">
         <v>72781.113081581003</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="22">
         <v>1195</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="22">
         <v>1837535.25</v>
       </c>
-      <c r="E206" s="6">
+      <c r="E206" s="22">
         <v>59.712962962962955</v>
       </c>
       <c r="F206" s="6">
@@ -16155,16 +16166,16 @@
       <c r="A207" s="7">
         <v>45596</v>
       </c>
-      <c r="B207" s="10">
+      <c r="B207" s="23">
         <v>72342.621711279993</v>
       </c>
-      <c r="C207" s="11">
+      <c r="C207" s="23">
         <v>1180</v>
       </c>
-      <c r="D207" s="11">
+      <c r="D207" s="23">
         <v>1848744.25</v>
       </c>
-      <c r="E207" s="10">
+      <c r="E207" s="23">
         <v>59.166666666666664</v>
       </c>
       <c r="F207" s="10">
@@ -16231,16 +16242,16 @@
       <c r="A208" s="7">
         <v>45597</v>
       </c>
-      <c r="B208" s="6">
+      <c r="B208" s="22">
         <v>70264.997355732994</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="22">
         <v>1190</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="22">
         <v>1879878.625</v>
       </c>
-      <c r="E208" s="6">
+      <c r="E208" s="22">
         <v>60.370370370370367</v>
       </c>
       <c r="F208" s="6">
@@ -16307,16 +16318,16 @@
       <c r="A209" s="7">
         <v>45600</v>
       </c>
-      <c r="B209" s="6">
+      <c r="B209" s="22">
         <v>68803.506262775001</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="22">
         <v>1190</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="22">
         <v>1919066</v>
       </c>
-      <c r="E209" s="6">
+      <c r="E209" s="22">
         <v>60.185185185185183</v>
       </c>
       <c r="F209" s="6">
@@ -16383,16 +16394,16 @@
       <c r="A210" s="7">
         <v>45601</v>
       </c>
-      <c r="B210" s="6">
+      <c r="B210" s="22">
         <v>67793.297827047994</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="22">
         <v>1170</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="22">
         <v>1931281.125</v>
       </c>
-      <c r="E210" s="6">
+      <c r="E210" s="22">
         <v>60.925925925925917</v>
       </c>
       <c r="F210" s="6">
@@ -16459,16 +16470,16 @@
       <c r="A211" s="7">
         <v>45602</v>
       </c>
-      <c r="B211" s="6">
+      <c r="B211" s="22">
         <v>69335.425531337998</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="22">
         <v>1135</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="22">
         <v>1976613</v>
       </c>
-      <c r="E211" s="6">
+      <c r="E211" s="22">
         <v>61.712962962962962</v>
       </c>
       <c r="F211" s="6">
@@ -16535,16 +16546,16 @@
       <c r="A212" s="7">
         <v>45603</v>
       </c>
-      <c r="B212" s="6">
+      <c r="B212" s="22">
         <v>75620.886069632004</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="22">
         <v>1120</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="22">
         <v>2030329.375</v>
       </c>
-      <c r="E212" s="6">
+      <c r="E212" s="22">
         <v>62.43518518518519</v>
       </c>
       <c r="F212" s="6">
@@ -16611,16 +16622,16 @@
       <c r="A213" s="7">
         <v>45604</v>
       </c>
-      <c r="B213" s="6">
+      <c r="B213" s="22">
         <v>75987.241783207006</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="22">
         <v>1120</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="22">
         <v>1964487.25</v>
       </c>
-      <c r="E213" s="6">
+      <c r="E213" s="22">
         <v>62.370370370370367</v>
       </c>
       <c r="F213" s="6">
@@ -16687,16 +16698,16 @@
       <c r="A214" s="7">
         <v>45607</v>
       </c>
-      <c r="B214" s="6">
+      <c r="B214" s="22">
         <v>80466.716548334996</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="22">
         <v>1135</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="22">
         <v>1987845.875</v>
       </c>
-      <c r="E214" s="6">
+      <c r="E214" s="22">
         <v>63.009259259259252</v>
       </c>
       <c r="F214" s="6">
@@ -16763,16 +16774,16 @@
       <c r="A215" s="7">
         <v>45608</v>
       </c>
-      <c r="B215" s="6">
+      <c r="B215" s="22">
         <v>88637.420003228995</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="22">
         <v>1135</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="22">
         <v>2012040.875</v>
       </c>
-      <c r="E215" s="6">
+      <c r="E215" s="22">
         <v>63.268518518518512</v>
       </c>
       <c r="F215" s="6">
@@ -16839,16 +16850,16 @@
       <c r="A216" s="7">
         <v>45609</v>
       </c>
-      <c r="B216" s="6">
+      <c r="B216" s="22">
         <v>88264.599745828993</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="22">
         <v>1135</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="22">
         <v>2042551</v>
       </c>
-      <c r="E216" s="6">
+      <c r="E216" s="22">
         <v>63.685185185185183</v>
       </c>
       <c r="F216" s="6">
@@ -16915,16 +16926,16 @@
       <c r="A217" s="7">
         <v>45610</v>
       </c>
-      <c r="B217" s="6">
+      <c r="B217" s="22">
         <v>90488.100074978007</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="22">
         <v>1140</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="22">
         <v>2087646.625</v>
       </c>
-      <c r="E217" s="6">
+      <c r="E217" s="22">
         <v>63.685185185185183</v>
       </c>
       <c r="F217" s="6">
@@ -16991,16 +17002,16 @@
       <c r="A218" s="7">
         <v>45611</v>
       </c>
-      <c r="B218" s="6">
+      <c r="B218" s="22">
         <v>87407.512737101002</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="22">
         <v>1140</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="22">
         <v>2066915.25</v>
       </c>
-      <c r="E218" s="6">
+      <c r="E218" s="22">
         <v>64.611111111111114</v>
       </c>
       <c r="F218" s="6">
@@ -17067,16 +17078,16 @@
       <c r="A219" s="7">
         <v>45615</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="22">
         <v>92196.3</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="22">
         <v>1135</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="22">
         <v>2124412.5</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="22">
         <v>65.694444444444443</v>
       </c>
       <c r="F219" s="2">
@@ -17143,16 +17154,16 @@
       <c r="A220" s="7">
         <v>45616</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="22">
         <v>92341.89</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="22">
         <v>1135</v>
       </c>
-      <c r="D220">
+      <c r="D220" s="22">
         <v>2145971.75</v>
       </c>
-      <c r="E220">
+      <c r="E220" s="22">
         <v>66.259259259259252</v>
       </c>
       <c r="F220" s="2">
@@ -17219,16 +17230,16 @@
       <c r="A221" s="7">
         <v>45617</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="22">
         <v>98532.66</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="22">
         <v>1130</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="22">
         <v>2140096.25</v>
       </c>
-      <c r="E221">
+      <c r="E221" s="22">
         <v>65.324074074074062</v>
       </c>
       <c r="F221">
@@ -17295,16 +17306,16 @@
       <c r="A222" s="7">
         <v>45618</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="22">
         <v>99570.3</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="22">
         <v>1135</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="22">
         <v>2211988</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="22">
         <v>65.18518518518519</v>
       </c>
       <c r="F222">
@@ -17371,16 +17382,16 @@
       <c r="A223" s="7">
         <v>45621</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="22">
         <v>94628.45</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="22">
         <v>1130</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="22">
         <v>2218551</v>
       </c>
-      <c r="E223">
+      <c r="E223" s="22">
         <v>65.759259259259252</v>
       </c>
       <c r="F223">
@@ -17447,16 +17458,16 @@
       <c r="A224" s="7">
         <v>45622</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="22">
         <v>92634.26</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="22">
         <v>1130</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="22">
         <v>2252266.25</v>
       </c>
-      <c r="E224">
+      <c r="E224" s="22">
         <v>65.56481481481481</v>
       </c>
       <c r="F224">
@@ -17523,16 +17534,16 @@
       <c r="A225" s="7">
         <v>45623</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="22">
         <v>95858.67</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="22">
         <v>1135</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="22">
         <v>2205245</v>
       </c>
-      <c r="E225">
+      <c r="E225" s="22">
         <v>65.898148148148152</v>
       </c>
       <c r="F225">
@@ -17599,16 +17610,16 @@
       <c r="A226" s="7">
         <v>45624</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="22">
         <v>96551.29</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="22">
         <v>1125</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="22">
         <v>2230803.25</v>
       </c>
-      <c r="E226">
+      <c r="E226" s="22">
         <v>65.916666666666657</v>
       </c>
       <c r="F226">
@@ -17675,16 +17686,16 @@
       <c r="A227" s="7">
         <v>45625</v>
       </c>
-      <c r="B227" s="15">
+      <c r="B227" s="24">
         <v>97286.55</v>
       </c>
-      <c r="C227" s="15">
+      <c r="C227" s="24">
         <v>1120</v>
       </c>
-      <c r="D227" s="15">
+      <c r="D227" s="24">
         <v>2258295</v>
       </c>
-      <c r="E227" s="15">
+      <c r="E227" s="24">
         <v>65.75</v>
       </c>
       <c r="F227" s="15">
@@ -17752,16 +17763,16 @@
       <c r="A228" s="7">
         <v>45628</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="22">
         <v>95865.3</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="22">
         <v>1120</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="22">
         <v>2299129.25</v>
       </c>
-      <c r="E228">
+      <c r="E228" s="22">
         <v>66.527777777777771</v>
       </c>
       <c r="F228">
@@ -17828,16 +17839,16 @@
       <c r="A229" s="7">
         <v>45629</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="22">
         <v>96002.16</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="22">
         <v>1100</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="22">
         <v>2240659.81</v>
       </c>
-      <c r="E229">
+      <c r="E229" s="22">
         <v>66.342592592592595</v>
       </c>
       <c r="F229">
@@ -17904,16 +17915,16 @@
       <c r="A230" s="7">
         <v>45630</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="22">
         <v>98768.53</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="22">
         <v>1090</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="22">
         <v>2216277.7799999998</v>
       </c>
-      <c r="E230">
+      <c r="E230" s="22">
         <v>66.342592592592595</v>
       </c>
       <c r="F230">
@@ -17980,16 +17991,16 @@
       <c r="A231" s="7">
         <v>45631</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="22">
         <v>96757.27</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="22">
         <v>1060</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="22">
         <v>2211583</v>
       </c>
-      <c r="E231">
+      <c r="E231" s="22">
         <v>65.990740740740733</v>
       </c>
       <c r="F231">
@@ -18056,16 +18067,16 @@
       <c r="A232" s="7">
         <v>45632</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="22">
         <v>101236.02</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="22">
         <v>1055</v>
       </c>
-      <c r="D232">
+      <c r="D232" s="22">
         <v>2202444</v>
       </c>
-      <c r="E232">
+      <c r="E232" s="22">
         <v>66.444444444444443</v>
       </c>
       <c r="F232">
@@ -18132,16 +18143,16 @@
       <c r="A233" s="7">
         <v>45635</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="22">
         <v>96929.51</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="22">
         <v>1050</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="22">
         <v>2228858.75</v>
       </c>
-      <c r="E233">
+      <c r="E233" s="22">
         <v>67.222222222222214</v>
       </c>
       <c r="F233">
@@ -18208,16 +18219,16 @@
       <c r="A234" s="7">
         <v>45636</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="22">
         <v>96657.68</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="22">
         <v>1065</v>
       </c>
-      <c r="D234">
+      <c r="D234" s="22">
         <v>2201245.7999999998</v>
       </c>
-      <c r="E234">
+      <c r="E234" s="22">
         <v>66.398148148148138</v>
       </c>
       <c r="F234">
@@ -18284,16 +18295,16 @@
       <c r="A235" s="7">
         <v>45637</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="22">
         <v>101247.07</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="22">
         <v>1070</v>
       </c>
-      <c r="D235">
+      <c r="D235" s="22">
         <v>2291149.25</v>
       </c>
-      <c r="E235">
+      <c r="E235" s="22">
         <v>67.370370370370367</v>
       </c>
       <c r="F235">
@@ -18360,16 +18371,16 @@
       <c r="A236" s="7">
         <v>45638</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="22">
         <v>99432.74</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="22">
         <v>1080</v>
       </c>
-      <c r="D236">
+      <c r="D236" s="22">
         <v>2304089.5</v>
       </c>
-      <c r="E236">
+      <c r="E236" s="22">
         <v>67.444444444444443</v>
       </c>
       <c r="F236">
@@ -18436,16 +18447,16 @@
       <c r="A237" s="7">
         <v>45639</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="22">
         <v>102149.49</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="22">
         <v>1095</v>
       </c>
-      <c r="D237">
+      <c r="D237" s="22">
         <v>2370661.7999999998</v>
       </c>
-      <c r="E237">
+      <c r="E237" s="22">
         <v>67.657407407407391</v>
       </c>
       <c r="F237">
@@ -18512,16 +18523,16 @@
       <c r="A238" s="7">
         <v>45642</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="22">
         <v>106140.6</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="22">
         <v>1105</v>
       </c>
-      <c r="D238">
+      <c r="D238" s="22">
         <v>2543202</v>
       </c>
-      <c r="E238">
+      <c r="E238" s="22">
         <v>69.166666666666671</v>
       </c>
       <c r="F238" s="14">
@@ -18588,16 +18599,16 @@
       <c r="A239" s="7">
         <v>45643</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="22">
         <v>100041.55</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="22">
         <v>1165</v>
       </c>
-      <c r="D239">
+      <c r="D239" s="22">
         <v>2592201</v>
       </c>
-      <c r="E239">
+      <c r="E239" s="22">
         <v>67.629629629629633</v>
       </c>
       <c r="F239" s="6">
@@ -18664,16 +18675,16 @@
       <c r="A240" s="7">
         <v>45644</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="22">
         <v>97490.95</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="22">
         <v>1165</v>
       </c>
-      <c r="D240">
+      <c r="D240" s="22">
         <v>2521017</v>
       </c>
-      <c r="E240">
+      <c r="E240" s="22">
         <v>69.999999999999986</v>
       </c>
       <c r="F240">
@@ -18740,16 +18751,16 @@
       <c r="A241" s="7">
         <v>45645</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="22">
         <v>96625.14</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="22">
         <v>1205</v>
       </c>
-      <c r="D241">
+      <c r="D241" s="22">
         <v>2419894</v>
       </c>
-      <c r="E241">
+      <c r="E241" s="22">
         <v>68.675925925925924</v>
       </c>
       <c r="F241">
@@ -18816,16 +18827,16 @@
       <c r="A242" s="7">
         <v>45646</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="22">
         <v>97755.96</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="22">
         <v>1175</v>
       </c>
-      <c r="D242">
+      <c r="D242" s="22">
         <v>2467562</v>
       </c>
-      <c r="E242">
+      <c r="E242" s="22">
         <v>68.5</v>
       </c>
       <c r="F242">
@@ -18892,16 +18903,16 @@
       <c r="A243" s="7">
         <v>45649</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="22">
         <v>94686.24</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="22">
         <v>1200</v>
       </c>
-      <c r="D243">
+      <c r="D243" s="22">
         <v>2501153</v>
       </c>
-      <c r="E243">
+      <c r="E243" s="22">
         <v>68.518518518518519</v>
       </c>
       <c r="F243">
@@ -18968,16 +18979,16 @@
       <c r="A244" s="7">
         <v>45650</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="22">
         <v>98676.09</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="22">
         <v>1200</v>
       </c>
-      <c r="D244">
+      <c r="D244" s="22">
         <v>2551020</v>
       </c>
-      <c r="E244">
+      <c r="E244" s="22">
         <v>68.509259259259252</v>
       </c>
       <c r="F244">
@@ -19044,16 +19055,16 @@
       <c r="A245" s="7">
         <v>45651</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="22">
         <v>99299.199999999997</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="22">
         <v>1200</v>
       </c>
-      <c r="D245">
+      <c r="D245" s="22">
         <v>2551020</v>
       </c>
-      <c r="E245">
+      <c r="E245" s="22">
         <v>68.509259259259252</v>
       </c>
       <c r="F245">
@@ -19120,16 +19131,16 @@
       <c r="A246" s="7">
         <v>45652</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="22">
         <v>95861.29</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="22">
         <v>1200</v>
       </c>
-      <c r="D246">
+      <c r="D246" s="22">
         <v>2597388.5</v>
       </c>
-      <c r="E246">
+      <c r="E246" s="22">
         <v>69.351851851851848</v>
       </c>
       <c r="F246">
@@ -19196,16 +19207,16 @@
       <c r="A247" s="7">
         <v>45653</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="22">
         <v>94203.26</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="22">
         <v>1210</v>
       </c>
-      <c r="D247">
+      <c r="D247" s="22">
         <v>2577545.67</v>
       </c>
-      <c r="E247">
+      <c r="E247" s="22">
         <v>69.379629629629633</v>
       </c>
       <c r="F247">
@@ -19272,16 +19283,16 @@
       <c r="A248" s="7">
         <v>45656</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="22">
         <v>92643.21</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="22">
         <v>1215</v>
       </c>
-      <c r="D248">
+      <c r="D248" s="22">
         <v>2533635</v>
       </c>
-      <c r="E248">
+      <c r="E248" s="22">
         <v>69.657407407407405</v>
       </c>
       <c r="F248">
@@ -19348,16 +19359,16 @@
       <c r="A249" s="19">
         <v>45657</v>
       </c>
-      <c r="B249" s="15">
+      <c r="B249" s="24">
         <v>93429.2</v>
       </c>
-      <c r="C249" s="15">
+      <c r="C249" s="24">
         <v>1230</v>
       </c>
-      <c r="D249" s="15">
+      <c r="D249" s="24">
         <v>2533635</v>
       </c>
-      <c r="E249" s="15">
+      <c r="E249" s="24">
         <v>69.657407407407405</v>
       </c>
       <c r="F249" s="15">
@@ -19429,16 +19440,16 @@
       <c r="A250" s="7">
         <v>45658</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="22">
         <v>94419.76</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="22">
         <v>1230</v>
       </c>
-      <c r="D250">
+      <c r="D250" s="22">
         <v>2533635</v>
       </c>
-      <c r="E250">
+      <c r="E250" s="22">
         <v>69.657407407407405</v>
       </c>
       <c r="F250">
@@ -19505,16 +19516,16 @@
       <c r="A251" s="7">
         <v>45659</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="22">
         <v>96886.88</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="22">
         <v>1230</v>
       </c>
-      <c r="D251">
+      <c r="D251" s="22">
         <v>2695646</v>
       </c>
-      <c r="E251">
+      <c r="E251" s="22">
         <v>71.175925925925924</v>
       </c>
       <c r="F251">
@@ -19581,16 +19592,16 @@
       <c r="A252" s="7">
         <v>45660</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="22">
         <v>98107.43</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="22">
         <v>1205</v>
       </c>
-      <c r="D252">
+      <c r="D252" s="22">
         <v>2728911</v>
       </c>
-      <c r="E252">
+      <c r="E252" s="22">
         <v>70.611111111111114</v>
       </c>
       <c r="F252">
@@ -19657,16 +19668,16 @@
       <c r="A253" s="7">
         <v>45663</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="22">
         <v>102078.09</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="22">
         <v>1205</v>
       </c>
-      <c r="D253">
+      <c r="D253" s="22">
         <v>2801221</v>
       </c>
-      <c r="E253">
+      <c r="E253" s="22">
         <v>71.287037037037024</v>
       </c>
       <c r="F253">
@@ -19733,16 +19744,16 @@
       <c r="A254" s="7">
         <v>45664</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="22">
         <v>96795.77</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="22">
         <v>1205</v>
       </c>
-      <c r="D254">
+      <c r="D254" s="22">
         <v>2822174.5</v>
       </c>
-      <c r="E254">
+      <c r="E254" s="22">
         <v>71.148148148148152</v>
       </c>
       <c r="F254">
@@ -19809,16 +19820,16 @@
       <c r="A255" s="7">
         <v>45665</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="22">
         <v>95043.520000000004</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="22">
         <v>1215</v>
       </c>
-      <c r="D255">
+      <c r="D255" s="22">
         <v>2782477</v>
       </c>
-      <c r="E255">
+      <c r="E255" s="22">
         <v>68.599999999999994</v>
       </c>
       <c r="F255">
@@ -19885,16 +19896,16 @@
       <c r="A256" s="7">
         <v>45666</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="22">
         <v>92484.04</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="22">
         <v>1220</v>
       </c>
-      <c r="D256">
+      <c r="D256" s="22">
         <v>2829730</v>
       </c>
-      <c r="E256">
+      <c r="E256" s="22">
         <v>68.52</v>
       </c>
       <c r="F256">
@@ -19961,16 +19972,16 @@
       <c r="A257" s="7">
         <v>45667</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="22">
         <v>94701.45</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="22">
         <v>1225</v>
       </c>
-      <c r="D257">
+      <c r="D257" s="22">
         <v>2805140</v>
       </c>
-      <c r="E257">
+      <c r="E257" s="22">
         <v>68.47</v>
       </c>
       <c r="F257">
@@ -20037,16 +20048,16 @@
       <c r="A258" s="7">
         <v>45670</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="22">
         <v>94889.75</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="22">
         <v>1250</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="22">
         <v>2655179</v>
       </c>
-      <c r="E258">
+      <c r="E258" s="22">
         <v>68.56</v>
       </c>
       <c r="F258">
@@ -20113,16 +20124,16 @@
       <c r="A259" s="7">
         <v>45671</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="22">
         <v>96534.05</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="22">
         <v>1240</v>
       </c>
-      <c r="D259">
+      <c r="D259" s="22">
         <v>2733273</v>
       </c>
-      <c r="E259">
+      <c r="E259" s="22">
         <v>68.62</v>
       </c>
       <c r="F259">
@@ -20189,16 +20200,16 @@
       <c r="A260" s="7">
         <v>45672</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="22">
         <v>100504.49</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="22">
         <v>1240</v>
       </c>
-      <c r="D260">
+      <c r="D260" s="22">
         <v>2704474</v>
       </c>
-      <c r="E260">
+      <c r="E260" s="22">
         <v>68.209999999999994</v>
       </c>
       <c r="F260">
@@ -20265,16 +20276,16 @@
       <c r="A261" s="7">
         <v>45673</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="22">
         <v>99756.91</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="22">
         <v>1225</v>
       </c>
-      <c r="D261">
+      <c r="D261" s="22">
         <v>2629377</v>
       </c>
-      <c r="E261">
+      <c r="E261" s="22">
         <v>67.64</v>
       </c>
       <c r="F261">
@@ -20341,16 +20352,16 @@
       <c r="A262" s="7">
         <v>45674</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="22">
         <v>104462.04</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="22">
         <v>1235</v>
       </c>
-      <c r="D262">
+      <c r="D262" s="22">
         <v>2510886</v>
       </c>
-      <c r="E262">
+      <c r="E262" s="22">
         <v>66.930000000000007</v>
       </c>
       <c r="F262">
@@ -20417,16 +20428,16 @@
       <c r="A263" s="7">
         <v>45677</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="22">
         <v>102016.66</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="22">
         <v>1235</v>
       </c>
-      <c r="D263">
+      <c r="D263" s="22">
         <v>2536837.5</v>
       </c>
-      <c r="E263">
+      <c r="E263" s="22">
         <v>67.03</v>
       </c>
       <c r="F263">
@@ -20493,16 +20504,16 @@
       <c r="A264" s="7">
         <v>45678</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="22">
         <v>105970.23</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="22">
         <v>1235</v>
       </c>
-      <c r="D264">
+      <c r="D264" s="22">
         <v>2619719.2000000002</v>
       </c>
-      <c r="E264">
+      <c r="E264" s="22">
         <v>67.06</v>
       </c>
       <c r="F264">
@@ -20569,16 +20580,16 @@
       <c r="A265" s="7">
         <v>45679</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="22">
         <v>103653.07</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="22">
         <v>1235</v>
       </c>
-      <c r="D265">
+      <c r="D265" s="22">
         <v>2680945.7999999998</v>
       </c>
-      <c r="E265">
+      <c r="E265" s="22">
         <v>66.02</v>
       </c>
       <c r="F265">
@@ -20645,16 +20656,16 @@
       <c r="A266" s="7">
         <v>45680</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="22">
         <v>103960.17</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="22">
         <v>1240</v>
       </c>
-      <c r="D266">
+      <c r="D266" s="22">
         <v>2625050</v>
       </c>
-      <c r="E266">
+      <c r="E266" s="22">
         <v>65.790000000000006</v>
       </c>
       <c r="F266">
@@ -20721,16 +20732,16 @@
       <c r="A267" s="7">
         <v>45681</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="22">
         <v>104819.48</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="22">
         <v>1240</v>
       </c>
-      <c r="D267">
+      <c r="D267" s="22">
         <v>2566082</v>
       </c>
-      <c r="E267">
+      <c r="E267" s="22">
         <v>65.94</v>
       </c>
       <c r="F267">
@@ -20797,16 +20808,16 @@
       <c r="A268" s="7">
         <v>45684</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="22">
         <v>102087.69</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="22">
         <v>1230</v>
       </c>
-      <c r="D268">
+      <c r="D268" s="22">
         <v>2439099</v>
       </c>
-      <c r="E268">
+      <c r="E268" s="22">
         <v>65.650000000000006</v>
       </c>
       <c r="F268">
@@ -20873,16 +20884,16 @@
       <c r="A269" s="7">
         <v>45685</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="22">
         <v>101332.48</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="22">
         <v>1230</v>
       </c>
-      <c r="D269">
+      <c r="D269" s="22">
         <v>2435629</v>
       </c>
-      <c r="E269">
+      <c r="E269" s="22">
         <v>66.489999999999995</v>
       </c>
       <c r="F269">
@@ -20949,16 +20960,16 @@
       <c r="A270" s="7">
         <v>45686</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="22">
         <v>103703.21</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="22">
         <v>1220</v>
       </c>
-      <c r="D270">
+      <c r="D270" s="22">
         <v>2545356</v>
       </c>
-      <c r="E270">
+      <c r="E270" s="22">
         <v>66.599999999999994</v>
       </c>
       <c r="F270">
@@ -21025,16 +21036,16 @@
       <c r="A271" s="7">
         <v>45687</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="22">
         <v>104735.3</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="22">
         <v>1220</v>
       </c>
-      <c r="D271">
+      <c r="D271" s="22">
         <v>2599329</v>
       </c>
-      <c r="E271">
+      <c r="E271" s="22">
         <v>66.709999999999994</v>
       </c>
       <c r="F271">
@@ -21101,16 +21112,16 @@
       <c r="A272" s="7">
         <v>45688</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="22">
         <v>102405.42</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="22">
         <v>1220</v>
       </c>
-      <c r="D272">
+      <c r="D272" s="22">
         <v>2564659</v>
       </c>
-      <c r="E272">
+      <c r="E272" s="22">
         <v>66.45</v>
       </c>
       <c r="F272">
@@ -21177,16 +21188,16 @@
       <c r="A273" s="7">
         <v>45691</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="22">
         <v>101405.42</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="22">
         <v>1220</v>
       </c>
-      <c r="D273">
+      <c r="D273" s="22">
         <v>2484136</v>
       </c>
-      <c r="E273">
+      <c r="E273" s="22">
         <v>65.709999999999994</v>
       </c>
       <c r="F273">
@@ -21253,16 +21264,16 @@
       <c r="A274" s="7">
         <v>45692</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="22">
         <v>97871.82</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="22">
         <v>1220</v>
       </c>
-      <c r="D274">
+      <c r="D274" s="22">
         <v>2523647</v>
       </c>
-      <c r="E274">
+      <c r="E274" s="22">
         <v>65.319999999999993</v>
       </c>
       <c r="F274">
@@ -21329,16 +21340,16 @@
       <c r="A275" s="7">
         <v>45693</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="22">
         <v>96615.45</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="22">
         <v>1215</v>
       </c>
-      <c r="D275">
+      <c r="D275" s="22">
         <v>2477714</v>
       </c>
-      <c r="E275">
+      <c r="E275" s="22">
         <v>65.02</v>
       </c>
       <c r="F275">
@@ -21405,16 +21416,16 @@
       <c r="A276" s="7">
         <v>45694</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="22">
         <v>96593.3</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="22">
         <v>1215</v>
       </c>
-      <c r="D276">
+      <c r="D276" s="22">
         <v>2503483</v>
       </c>
-      <c r="E276">
+      <c r="E276" s="22">
         <v>65.44</v>
       </c>
       <c r="F276">
@@ -21481,16 +21492,16 @@
       <c r="A277" s="7">
         <v>45695</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="22">
         <v>96529.09</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="22">
         <v>1215</v>
       </c>
-      <c r="D277">
+      <c r="D277" s="22">
         <v>2416382</v>
       </c>
-      <c r="E277">
+      <c r="E277" s="22">
         <v>65.05</v>
       </c>
       <c r="F277">
@@ -21557,16 +21568,16 @@
       <c r="A278" s="7">
         <v>45698</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="22">
         <v>97437.55</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="22">
         <v>1205</v>
       </c>
-      <c r="D278">
+      <c r="D278" s="22">
         <v>2391368</v>
       </c>
-      <c r="E278">
+      <c r="E278" s="22">
         <v>64.650000000000006</v>
       </c>
       <c r="F278">
@@ -21633,16 +21644,16 @@
       <c r="A279" s="7">
         <v>45699</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="22">
         <v>95747.43</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="22">
         <v>1205</v>
       </c>
-      <c r="D279">
+      <c r="D279" s="22">
         <v>2273568</v>
       </c>
-      <c r="E279">
+      <c r="E279" s="22">
         <v>64.64</v>
       </c>
       <c r="F279">
@@ -21709,16 +21720,16 @@
       <c r="A280" s="7">
         <v>45700</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="22">
         <v>97885.86</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="22">
         <v>1210</v>
       </c>
-      <c r="D280">
+      <c r="D280" s="22">
         <v>2285846</v>
       </c>
-      <c r="E280">
+      <c r="E280" s="22">
         <v>64.930000000000007</v>
       </c>
       <c r="F280">
@@ -21785,16 +21796,16 @@
       <c r="A281" s="7">
         <v>45701</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="22">
         <v>96623.87</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="22">
         <v>1220</v>
       </c>
-      <c r="D281">
+      <c r="D281" s="22">
         <v>2353744</v>
       </c>
-      <c r="E281">
+      <c r="E281" s="22">
         <v>65.569999999999993</v>
       </c>
       <c r="F281">
@@ -21861,16 +21872,16 @@
       <c r="A282" s="7">
         <v>45702</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="22">
         <v>97508.97</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="22">
         <v>1225</v>
       </c>
-      <c r="D282">
+      <c r="D282" s="22">
         <v>2387386</v>
       </c>
-      <c r="E282">
+      <c r="E282" s="22">
         <v>65.75</v>
       </c>
       <c r="F282">
@@ -21937,16 +21948,16 @@
       <c r="A283" s="7">
         <v>45705</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="22">
         <v>95773.38</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="22">
         <v>1220</v>
       </c>
-      <c r="D283">
+      <c r="D283" s="22">
         <v>2254189</v>
       </c>
-      <c r="E283">
+      <c r="E283" s="22">
         <v>64.83</v>
       </c>
       <c r="F283">
@@ -22013,16 +22024,16 @@
       <c r="A284" s="7">
         <v>45706</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="22">
         <v>95539.55</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="22">
         <v>1235</v>
       </c>
-      <c r="D284">
+      <c r="D284" s="22">
         <v>2391725</v>
       </c>
-      <c r="E284">
+      <c r="E284" s="22">
         <v>65.12</v>
       </c>
       <c r="F284">
@@ -22089,16 +22100,16 @@
       <c r="A285" s="7">
         <v>45707</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="22">
         <v>96555.79</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="22">
         <v>1235</v>
       </c>
-      <c r="D285">
+      <c r="D285" s="22">
         <v>2401579</v>
       </c>
-      <c r="E285">
+      <c r="E285" s="22">
         <v>64.650000000000006</v>
       </c>
       <c r="F285">
@@ -22145,7 +22156,7 @@
         <v>-7.2436164764183315E-3</v>
       </c>
       <c r="Q285" s="4">
-        <f t="shared" ref="Q285:T289" si="243">+_xlfn.STDEV.S(N268:N287)</f>
+        <f t="shared" ref="Q285:T288" si="243">+_xlfn.STDEV.S(N268:N287)</f>
         <v>5.3495668696416417E-3</v>
       </c>
       <c r="R285" s="4">
@@ -22165,16 +22176,16 @@
       <c r="A286" s="7">
         <v>45708</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="22">
         <v>98333.94</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="22">
         <v>1225</v>
       </c>
-      <c r="D286">
+      <c r="D286" s="22">
         <v>2410221</v>
       </c>
-      <c r="E286">
+      <c r="E286" s="22">
         <v>64.849999999999994</v>
       </c>
       <c r="F286">
@@ -22241,16 +22252,16 @@
       <c r="A287" s="7">
         <v>45709</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="22">
         <v>96125.55</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="22">
         <v>1225</v>
       </c>
-      <c r="D287">
+      <c r="D287" s="22">
         <v>2364529</v>
       </c>
-      <c r="E287">
+      <c r="E287" s="22">
         <v>64.650000000000006</v>
       </c>
       <c r="F287">
@@ -22317,16 +22328,16 @@
       <c r="A288" s="7">
         <v>45710</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="22">
         <v>96577.76</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="22">
         <v>1230</v>
       </c>
-      <c r="D288">
+      <c r="D288" s="22">
         <v>2348398</v>
       </c>
-      <c r="E288">
+      <c r="E288" s="22">
         <v>64.7</v>
       </c>
       <c r="F288">
@@ -22393,16 +22404,16 @@
       <c r="A289" s="7">
         <v>45713</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="22">
         <v>88685.65</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="22">
         <v>1240</v>
       </c>
-      <c r="D289">
+      <c r="D289" s="22">
         <v>2282899</v>
       </c>
-      <c r="E289">
+      <c r="E289" s="22">
         <v>64.400000000000006</v>
       </c>
       <c r="F289">
@@ -22469,16 +22480,16 @@
       <c r="A290" s="7">
         <v>45714</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="22">
         <v>88736.17</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="22">
         <v>1240</v>
       </c>
-      <c r="D290">
+      <c r="D290" s="22">
         <v>2275037</v>
       </c>
-      <c r="E290">
+      <c r="E290" s="22">
         <v>64.38</v>
       </c>
       <c r="F290">
@@ -22545,16 +22556,16 @@
       <c r="A291" s="7">
         <v>45715</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="22">
         <v>84347.02</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="22">
         <v>1230</v>
       </c>
-      <c r="D291">
+      <c r="D291" s="22">
         <v>2193657</v>
       </c>
-      <c r="E291">
+      <c r="E291" s="22">
         <v>64.099999999999994</v>
       </c>
       <c r="F291">
@@ -22617,20 +22628,20 @@
         <v>6.0174676287807803E-3</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A292" s="7">
         <v>45716</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="22">
         <v>84373.01</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="22">
         <v>1225</v>
       </c>
-      <c r="D292">
+      <c r="D292" s="22">
         <v>2205801</v>
       </c>
-      <c r="E292">
+      <c r="E292" s="22">
         <v>63.9</v>
       </c>
       <c r="F292">
@@ -22692,6 +22703,486 @@
         <f t="shared" si="244"/>
         <v>6.0069578250015864E-3</v>
       </c>
+    </row>
+    <row r="293" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="7">
+        <v>45721</v>
+      </c>
+      <c r="B293" s="22">
+        <v>93623.56</v>
+      </c>
+      <c r="C293" s="22">
+        <v>1230</v>
+      </c>
+      <c r="D293" s="22">
+        <v>2290050</v>
+      </c>
+      <c r="E293" s="22">
+        <v>65.53</v>
+      </c>
+      <c r="F293">
+        <v>212.88158343961084</v>
+      </c>
+      <c r="G293" s="2">
+        <f t="shared" ref="G293:G298" si="245">+F293/$U$1</f>
+        <v>2.1288158343961086</v>
+      </c>
+      <c r="H293" s="8">
+        <f t="shared" ref="H293:H298" si="246">+B293/G293</f>
+        <v>43979.173062924274</v>
+      </c>
+      <c r="I293">
+        <f t="shared" ref="I293:I298" si="247">+C293/G293</f>
+        <v>577.78600672092432</v>
+      </c>
+      <c r="J293">
+        <f t="shared" ref="J293:J298" si="248">+D293/F293</f>
+        <v>10757.388981229697</v>
+      </c>
+      <c r="K293">
+        <f t="shared" ref="K293:K298" si="249">+D293/C293/G293</f>
+        <v>874.58447001867444</v>
+      </c>
+      <c r="L293">
+        <f t="shared" ref="L293:L298" si="250">+E293/G293</f>
+        <v>30.782371561318836</v>
+      </c>
+      <c r="M293" s="4">
+        <f t="shared" ref="M293:M298" si="251">+LN(B293/B292)</f>
+        <v>0.10403449748238534</v>
+      </c>
+      <c r="N293" s="4">
+        <f t="shared" ref="N293:N298" si="252">+LN(C293/C292)</f>
+        <v>4.0733253876358688E-3</v>
+      </c>
+      <c r="O293" s="4">
+        <f t="shared" ref="O293:O298" si="253">+LN(D293/D292)</f>
+        <v>3.7482943148858784E-2</v>
+      </c>
+      <c r="P293" s="4">
+        <f t="shared" ref="P293:P298" si="254">+LN(E293/E292)</f>
+        <v>2.5188691667916371E-2</v>
+      </c>
+      <c r="Q293" s="4">
+        <f t="shared" ref="Q293:Q298" si="255">+_xlfn.STDEV.S(M274:M293)</f>
+        <v>3.5700491697061743E-2</v>
+      </c>
+      <c r="R293" s="4">
+        <f t="shared" ref="R293:R298" si="256">+_xlfn.STDEV.S(N274:N293)</f>
+        <v>5.6031695687054853E-3</v>
+      </c>
+      <c r="S293" s="4">
+        <f t="shared" ref="S293:S298" si="257">+_xlfn.STDEV.S(O274:O293)</f>
+        <v>2.9185915360775853E-2</v>
+      </c>
+      <c r="T293" s="4">
+        <f t="shared" ref="T293:T298" si="258">+_xlfn.STDEV.S(P274:P293)</f>
+        <v>8.1783755080545983E-3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="7">
+        <v>45722</v>
+      </c>
+      <c r="B294" s="22">
+        <v>89961.73</v>
+      </c>
+      <c r="C294" s="22">
+        <v>1225</v>
+      </c>
+      <c r="D294" s="22">
+        <v>2270181</v>
+      </c>
+      <c r="E294" s="22">
+        <v>65.290000000000006</v>
+      </c>
+      <c r="F294">
+        <v>213.0376965937038</v>
+      </c>
+      <c r="G294" s="2">
+        <f t="shared" si="245"/>
+        <v>2.130376965937038</v>
+      </c>
+      <c r="H294" s="8">
+        <f t="shared" si="246"/>
+        <v>42228.080493928304</v>
+      </c>
+      <c r="I294">
+        <f t="shared" si="247"/>
+        <v>575.01560502518316</v>
+      </c>
+      <c r="J294">
+        <f t="shared" si="248"/>
+        <v>10656.240826381023</v>
+      </c>
+      <c r="K294">
+        <f t="shared" si="249"/>
+        <v>869.89721031681825</v>
+      </c>
+      <c r="L294">
+        <f t="shared" si="250"/>
+        <v>30.647158246607521</v>
+      </c>
+      <c r="M294" s="4">
+        <f t="shared" si="251"/>
+        <v>-3.9897703536322389E-2</v>
+      </c>
+      <c r="N294" s="4">
+        <f t="shared" si="252"/>
+        <v>-4.0733253876357864E-3</v>
+      </c>
+      <c r="O294" s="4">
+        <f t="shared" si="253"/>
+        <v>-8.7140873915138705E-3</v>
+      </c>
+      <c r="P294" s="4">
+        <f t="shared" si="254"/>
+        <v>-3.6691678528633534E-3</v>
+      </c>
+      <c r="Q294" s="4">
+        <f t="shared" si="255"/>
+        <v>3.5919121528583772E-2</v>
+      </c>
+      <c r="R294" s="4">
+        <f t="shared" si="256"/>
+        <v>5.6921101344567637E-3</v>
+      </c>
+      <c r="S294" s="4">
+        <f t="shared" si="257"/>
+        <v>2.8820857698031367E-2</v>
+      </c>
+      <c r="T294" s="4">
+        <f t="shared" si="258"/>
+        <v>8.1085487658654667E-3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="7">
+        <v>45723</v>
+      </c>
+      <c r="B295" s="22">
+        <v>86742.67</v>
+      </c>
+      <c r="C295" s="22">
+        <v>1215</v>
+      </c>
+      <c r="D295" s="22">
+        <v>2262289</v>
+      </c>
+      <c r="E295" s="22">
+        <v>65.650000000000006</v>
+      </c>
+      <c r="F295">
+        <v>213.19392423077124</v>
+      </c>
+      <c r="G295" s="2">
+        <f t="shared" si="245"/>
+        <v>2.1319392423077126</v>
+      </c>
+      <c r="H295" s="8">
+        <f t="shared" si="246"/>
+        <v>40687.214850506527</v>
+      </c>
+      <c r="I295">
+        <f t="shared" si="247"/>
+        <v>569.9036707466513</v>
+      </c>
+      <c r="J295">
+        <f t="shared" si="248"/>
+        <v>10611.414036129805</v>
+      </c>
+      <c r="K295">
+        <f t="shared" si="249"/>
+        <v>873.36741038105379</v>
+      </c>
+      <c r="L295">
+        <f t="shared" si="250"/>
+        <v>30.793560481084498</v>
+      </c>
+      <c r="M295" s="4">
+        <f t="shared" si="251"/>
+        <v>-3.6438438095662447E-2</v>
+      </c>
+      <c r="N295" s="4">
+        <f t="shared" si="252"/>
+        <v>-8.196767204178515E-3</v>
+      </c>
+      <c r="O295" s="4">
+        <f t="shared" si="253"/>
+        <v>-3.482431422927566E-3</v>
+      </c>
+      <c r="P295" s="4">
+        <f t="shared" si="254"/>
+        <v>5.4987155502630846E-3</v>
+      </c>
+      <c r="Q295" s="4">
+        <f t="shared" si="255"/>
+        <v>3.6597713547388062E-2</v>
+      </c>
+      <c r="R295" s="4">
+        <f t="shared" si="256"/>
+        <v>5.9239032803934284E-3</v>
+      </c>
+      <c r="S295" s="4">
+        <f t="shared" si="257"/>
+        <v>2.8657135681705331E-2</v>
+      </c>
+      <c r="T295" s="4">
+        <f t="shared" si="258"/>
+        <v>8.1228371778681377E-3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="7">
+        <v>45726</v>
+      </c>
+      <c r="B296" s="22">
+        <v>78532</v>
+      </c>
+      <c r="C296" s="22">
+        <v>1215</v>
+      </c>
+      <c r="D296" s="22">
+        <v>2138846</v>
+      </c>
+      <c r="E296" s="22">
+        <v>65</v>
+      </c>
+      <c r="F296">
+        <v>213.35026643476732</v>
+      </c>
+      <c r="G296" s="2">
+        <f t="shared" si="245"/>
+        <v>2.1335026643476733</v>
+      </c>
+      <c r="H296" s="8">
+        <f t="shared" si="246"/>
+        <v>36808.95332934185</v>
+      </c>
+      <c r="I296">
+        <f t="shared" si="247"/>
+        <v>569.486047664014</v>
+      </c>
+      <c r="J296">
+        <f t="shared" si="248"/>
+        <v>10025.044897958731</v>
+      </c>
+      <c r="K296">
+        <f t="shared" si="249"/>
+        <v>825.10657596368151</v>
+      </c>
+      <c r="L296">
+        <f t="shared" si="250"/>
+        <v>30.466331768033672</v>
+      </c>
+      <c r="M296" s="4">
+        <f t="shared" si="251"/>
+        <v>-9.9439734543271749E-2</v>
+      </c>
+      <c r="N296" s="4">
+        <f t="shared" si="252"/>
+        <v>0</v>
+      </c>
+      <c r="O296" s="4">
+        <f t="shared" si="253"/>
+        <v>-5.6110701326003688E-2</v>
+      </c>
+      <c r="P296" s="4">
+        <f t="shared" si="254"/>
+        <v>-9.950330853168203E-3</v>
+      </c>
+      <c r="Q296" s="4">
+        <f t="shared" si="255"/>
+        <v>4.2162040796392644E-2</v>
+      </c>
+      <c r="R296" s="4">
+        <f t="shared" si="256"/>
+        <v>5.9239032803934284E-3</v>
+      </c>
+      <c r="S296" s="4">
+        <f t="shared" si="257"/>
+        <v>3.0624582984084096E-2</v>
+      </c>
+      <c r="T296" s="4">
+        <f t="shared" si="258"/>
+        <v>8.3147104287573416E-3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="7">
+        <v>45727</v>
+      </c>
+      <c r="B297" s="22">
+        <v>82862.210000000006</v>
+      </c>
+      <c r="C297" s="22">
+        <v>1220</v>
+      </c>
+      <c r="D297" s="22">
+        <v>2159500</v>
+      </c>
+      <c r="E297" s="22">
+        <v>64.98</v>
+      </c>
+      <c r="F297">
+        <v>213.50672328970779</v>
+      </c>
+      <c r="G297" s="2">
+        <f t="shared" si="245"/>
+        <v>2.1350672328970779</v>
+      </c>
+      <c r="H297" s="8">
+        <f t="shared" si="246"/>
+        <v>38810.117416098452</v>
+      </c>
+      <c r="I297">
+        <f t="shared" si="247"/>
+        <v>571.41057724190682</v>
+      </c>
+      <c r="J297">
+        <f t="shared" si="248"/>
+        <v>10114.435586507359</v>
+      </c>
+      <c r="K297">
+        <f t="shared" si="249"/>
+        <v>829.05209725470149</v>
+      </c>
+      <c r="L297">
+        <f t="shared" si="250"/>
+        <v>30.43463877801566</v>
+      </c>
+      <c r="M297" s="4">
+        <f t="shared" si="251"/>
+        <v>5.3672922751161582E-2</v>
+      </c>
+      <c r="N297" s="4">
+        <f t="shared" si="252"/>
+        <v>4.1067819526535024E-3</v>
+      </c>
+      <c r="O297" s="4">
+        <f t="shared" si="253"/>
+        <v>9.6102821701398323E-3</v>
+      </c>
+      <c r="P297" s="4">
+        <f t="shared" si="254"/>
+        <v>-3.0773965468278988E-4</v>
+      </c>
+      <c r="Q297" s="4">
+        <f t="shared" si="255"/>
+        <v>4.4504664345643215E-2</v>
+      </c>
+      <c r="R297" s="4">
+        <f t="shared" si="256"/>
+        <v>5.9946570357100534E-3</v>
+      </c>
+      <c r="S297" s="4">
+        <f t="shared" si="257"/>
+        <v>3.0144550094823207E-2</v>
+      </c>
+      <c r="T297" s="4">
+        <f t="shared" si="258"/>
+        <v>8.2082624578041618E-3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="7">
+        <v>45728</v>
+      </c>
+      <c r="B298" s="22">
+        <v>83722.36</v>
+      </c>
+      <c r="C298" s="22">
+        <v>1220</v>
+      </c>
+      <c r="D298" s="22">
+        <v>2272937</v>
+      </c>
+      <c r="E298" s="22">
+        <v>64.75</v>
+      </c>
+      <c r="F298">
+        <v>213.66329487966999</v>
+      </c>
+      <c r="G298" s="2">
+        <f t="shared" si="245"/>
+        <v>2.1366329487967</v>
+      </c>
+      <c r="H298" s="8">
+        <f t="shared" si="246"/>
+        <v>39184.250176030662</v>
+      </c>
+      <c r="I298">
+        <f t="shared" si="247"/>
+        <v>570.99184990434344</v>
+      </c>
+      <c r="J298">
+        <f t="shared" si="248"/>
+        <v>10637.938543819908</v>
+      </c>
+      <c r="K298">
+        <f t="shared" si="249"/>
+        <v>871.96217572294313</v>
+      </c>
+      <c r="L298">
+        <f t="shared" si="250"/>
+        <v>30.304690394513308</v>
+      </c>
+      <c r="M298" s="4">
+        <f t="shared" si="251"/>
+        <v>1.032697859492885E-2</v>
+      </c>
+      <c r="N298" s="4">
+        <f t="shared" si="252"/>
+        <v>0</v>
+      </c>
+      <c r="O298" s="4">
+        <f t="shared" si="253"/>
+        <v>5.1196114393674212E-2</v>
+      </c>
+      <c r="P298" s="4">
+        <f t="shared" si="254"/>
+        <v>-3.5458296613071912E-3</v>
+      </c>
+      <c r="Q298" s="4">
+        <f t="shared" si="255"/>
+        <v>4.4524472711543014E-2</v>
+      </c>
+      <c r="R298" s="4">
+        <f t="shared" si="256"/>
+        <v>5.6553238230990953E-3</v>
+      </c>
+      <c r="S298" s="4">
+        <f t="shared" si="257"/>
+        <v>3.2671070853905679E-2</v>
+      </c>
+      <c r="T298" s="4">
+        <f t="shared" si="258"/>
+        <v>8.1259877154959432E-3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="7"/>
+    </row>
+    <row r="300" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="7"/>
+    </row>
+    <row r="301" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="7"/>
+    </row>
+    <row r="302" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="7"/>
+    </row>
+    <row r="303" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="7"/>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A304" s="7"/>
+    </row>
+    <row r="306" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F306" s="26"/>
+    </row>
+    <row r="308" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F308" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-1-DASHBOARD-INTERESANTES-STREAMLIT-PYTHON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walte\Documents\1-1-1-1-DASHBOARD-INTERESANTES-STREAMLIT-PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,16 +90,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="9">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="175" formatCode="0.000000%"/>
-    <numFmt numFmtId="185" formatCode="_-* #,##0.000000000_-;\-* #,##0.000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -181,12 +178,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,14 +213,11 @@
     </xf>
     <xf numFmtId="168" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Millares" xfId="2" builtinId="3"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -504,12 +497,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y308"/>
+  <dimension ref="A1:Y309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="AL290" sqref="AL290"/>
+      <selection pane="bottomLeft" activeCell="B293" sqref="B293:L309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23161,28 +23154,840 @@
       </c>
     </row>
     <row r="299" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A299" s="7"/>
+      <c r="A299" s="7">
+        <v>45729</v>
+      </c>
+      <c r="B299" s="22">
+        <v>81066.7</v>
+      </c>
+      <c r="C299" s="22">
+        <v>1230</v>
+      </c>
+      <c r="D299" s="22">
+        <v>2232180</v>
+      </c>
+      <c r="E299" s="22">
+        <v>64.44</v>
+      </c>
+      <c r="F299">
+        <v>213.83422551557371</v>
+      </c>
+      <c r="G299" s="2">
+        <f t="shared" ref="G299:G309" si="259">+F299/$U$1</f>
+        <v>2.1383422551557372</v>
+      </c>
+      <c r="H299" s="8">
+        <f t="shared" ref="H299:H309" si="260">+B299/G299</f>
+        <v>37911.003163567868</v>
+      </c>
+      <c r="I299">
+        <f t="shared" ref="I299:I309" si="261">+C299/G299</f>
+        <v>575.2119414160004</v>
+      </c>
+      <c r="J299">
+        <f t="shared" ref="J299:J309" si="262">+D299/F299</f>
+        <v>10438.834076341202</v>
+      </c>
+      <c r="K299">
+        <f t="shared" ref="K299:K309" si="263">+D299/C299/G299</f>
+        <v>848.68569726351222</v>
+      </c>
+      <c r="L299">
+        <f t="shared" ref="L299:L309" si="264">+E299/G299</f>
+        <v>30.135493906379725</v>
+      </c>
+      <c r="M299" s="4">
+        <f t="shared" ref="M299:M309" si="265">+LN(B299/B298)</f>
+        <v>-3.2233813774564989E-2</v>
+      </c>
+      <c r="N299" s="4">
+        <f t="shared" ref="N299:N309" si="266">+LN(C299/C298)</f>
+        <v>8.1633106391608354E-3</v>
+      </c>
+      <c r="O299" s="4">
+        <f t="shared" ref="O299:O309" si="267">+LN(D299/D298)</f>
+        <v>-1.8094141383584339E-2</v>
+      </c>
+      <c r="P299" s="4">
+        <f t="shared" ref="P299:P309" si="268">+LN(E299/E298)</f>
+        <v>-4.7991422708735312E-3</v>
+      </c>
+      <c r="Q299" s="4">
+        <f t="shared" ref="Q299:Q309" si="269">+_xlfn.STDEV.S(M280:M299)</f>
+        <v>4.4818099077369507E-2</v>
+      </c>
+      <c r="R299" s="4">
+        <f t="shared" ref="R299:R309" si="270">+_xlfn.STDEV.S(N280:N299)</f>
+        <v>5.8977232542950812E-3</v>
+      </c>
+      <c r="S299" s="4">
+        <f t="shared" ref="S299:S309" si="271">+_xlfn.STDEV.S(O280:O299)</f>
+        <v>3.0922919413713036E-2</v>
+      </c>
+      <c r="T299" s="4">
+        <f t="shared" ref="T299:T309" si="272">+_xlfn.STDEV.S(P280:P299)</f>
+        <v>8.199001819155817E-3</v>
+      </c>
     </row>
     <row r="300" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A300" s="7"/>
+      <c r="A300" s="7">
+        <v>45730</v>
+      </c>
+      <c r="B300" s="22">
+        <v>83969.1</v>
+      </c>
+      <c r="C300" s="22">
+        <v>1235</v>
+      </c>
+      <c r="D300" s="22">
+        <v>2335575</v>
+      </c>
+      <c r="E300" s="22">
+        <v>64.260000000000005</v>
+      </c>
+      <c r="F300">
+        <v>214.00529289598614</v>
+      </c>
+      <c r="G300" s="2">
+        <f t="shared" si="259"/>
+        <v>2.1400529289598613</v>
+      </c>
+      <c r="H300" s="8">
+        <f t="shared" si="260"/>
+        <v>39236.926743121185</v>
+      </c>
+      <c r="I300">
+        <f t="shared" si="261"/>
+        <v>577.08853051604297</v>
+      </c>
+      <c r="J300">
+        <f t="shared" si="262"/>
+        <v>10913.631940566858</v>
+      </c>
+      <c r="K300">
+        <f t="shared" si="263"/>
+        <v>883.69489397302493</v>
+      </c>
+      <c r="L300">
+        <f t="shared" si="264"/>
+        <v>30.027294713328683</v>
+      </c>
+      <c r="M300" s="4">
+        <f t="shared" si="265"/>
+        <v>3.5176601416392346E-2</v>
+      </c>
+      <c r="N300" s="4">
+        <f t="shared" si="266"/>
+        <v>4.056800695614469E-3</v>
+      </c>
+      <c r="O300" s="4">
+        <f t="shared" si="267"/>
+        <v>4.527942705359795E-2</v>
+      </c>
+      <c r="P300" s="4">
+        <f t="shared" si="268"/>
+        <v>-2.7972046210611424E-3</v>
+      </c>
+      <c r="Q300" s="4">
+        <f t="shared" si="269"/>
+        <v>4.5377571401441504E-2</v>
+      </c>
+      <c r="R300" s="4">
+        <f t="shared" si="270"/>
+        <v>5.8954185669945211E-3</v>
+      </c>
+      <c r="S300" s="4">
+        <f t="shared" si="271"/>
+        <v>3.2592579119940367E-2</v>
+      </c>
+      <c r="T300" s="4">
+        <f t="shared" si="272"/>
+        <v>8.1438915031540292E-3</v>
+      </c>
     </row>
     <row r="301" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A301" s="7"/>
+      <c r="A301" s="7">
+        <v>45733</v>
+      </c>
+      <c r="B301" s="22">
+        <v>84343.11</v>
+      </c>
+      <c r="C301" s="22">
+        <v>1240</v>
+      </c>
+      <c r="D301" s="22">
+        <v>2346306</v>
+      </c>
+      <c r="E301" s="22">
+        <v>64.05</v>
+      </c>
+      <c r="F301">
+        <v>214.17649713030292</v>
+      </c>
+      <c r="G301" s="2">
+        <f t="shared" si="259"/>
+        <v>2.1417649713030293</v>
+      </c>
+      <c r="H301" s="8">
+        <f t="shared" si="260"/>
+        <v>39380.189297188132</v>
+      </c>
+      <c r="I301">
+        <f t="shared" si="261"/>
+        <v>578.96175192630767</v>
+      </c>
+      <c r="J301">
+        <f t="shared" si="262"/>
+        <v>10955.011550929092</v>
+      </c>
+      <c r="K301">
+        <f t="shared" si="263"/>
+        <v>883.4686734620235</v>
+      </c>
+      <c r="L301">
+        <f t="shared" si="264"/>
+        <v>29.905242105548393</v>
+      </c>
+      <c r="M301" s="4">
+        <f t="shared" si="265"/>
+        <v>4.4442481695146103E-3</v>
+      </c>
+      <c r="N301" s="4">
+        <f t="shared" si="266"/>
+        <v>4.0404095370049058E-3</v>
+      </c>
+      <c r="O301" s="4">
+        <f t="shared" si="267"/>
+        <v>4.5840630257094044E-3</v>
+      </c>
+      <c r="P301" s="4">
+        <f t="shared" si="268"/>
+        <v>-3.273325344969249E-3</v>
+      </c>
+      <c r="Q301" s="4">
+        <f t="shared" si="269"/>
+        <v>4.5437463534782611E-2</v>
+      </c>
+      <c r="R301" s="4">
+        <f t="shared" si="270"/>
+        <v>5.6968974991152823E-3</v>
+      </c>
+      <c r="S301" s="4">
+        <f t="shared" si="271"/>
+        <v>3.1929301650349684E-2</v>
+      </c>
+      <c r="T301" s="4">
+        <f t="shared" si="272"/>
+        <v>7.7883803691074678E-3</v>
+      </c>
     </row>
     <row r="302" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A302" s="7"/>
+      <c r="A302" s="7">
+        <v>45734</v>
+      </c>
+      <c r="B302" s="22">
+        <v>82718.5</v>
+      </c>
+      <c r="C302" s="22">
+        <v>1255</v>
+      </c>
+      <c r="D302" s="22">
+        <v>2288538</v>
+      </c>
+      <c r="E302" s="22">
+        <v>63.11</v>
+      </c>
+      <c r="F302">
+        <v>214.34783832800716</v>
+      </c>
+      <c r="G302" s="2">
+        <f t="shared" si="259"/>
+        <v>2.1434783832800717</v>
+      </c>
+      <c r="H302" s="8">
+        <f t="shared" si="260"/>
+        <v>38590.778729207188</v>
+      </c>
+      <c r="I302">
+        <f t="shared" si="261"/>
+        <v>585.49692396688795</v>
+      </c>
+      <c r="J302">
+        <f t="shared" si="262"/>
+        <v>10676.748680329354</v>
+      </c>
+      <c r="K302">
+        <f t="shared" si="263"/>
+        <v>850.73694663978915</v>
+      </c>
+      <c r="L302">
+        <f t="shared" si="264"/>
+        <v>29.442797507211392</v>
+      </c>
+      <c r="M302" s="4">
+        <f t="shared" si="265"/>
+        <v>-1.944984506051178E-2</v>
+      </c>
+      <c r="N302" s="4">
+        <f t="shared" si="266"/>
+        <v>1.2024192966801812E-2</v>
+      </c>
+      <c r="O302" s="4">
+        <f t="shared" si="267"/>
+        <v>-2.492899077136846E-2</v>
+      </c>
+      <c r="P302" s="4">
+        <f t="shared" si="268"/>
+        <v>-1.4784792746595041E-2</v>
+      </c>
+      <c r="Q302" s="4">
+        <f t="shared" si="269"/>
+        <v>4.5359790525480947E-2</v>
+      </c>
+      <c r="R302" s="4">
+        <f t="shared" si="270"/>
+        <v>6.1918554345259356E-3</v>
+      </c>
+      <c r="S302" s="4">
+        <f t="shared" si="271"/>
+        <v>3.2201070266696205E-2</v>
+      </c>
+      <c r="T302" s="4">
+        <f t="shared" si="272"/>
+        <v>8.2943500904237282E-3</v>
+      </c>
     </row>
     <row r="303" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A303" s="7"/>
-    </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A304" s="7"/>
-    </row>
-    <row r="306" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F306" s="26"/>
-    </row>
-    <row r="308" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F308" s="25"/>
+      <c r="A303" s="7">
+        <v>45735</v>
+      </c>
+      <c r="B303" s="22">
+        <v>86854.23</v>
+      </c>
+      <c r="C303" s="22">
+        <v>1280</v>
+      </c>
+      <c r="D303" s="22">
+        <v>2392030</v>
+      </c>
+      <c r="E303" s="22">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="F303">
+        <v>214.51931659866955</v>
+      </c>
+      <c r="G303" s="2">
+        <f t="shared" si="259"/>
+        <v>2.1451931659866954</v>
+      </c>
+      <c r="H303" s="8">
+        <f t="shared" si="260"/>
+        <v>40487.836422903594</v>
+      </c>
+      <c r="I303">
+        <f t="shared" si="261"/>
+        <v>596.68286301446233</v>
+      </c>
+      <c r="J303">
+        <f t="shared" si="262"/>
+        <v>11150.650850128783</v>
+      </c>
+      <c r="K303">
+        <f t="shared" si="263"/>
+        <v>871.14459766631114</v>
+      </c>
+      <c r="L303">
+        <f t="shared" si="264"/>
+        <v>30.11383824276114</v>
+      </c>
+      <c r="M303" s="4">
+        <f t="shared" si="265"/>
+        <v>4.8787919030869355E-2</v>
+      </c>
+      <c r="N303" s="4">
+        <f t="shared" si="266"/>
+        <v>1.9724505347778573E-2</v>
+      </c>
+      <c r="O303" s="4">
+        <f t="shared" si="267"/>
+        <v>4.4229192079110226E-2</v>
+      </c>
+      <c r="P303" s="4">
+        <f t="shared" si="268"/>
+        <v>2.3335175192407999E-2</v>
+      </c>
+      <c r="Q303" s="4">
+        <f t="shared" si="269"/>
+        <v>4.7030593425435842E-2</v>
+      </c>
+      <c r="R303" s="4">
+        <f t="shared" si="270"/>
+        <v>7.3082344357941337E-3</v>
+      </c>
+      <c r="S303" s="4">
+        <f t="shared" si="271"/>
+        <v>3.1013574247711131E-2</v>
+      </c>
+      <c r="T303" s="4">
+        <f t="shared" si="272"/>
+        <v>9.5598805757413276E-3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="7">
+        <v>45736</v>
+      </c>
+      <c r="B304" s="22">
+        <v>84167.2</v>
+      </c>
+      <c r="C304" s="22">
+        <v>1280</v>
+      </c>
+      <c r="D304" s="22">
+        <v>2361583</v>
+      </c>
+      <c r="E304" s="22">
+        <v>64.05</v>
+      </c>
+      <c r="F304">
+        <v>214.69093205194847</v>
+      </c>
+      <c r="G304" s="2">
+        <f t="shared" si="259"/>
+        <v>2.1469093205194847</v>
+      </c>
+      <c r="H304" s="8">
+        <f t="shared" si="260"/>
+        <v>39203.891471128445</v>
+      </c>
+      <c r="I304">
+        <f t="shared" si="261"/>
+        <v>596.20589829582559</v>
+      </c>
+      <c r="J304">
+        <f t="shared" si="262"/>
+        <v>10999.919639962116</v>
+      </c>
+      <c r="K304">
+        <f t="shared" si="263"/>
+        <v>859.36872187204028</v>
+      </c>
+      <c r="L304">
+        <f t="shared" si="264"/>
+        <v>29.833584207693463</v>
+      </c>
+      <c r="M304" s="4">
+        <f t="shared" si="265"/>
+        <v>-3.1425899503400918E-2</v>
+      </c>
+      <c r="N304" s="4">
+        <f t="shared" si="266"/>
+        <v>0</v>
+      </c>
+      <c r="O304" s="4">
+        <f t="shared" si="267"/>
+        <v>-1.2810220927135792E-2</v>
+      </c>
+      <c r="P304" s="4">
+        <f t="shared" si="268"/>
+        <v>-8.550382445812901E-3</v>
+      </c>
+      <c r="Q304" s="4">
+        <f t="shared" si="269"/>
+        <v>4.7396407491100891E-2</v>
+      </c>
+      <c r="R304" s="4">
+        <f t="shared" si="270"/>
+        <v>6.9459024046036322E-3</v>
+      </c>
+      <c r="S304" s="4">
+        <f t="shared" si="271"/>
+        <v>2.8190735336692078E-2</v>
+      </c>
+      <c r="T304" s="4">
+        <f t="shared" si="272"/>
+        <v>9.6696227636577613E-3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="7">
+        <v>45737</v>
+      </c>
+      <c r="B305" s="22">
+        <v>84043.24</v>
+      </c>
+      <c r="C305" s="22">
+        <v>1280</v>
+      </c>
+      <c r="D305" s="22">
+        <v>2433538</v>
+      </c>
+      <c r="E305" s="22">
+        <v>64.34</v>
+      </c>
+      <c r="F305">
+        <v>214.86268479758999</v>
+      </c>
+      <c r="G305" s="2">
+        <f t="shared" si="259"/>
+        <v>2.1486268479758999</v>
+      </c>
+      <c r="H305" s="8">
+        <f t="shared" si="260"/>
+        <v>39114.860767551334</v>
+      </c>
+      <c r="I305">
+        <f t="shared" si="261"/>
+        <v>595.72931484395053</v>
+      </c>
+      <c r="J305">
+        <f t="shared" si="262"/>
+        <v>11326.015042083733</v>
+      </c>
+      <c r="K305">
+        <f t="shared" si="263"/>
+        <v>884.84492516279158</v>
+      </c>
+      <c r="L305">
+        <f t="shared" si="264"/>
+        <v>29.944706341452957</v>
+      </c>
+      <c r="M305" s="4">
+        <f t="shared" si="265"/>
+        <v>-1.4738683572759084E-3</v>
+      </c>
+      <c r="N305" s="4">
+        <f t="shared" si="266"/>
+        <v>0</v>
+      </c>
+      <c r="O305" s="4">
+        <f t="shared" si="267"/>
+        <v>3.0014008649641974E-2</v>
+      </c>
+      <c r="P305" s="4">
+        <f t="shared" si="268"/>
+        <v>4.5174934681370864E-3</v>
+      </c>
+      <c r="Q305" s="4">
+        <f t="shared" si="269"/>
+        <v>4.7246359957674885E-2</v>
+      </c>
+      <c r="R305" s="4">
+        <f t="shared" si="270"/>
+        <v>6.9459024046036322E-3</v>
+      </c>
+      <c r="S305" s="4">
+        <f t="shared" si="271"/>
+        <v>2.9003515011316438E-2</v>
+      </c>
+      <c r="T305" s="4">
+        <f t="shared" si="272"/>
+        <v>9.6164264945097187E-3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="7">
+        <v>45741</v>
+      </c>
+      <c r="B306" s="22">
+        <v>87471.7</v>
+      </c>
+      <c r="C306" s="22">
+        <v>1280</v>
+      </c>
+      <c r="D306" s="22">
+        <v>2487680</v>
+      </c>
+      <c r="E306" s="22">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="F306">
+        <v>215.03457494542803</v>
+      </c>
+      <c r="G306" s="2">
+        <f t="shared" si="259"/>
+        <v>2.1503457494542801</v>
+      </c>
+      <c r="H306" s="8">
+        <f t="shared" si="260"/>
+        <v>40677.970053047873</v>
+      </c>
+      <c r="I306">
+        <f t="shared" si="261"/>
+        <v>595.25311235406741</v>
+      </c>
+      <c r="J306">
+        <f t="shared" si="262"/>
+        <v>11568.744238601299</v>
+      </c>
+      <c r="K306">
+        <f t="shared" si="263"/>
+        <v>903.8081436407266</v>
+      </c>
+      <c r="L306">
+        <f t="shared" si="264"/>
+        <v>30.18119296232733</v>
+      </c>
+      <c r="M306" s="4">
+        <f t="shared" si="265"/>
+        <v>3.9983884174223473E-2</v>
+      </c>
+      <c r="N306" s="4">
+        <f t="shared" si="266"/>
+        <v>0</v>
+      </c>
+      <c r="O306" s="4">
+        <f t="shared" si="267"/>
+        <v>2.2004383703402911E-2</v>
+      </c>
+      <c r="P306" s="4">
+        <f t="shared" si="268"/>
+        <v>8.6661018991639992E-3</v>
+      </c>
+      <c r="Q306" s="4">
+        <f t="shared" si="269"/>
+        <v>4.809853366752135E-2</v>
+      </c>
+      <c r="R306" s="4">
+        <f t="shared" si="270"/>
+        <v>6.5621111434115195E-3</v>
+      </c>
+      <c r="S306" s="4">
+        <f t="shared" si="271"/>
+        <v>2.9391076988183638E-2</v>
+      </c>
+      <c r="T306" s="4">
+        <f t="shared" si="272"/>
+        <v>9.7972165130723286E-3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="7">
+        <v>45742</v>
+      </c>
+      <c r="B307" s="22">
+        <v>86900.88</v>
+      </c>
+      <c r="C307" s="22">
+        <v>1295</v>
+      </c>
+      <c r="D307" s="22">
+        <v>2439966</v>
+      </c>
+      <c r="E307" s="22">
+        <v>64.27</v>
+      </c>
+      <c r="F307">
+        <v>215.20660260538435</v>
+      </c>
+      <c r="G307" s="2">
+        <f t="shared" si="259"/>
+        <v>2.1520660260538436</v>
+      </c>
+      <c r="H307" s="8">
+        <f t="shared" si="260"/>
+        <v>40380.210898708639</v>
+      </c>
+      <c r="I307">
+        <f t="shared" si="261"/>
+        <v>601.74733689495076</v>
+      </c>
+      <c r="J307">
+        <f t="shared" si="262"/>
+        <v>11337.784112851161</v>
+      </c>
+      <c r="K307">
+        <f t="shared" si="263"/>
+        <v>875.50456469893129</v>
+      </c>
+      <c r="L307">
+        <f t="shared" si="264"/>
+        <v>29.864325360801914</v>
+      </c>
+      <c r="M307" s="4">
+        <f t="shared" si="265"/>
+        <v>-6.5471536754880197E-3</v>
+      </c>
+      <c r="N307" s="4">
+        <f t="shared" si="266"/>
+        <v>1.1650617219975274E-2</v>
+      </c>
+      <c r="O307" s="4">
+        <f t="shared" si="267"/>
+        <v>-1.9366444459870645E-2</v>
+      </c>
+      <c r="P307" s="4">
+        <f t="shared" si="268"/>
+        <v>-9.7546643268496321E-3</v>
+      </c>
+      <c r="Q307" s="4">
+        <f t="shared" si="269"/>
+        <v>4.7935821756745836E-2</v>
+      </c>
+      <c r="R307" s="4">
+        <f t="shared" si="270"/>
+        <v>6.8669543149950758E-3</v>
+      </c>
+      <c r="S307" s="4">
+        <f t="shared" si="271"/>
+        <v>2.9399536985787986E-2</v>
+      </c>
+      <c r="T307" s="4">
+        <f t="shared" si="272"/>
+        <v>1.0020054616447819E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="7">
+        <v>45743</v>
+      </c>
+      <c r="B308" s="22">
+        <v>87177.1</v>
+      </c>
+      <c r="C308" s="22">
+        <v>1310</v>
+      </c>
+      <c r="D308" s="22">
+        <v>2412082</v>
+      </c>
+      <c r="E308" s="22">
+        <v>64.56</v>
+      </c>
+      <c r="F308">
+        <v>215.37876788746863</v>
+      </c>
+      <c r="G308" s="2">
+        <f t="shared" si="259"/>
+        <v>2.1537876788746861</v>
+      </c>
+      <c r="H308" s="8">
+        <f t="shared" si="260"/>
+        <v>40476.181034496592</v>
+      </c>
+      <c r="I308">
+        <f t="shared" si="261"/>
+        <v>608.23079862934799</v>
+      </c>
+      <c r="J308">
+        <f t="shared" si="262"/>
+        <v>11199.256192515075</v>
+      </c>
+      <c r="K308">
+        <f t="shared" si="263"/>
+        <v>854.90505286374628</v>
+      </c>
+      <c r="L308">
+        <f t="shared" si="264"/>
+        <v>29.975099511076873</v>
+      </c>
+      <c r="M308" s="4">
+        <f t="shared" si="265"/>
+        <v>3.1735229444102573E-3</v>
+      </c>
+      <c r="N308" s="4">
+        <f t="shared" si="266"/>
+        <v>1.1516442061559081E-2</v>
+      </c>
+      <c r="O308" s="4">
+        <f t="shared" si="267"/>
+        <v>-1.1493829811480723E-2</v>
+      </c>
+      <c r="P308" s="4">
+        <f t="shared" si="268"/>
+        <v>4.5020645784985911E-3</v>
+      </c>
+      <c r="Q308" s="4">
+        <f t="shared" si="269"/>
+        <v>4.7920774821847131E-2</v>
+      </c>
+      <c r="R308" s="4">
+        <f t="shared" si="270"/>
+        <v>7.1371944211595399E-3</v>
+      </c>
+      <c r="S308" s="4">
+        <f t="shared" si="271"/>
+        <v>2.9487810664756843E-2</v>
+      </c>
+      <c r="T308" s="4">
+        <f t="shared" si="272"/>
+        <v>1.0075510498689948E-2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A309" s="7">
+        <v>45744</v>
+      </c>
+      <c r="B309" s="22">
+        <v>84423.16</v>
+      </c>
+      <c r="C309" s="22">
+        <v>1300</v>
+      </c>
+      <c r="D309" s="22">
+        <v>2368563</v>
+      </c>
+      <c r="E309" s="22">
+        <v>63.65</v>
+      </c>
+      <c r="F309">
+        <v>215.55107090177859</v>
+      </c>
+      <c r="G309" s="2">
+        <f t="shared" si="259"/>
+        <v>2.1555107090177859</v>
+      </c>
+      <c r="H309" s="8">
+        <f t="shared" si="260"/>
+        <v>39166.198361626142</v>
+      </c>
+      <c r="I309">
+        <f t="shared" si="261"/>
+        <v>603.10533116876911</v>
+      </c>
+      <c r="J309">
+        <f t="shared" si="262"/>
+        <v>10988.407480839178</v>
+      </c>
+      <c r="K309">
+        <f t="shared" si="263"/>
+        <v>845.26211391070615</v>
+      </c>
+      <c r="L309">
+        <f t="shared" si="264"/>
+        <v>29.52896486837858</v>
+      </c>
+      <c r="M309" s="4">
+        <f t="shared" si="265"/>
+        <v>-3.2099910204786551E-2</v>
+      </c>
+      <c r="N309" s="4">
+        <f t="shared" si="266"/>
+        <v>-7.6628727455691371E-3</v>
+      </c>
+      <c r="O309" s="4">
+        <f t="shared" si="267"/>
+        <v>-1.8206832829033105E-2</v>
+      </c>
+      <c r="P309" s="4">
+        <f t="shared" si="268"/>
+        <v>-1.4195698958277939E-2</v>
+      </c>
+      <c r="Q309" s="4">
+        <f t="shared" si="269"/>
+        <v>4.4602003638930299E-2</v>
+      </c>
+      <c r="R309" s="4">
+        <f t="shared" si="270"/>
+        <v>7.4264679373350524E-3</v>
+      </c>
+      <c r="S309" s="4">
+        <f t="shared" si="271"/>
+        <v>2.9037502980880748E-2</v>
+      </c>
+      <c r="T309" s="4">
+        <f t="shared" si="272"/>
+        <v>1.0518389077243385E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
